--- a/dados/propostas_mon/relatorio_propostas.xlsx
+++ b/dados/propostas_mon/relatorio_propostas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>Nº da Proposta</t>
   </si>
@@ -580,6 +580,48 @@
     <t>24/05/2023</t>
   </si>
   <si>
+    <t>170512</t>
+  </si>
+  <si>
+    <t>13.849.028/0001-40</t>
+  </si>
+  <si>
+    <t>FUNDO ESTADUAL DE SAUDE DO TOCANTINS</t>
+  </si>
+  <si>
+    <t>PALMAS</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>ABREULANDIA; AGUIARNOPOLIS; ALIANCA DO TOCANTINS; ALMAS; ALVORADA; ANANAS; ANGICO; APARECIDA DO RIO NEGRO; ARAGOMINAS; ARAGUACEMA; ARAGUACU; ARAGUAINA; ARAGUANA; ARAGUATINS; ARAPOEMA; ARRAIAS; AUGUSTINOPOLIS; AURORA DO TOCANTINS; AXIXA DO TOCANTINS; BABACULANDIA; BANDEIRANTES DO TOCANTINS; BARRA DO OURO; BARROLANDIA; BERNARDO SAYAO; BOM JESUS DO TOCANTINS; BRASILANDIA DO TOCANTINS; BREJINHO DE NAZARE; BURITI DO TOCANTINS; CACHOEIRINHA; CAMPOS LINDOS; CARIRI DO TOCANTINS; CARMOLANDIA; CARRASCO BONITO; CASEARA; CENTENARIO; CHAPADA DE AREIA; CHAPADA DA NATIVIDADE; COLINAS DO TOCANTINS; COMBINADO; CONCEICAO DO TOCANTINS; COUTO MAGALHAES; CRISTALANDIA; CRIXAS DO TOCANTINS; DARCINOPOLIS; DIANOPOLIS; DIVINOPOLIS DO TOCANTINS; DOIS IRMAOS DO TOCANTINS; DUERE; ESPERANTINA; FATIMA; FIGUEIROPOLIS; FILADELFIA; FORMOSO DO ARAGUAIA; FORTALEZA DO TABOCAO; GOIANORTE; GOIATINS; GUARAI; GURUPI; IPUEIRAS; ITACAJA; ITAGUATINS; ITAPIRATINS; ITAPORA DO TOCANTINS; JAU DO TOCANTINS; JUARINA; LAGOA DA CONFUSAO; LAGOA DO TOCANTINS; LAJEADO; LAVANDEIRA; LIZARDA; LUZINOPOLIS; MARIANOPOLIS DO TOCANTINS; MATEIROS; MAURILANDIA DO TOCANTINS; MIRACEMA DO TOCANTINS; MIRANORTE; MONTE DO CARMO; MONTE SANTO DO TOCANTINS; PALMEIRAS DO TOCANTINS; MURICILANDIA; NATIVIDADE; NAZARE; NOVA OLINDA; NOVA ROSALANDIA; NOVO ACORDO; NOVO ALEGRE; NOVO JARDIM; OLIVEIRA DE FATIMA; PALMEIRANTE; PALMEIROPOLIS; PARAISO DO TOCANTINS; PARANA; PAU D'ARCO; PEDRO AFONSO; PEIXE; PEQUIZEIRO; COLMEIA; PINDORAMA DO TOCANTINS; PIRAQUE; PIUM; PONTE ALTA DO BOM JESUS; PONTE ALTA DO TOCANTINS; PORTO ALEGRE DO TOCANTINS; PORTO NACIONAL; PRAIA NORTE; PRESIDENTE KENNEDY; PUGMIL; RECURSOLANDIA; RIACHINHO; RIO DA CONCEICAO; RIO DOS BOIS; RIO SONO; SAMPAIO; SANDOLANDIA; SANTA FE DO ARAGUAIA; SANTA MARIA DO TOCANTINS; SANTA RITA DO TOCANTINS; SANTA ROSA DO TOCANTINS; SANTA TEREZA DO TOCANTINS; SANTA TEREZINHA DO TOCANTINS; SAO BENTO DO TOCANTINS; SAO FELIX DO TOCANTINS; SAO MIGUEL DO TOCANTINS; SAO SALVADOR DO TOCANTINS; SAO SEBASTIAO DO TOCANTINS; SAO VALERIO; SILVANOPOLIS; SITIO NOVO DO TOCANTINS; SUCUPIRA; TAGUATINGA; TAIPAS DO TOCANTINS; TALISMA; PALMAS; TOCANTINIA; TOCANTINOPOLIS; TUPIRAMA; TUPIRATINS; WANDERLANDIA; XAMBIOA</t>
+  </si>
+  <si>
+    <t>170025; 170030; 170035; 170040; 170070; 170100; 170105; 170110; 170130; 170190; 170200; 170210; 170215; 170220; 170230; 170240; 170255; 170270; 170290; 170300; 170305; 170307; 170310; 170320; 170330; 170360; 170370; 170380; 170382; 170384; 170386; 170388; 170389; 170390; 170410; 170460; 170510; 170550; 170555; 170560; 170600; 170610; 170625; 170650; 170700; 170710; 170720; 170730; 170740; 170755; 170765; 170770; 170820; 170825; 170830; 170900; 170930; 170950; 170980; 171050; 171070; 171090; 171110; 171150; 171180; 171190; 171195; 171200; 171215; 171240; 171245; 171250; 171270; 171280; 171320; 171330; 171360; 171370; 171380; 171395; 171420; 171430; 171488; 171500; 171510; 171515; 171525; 171550; 171570; 171575; 171610; 171620; 171630; 171650; 171660; 171665; 171670; 171700; 171720; 171750; 171780; 171790; 171800; 171820; 171830; 171840; 171845; 171850; 171855; 171865; 171870; 171875; 171880; 171884; 171886; 171888; 171889; 171890; 171900; 172000; 172010; 172015; 172020; 172025; 172030; 172049; 172065; 172080; 172085; 172090; 172093; 172097; 172100; 172110; 172120; 172125; 172130; 172208; 172210</t>
+  </si>
+  <si>
+    <t>1607363</t>
+  </si>
+  <si>
+    <t>JULIANA RIBEIRO PINTO</t>
+  </si>
+  <si>
+    <t>juenf86@gmail.com</t>
+  </si>
+  <si>
+    <t>61 86119188</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
     <t>170520</t>
   </si>
   <si>
@@ -614,12 +656,6 @@
   </si>
   <si>
     <t>21 23334031</t>
-  </si>
-  <si>
-    <t>24/02/2023</t>
-  </si>
-  <si>
-    <t>25/05/2023</t>
   </si>
   <si>
     <t>Laura Vanessa de Souza Albuquerque</t>
@@ -637,6 +673,113 @@
 marcelo.rodrigues@saude.rj.gov.br
 marcelo.rodrigues.castro@gmail.com
 laura.albuquerque@saude.rj.gov.br</t>
+  </si>
+  <si>
+    <t>170522</t>
+  </si>
+  <si>
+    <t>74.031.865/0001-51</t>
+  </si>
+  <si>
+    <t>FORTALEZA</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Mutirão de cirurgias eletivas. Tem como objetivos: organizar e ampliar o acesso a cirurgias, exames e consultas na Atenção Especializada à 
+Saúde, em especial àqueles com demanda reprimida identificada, aprimorar a governança da Rede de Atenção à Saúde com centralidade na garantia do acesso, gestão por resultados e financiamento estável; fomentar o monitoramento e a avaliação das ações e dos serviços de saúde, visando melhorar a qualidade da atenção especializada e ampliar o acesso à saúde; qualificar a contratualização com a rede complementar; mudar modelo de gestão e regulação das filas para a atenção especializada (regulação do acesso), visando a adequar a oferta de ações e serviços de saúde de acordo com as necessidades de saúde, estratificação de risco e necessidades assistenciais e fomentar a implementação de um novo modelo de custeio para a atenção ambulatorial especializada e para a realização de cirurgias eletivas.</t>
+  </si>
+  <si>
+    <t>ABAIARA; ACARAPE; ACARAU; ACOPIARA; AIUABA; ALCANTARAS; ALTANEIRA; ALTO SANTO; AMONTADA; ANTONINA DO NORTE; APUIARES; AQUIRAZ; ARACATI; ARACOIABA; ARARENDA; ARARIPE; ARATUBA; ARNEIROZ; ASSARE; AURORA; BAIXIO; BANABUIU; BARBALHA; BARREIRA; BARRO; BARROQUINHA; BATURITE; BEBERIBE; BELA CRUZ; BOA VIAGEM; BREJO SANTO; CAMOCIM; CAMPOS SALES; CANINDE; CAPISTRANO; CARIDADE; CARIRE; CARIRIACU; CARIUS; CARNAUBAL; CASCAVEL; CATARINA; CATUNDA; CAUCAIA; CEDRO; CHAVAL; CHORO; CHOROZINHO; COREAU; CRATEUS; CRATO; CROATA; CRUZ; DEPUTADO IRAPUAN PINHEIRO; ERERE; EUSEBIO; FARIAS BRITO; FORQUILHA; FORTALEZA; FORTIM; FRECHEIRINHA; GENERAL SAMPAIO; GRACA; GRANJA; GRANJEIRO; GROAIRAS; GUAIUBA; GUARACIABA DO NORTE; GUARAMIRANGA; HIDROLANDIA; HORIZONTE; IBARETAMA; IBIAPINA; IBICUITINGA; ICAPUI; ICO; IGUATU; INDEPENDENCIA; IPAPORANGA; IPAUMIRIM; IPU; IPUEIRAS; IRACEMA; IRAUCUBA; ITAICABA; ITAITINGA; ITAPAGE; ITAPIPOCA; ITAPIUNA; ITAREMA; ITATIRA; JAGUARETAMA; JAGUARIBARA; JAGUARIBE; JAGUARUANA; JARDIM; JATI; JIJOCA DE JERICOACOARA; JUAZEIRO DO NORTE; JUCAS; LAVRAS DA MANGABEIRA; LIMOEIRO DO NORTE; MADALENA; MARACANAU; MARANGUAPE; MARCO; MARTINOPOLE; MASSAPE; MAURITI; MERUOCA; MILAGRES; MILHA; MIRAIMA; MISSAO VELHA; MOMBACA; MONSENHOR TABOSA; MORADA NOVA; MORAUJO; MORRINHOS; MUCAMBO; MULUNGU; NOVA OLINDA; NOVA RUSSAS; NOVO ORIENTE; OCARA; OROS; PACAJUS; PACATUBA; PACOTI; PACUJA; PALHANO; PALMACIA; PARACURU; PARAIPABA; PARAMBU; PARAMOTI; PEDRA BRANCA; PENAFORTE; PENTECOSTE; PEREIRO; PINDORETAMA; PIQUET CARNEIRO; PIRES FERREIRA; PORANGA; PORTEIRAS; POTENGI; POTIRETAMA; QUITERIANOPOLIS; QUIXADA; QUIXELO; QUIXERAMOBIM; QUIXERE; REDENCAO; RERIUTABA; RUSSAS; SABOEIRO; SALITRE; SANTANA DO ACARAU; SANTANA DO CARIRI; SANTA QUITERIA; SAO BENEDITO; SAO GONCALO DO AMARANTE; SAO JOAO DO JAGUARIBE; SAO LUIS DO CURU; SENADOR POMPEU; SENADOR SA; SOBRAL; SOLONOPOLE; TABULEIRO DO NORTE; TAMBORIL; TARRAFAS; TAUA; TEJUCUOCA; TIANGUA; TRAIRI; TURURU; UBAJARA; UMARI; UMIRIM; URUBURETAMA; URUOCA; VARJOTA; VARZEA ALEGRE; VICOSA DO CEARA</t>
+  </si>
+  <si>
+    <t>230010; 230015; 230020; 230030; 230040; 230050; 230060; 230070; 230075; 230080; 230090; 230100; 230110; 230120; 230125; 230130; 230140; 230150; 230160; 230170; 230180; 230185; 230190; 230195; 230200; 230205; 230210; 230220; 230230; 230240; 230250; 230260; 230270; 230280; 230290; 230300; 230310; 230320; 230330; 230340; 230350; 230360; 230365; 230370; 230380; 230390; 230393; 230395; 230400; 230410; 230420; 230423; 230425; 230426; 230427; 230428; 230430; 230435; 230440; 230445; 230450; 230460; 230465; 230470; 230480; 230490; 230495; 230500; 230510; 230520; 230523; 230526; 230530; 230533; 230535; 230540; 230550; 230560; 230565; 230570; 230580; 230590; 230600; 230610; 230620; 230625; 230630; 230640; 230650; 230655; 230660; 230670; 230680; 230690; 230700; 230710; 230720; 230725; 230730; 230740; 230750; 230760; 230763; 230765; 230770; 230780; 230790; 230800; 230810; 230820; 230830; 230835; 230837; 230840; 230850; 230860; 230870; 230880; 230890; 230900; 230910; 230920; 230930; 230940; 230945; 230950; 230960; 230970; 230980; 230990; 231000; 231010; 231020; 231025; 231030; 231040; 231050; 231060; 231070; 231080; 231085; 231090; 231095; 231100; 231110; 231120; 231123; 231126; 231130; 231135; 231140; 231150; 231160; 231170; 231180; 231190; 231195; 231200; 231210; 231220; 231230; 231240; 231250; 231260; 231270; 231280; 231290; 231300; 231310; 231320; 231325; 231330; 231335; 231340; 231350; 231355; 231360; 231370; 231375; 231380; 231390; 231395; 231400; 231410</t>
+  </si>
+  <si>
+    <t>9240580</t>
+  </si>
+  <si>
+    <t>25.991.043,34</t>
+  </si>
+  <si>
+    <t>QUELVIA DA SILVA LIMA</t>
+  </si>
+  <si>
+    <t>quelviaadm@gmail.com</t>
+  </si>
+  <si>
+    <t>85 99657881</t>
+  </si>
+  <si>
+    <t>170537</t>
+  </si>
+  <si>
+    <t>06.023.953/0001-51</t>
+  </si>
+  <si>
+    <t>ESTADO DO MARANHAO - FUNDO ESTADUAL DE SAUDE / FES</t>
+  </si>
+  <si>
+    <t>SAO LUIS</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ACAILANDIA; AFONSO CUNHA; AGUA DOCE DO MARANHAO; ALCANTARA; ALDEIAS ALTAS; ALTAMIRA DO MARANHAO; ALTO ALEGRE DO MARANHAO; ALTO ALEGRE DO PINDARE; ALTO PARNAIBA; AMAPA DO MARANHAO; AMARANTE DO MARANHAO; ANAJATUBA; ANAPURUS; APICUM-ACU; ARAGUANA; ARAIOSES; ARAME; ARARI; AXIXA; BACABAL; BACABEIRA; BACURI; BACURITUBA; BALSAS; BARAO DE GRAJAU; BARRA DO CORDA; BARREIRINHAS; BELAGUA; BELA VISTA DO MARANHAO; BENEDITO LEITE; BEQUIMAO; BERNARDO DO MEARIM; BOA VISTA DO GURUPI; BOM JARDIM; BOM JESUS DAS SELVAS; BOM LUGAR; BREJO; BREJO DE AREIA; BURITI; BURITI BRAVO; BURITICUPU; BURITIRANA; CACHOEIRA GRANDE; CAJAPIO; CAJARI; CAMPESTRE DO MARANHAO; CANDIDO MENDES; CANTANHEDE; CAPINZAL DO NORTE; CAROLINA; CARUTAPERA; CAXIAS; CEDRAL; CENTRAL DO MARANHAO; CENTRO DO GUILHERME; CENTRO NOVO DO MARANHAO; CHAPADINHA; CIDELANDIA; CODO; COELHO NETO; COLINAS; CONCEICAO DO LAGO-ACU; COROATA; CURURUPU; DAVINOPOLIS; DOM PEDRO; DUQUE BACELAR; ESPERANTINOPOLIS; ESTREITO; FEIRA NOVA DO MARANHAO; FERNANDO FALCAO; FORMOSA DA SERRA NEGRA; FORTALEZA DOS NOGUEIRAS; FORTUNA; GODOFREDO VIANA; GONCALVES DIAS; GOVERNADOR ARCHER; GOVERNADOR EDISON LOBAO; GOVERNADOR EUGENIO BARROS; GOVERNADOR LUIZ ROCHA; GOVERNADOR NEWTON BELLO; GOVERNADOR NUNES FREIRE; GRACA ARANHA; GRAJAU; GUIMARAES; HUMBERTO DE CAMPOS; ICATU; IGARAPE DO MEIO; IGARAPE GRANDE; IMPERATRIZ; ITAIPAVA DO GRAJAU; ITAPECURU MIRIM; ITINGA DO MARANHAO; JATOBA; JENIPAPO DOS VIEIRAS; JOAO LISBOA; JOSELANDIA; JUNCO DO MARANHAO; LAGO DA PEDRA; LAGO DO JUNCO; LAGO VERDE; LAGOA DO MATO; LAGO DOS RODRIGUES; LAGOA GRANDE DO MARANHAO; LAJEADO NOVO; LIMA CAMPOS; LORETO; LUIS DOMINGUES; MAGALHAES DE ALMEIDA; MARACACUME; MARAJA DO SENA; MARANHAOZINHO; MATA ROMA; MATINHA; MATOES; MATOES DO NORTE; MILAGRES DO MARANHAO; MIRADOR; MIRANDA DO NORTE; MIRINZAL; MONCAO; MONTES ALTOS; MORROS; NINA RODRIGUES; NOVA COLINAS; NOVA IORQUE; NOVA OLINDA DO MARANHAO; OLHO D'AGUA DAS CUNHAS; OLINDA NOVA DO MARANHAO; PACO DO LUMIAR; PALMEIRANDIA; PARAIBANO; PARNARAMA; PASSAGEM FRANCA; PASTOS BONS; PAULINO NEVES; PAULO RAMOS; PEDREIRAS; PEDRO DO ROSARIO; PENALVA; PERI MIRIM; PERITORO; PINDARE-MIRIM; PINHEIRO; PIO XII; PIRAPEMAS; POCAO DE PEDRAS; PORTO FRANCO; PORTO RICO DO MARANHAO; PRESIDENTE DUTRA; PRESIDENTE JUSCELINO; PRESIDENTE MEDICI; PRESIDENTE SARNEY; PRESIDENTE VARGAS; PRIMEIRA CRUZ; RAPOSA; RIACHAO; RIBAMAR FIQUENE; ROSARIO; SAMBAIBA; SANTA FILOMENA DO MARANHAO; SANTA HELENA; SANTA INES; SANTA LUZIA; SANTA LUZIA DO PARUA; SANTA QUITERIA DO MARANHAO; SANTA RITA; SANTANA DO MARANHAO; SANTO AMARO DO MARANHAO; SANTO ANTONIO DOS LOPES; SAO BENEDITO DO RIO PRETO; SAO BENTO; SAO BERNARDO; SAO DOMINGOS DO AZEITAO; SAO DOMINGOS DO MARANHAO; SAO FELIX DE BALSAS; SAO FRANCISCO DO BREJAO; SAO FRANCISCO DO MARANHAO; SAO JOAO BATISTA; SAO JOAO DO CARU; SAO JOAO DO PARAISO; SAO JOAO DO SOTER; SAO JOAO DOS PATOS; SAO JOSE DE RIBAMAR; SAO JOSE DOS BASILIOS; SAO LUIS; SAO LUIS GONZAGA DO MARANHAO; SAO MATEUS DO MARANHAO; SAO PEDRO DA AGUA BRANCA; SAO PEDRO DOS CRENTES; SAO RAIMUNDO DAS MANGABEIRAS; SAO RAIMUNDO DO DOCA BEZERRA; SAO ROBERTO; SAO VICENTE FERRER; SATUBINHA; SENADOR ALEXANDRE COSTA; SENADOR LA ROCQUE; SERRANO DO MARANHAO; SITIO NOVO; SUCUPIRA DO NORTE; SUCUPIRA DO RIACHAO; TASSO FRAGOSO; TIMBIRAS; TIMON; TRIZIDELA DO VALE; TUFILANDIA; TUNTUM; TURIACU; TURILANDIA; TUTOIA; URBANO SANTOS; VARGEM GRANDE; VIANA; VILA NOVA DOS MARTIRIOS; VITORIA DO MEARIM; VITORINO FREIRE; ZE DOCA</t>
+  </si>
+  <si>
+    <t>210005; 210010; 210015; 210020; 210030; 210040; 210043; 210047; 210050; 210055; 210060; 210070; 210080; 210083; 210087; 210090; 210095; 210100; 210110; 210120; 210125; 210130; 210135; 210140; 210150; 210160; 210170; 210173; 210177; 210180; 210190; 210193; 210197; 210200; 210203; 210207; 210210; 210215; 210220; 210230; 210232; 210235; 210237; 210240; 210250; 210255; 210260; 210270; 210275; 210280; 210290; 210300; 210310; 210312; 210315; 210317; 210320; 210325; 210330; 210340; 210350; 210355; 210360; 210370; 210375; 210380; 210390; 210400; 210405; 210407; 210408; 210409; 210410; 210420; 210430; 210440; 210450; 210455; 210460; 210462; 210465; 210467; 210470; 210480; 210490; 210500; 210510; 210515; 210520; 210530; 210535; 210540; 210542; 210545; 210547; 210550; 210560; 210565; 210570; 210580; 210590; 210592; 210594; 210596; 210598; 210600; 210610; 210620; 210630; 210632; 210635; 210637; 210640; 210650; 210660; 210663; 210667; 210670; 210675; 210680; 210690; 210700; 210710; 210720; 210725; 210730; 210735; 210740; 210745; 210750; 210760; 210770; 210780; 210790; 210800; 210805; 210810; 210820; 210825; 210830; 210840; 210845; 210850; 210860; 210870; 210880; 210890; 210900; 210905; 210910; 210920; 210923; 210927; 210930; 210940; 210945; 210950; 210955; 210960; 210970; 210975; 210980; 210990; 211000; 211003; 211010; 211020; 211023; 211027; 211030; 211040; 211050; 211060; 211065; 211070; 211080; 211085; 211090; 211100; 211102; 211105; 211107; 211110; 211120; 211125; 211130; 211140; 211150; 211153; 211157; 211160; 211163; 211167; 211170; 211172; 211174; 211176; 211178; 211180; 211190; 211195; 211200; 211210; 211220; 211223; 211227; 211230; 211240; 211245; 211250; 211260; 211270; 211280; 211285; 211290; 211300; 211400</t>
+  </si>
+  <si>
+    <t>7153262</t>
+  </si>
+  <si>
+    <t>20.120.029,55</t>
+  </si>
+  <si>
+    <t>LUCIANA AMORIM TOMICH NETTO GUTERRES SOARES</t>
+  </si>
+  <si>
+    <t>lucianatomich@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>98 99143176</t>
+  </si>
+  <si>
+    <t>27/02/2023</t>
+  </si>
+  <si>
+    <t>28/05/2023</t>
+  </si>
+  <si>
+    <t>Marina Nascimento Sousa</t>
+  </si>
+  <si>
+    <t>Superintendência de Avaliação e Controle do Sistema de Saúde/SES</t>
+  </si>
+  <si>
+    <t>(98) 98127-8774</t>
+  </si>
+  <si>
+    <t>marinasousa20@gmail.com</t>
+  </si>
+  <si>
+    <t>Há uma demanda reprimida para procedimentos cirúrgicos eletivos de media e alta complexidade, potencializada pela Pandemia Covid 19. A Secretaria de Estado da Saúde do Maranhão em conjunto com os municípios descentralizou os serviços de saúde ambulatoriais e hospitalares para as 19 Regiões de Saúde, abrangendo os 217 municípios maranhenses. Desta feita, os procedimentos cirúrgicos eletivos serão realizados nos estabelecimentos de saúde de gestão estadual e municipal</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Para ampliação dos serviços será necessário implementar os serviços nos estabelecimentos de saude adotando as seguintes medidas:
+* Aumento da capacidade de atendiemnto dos serviços de saude no ambito ambulatorial e hospitalar;
+* Melhor utilização da capacidade dos Serviços implementando o sistema de produtividade;
+* Ampliação de turno de trabalho para os procedimentos a serem realizados;
+* Ampliação das equipes multiprofissionais de saúde para a realização dos procedimentos cirúrgicos.</t>
+  </si>
+  <si>
+    <t>A gestão da fila cirúrgica será realizada pela gestão estadual com sistema de compartilhamento com os municípios, visando o acompanhamento das metas programadas e realizadas por cada estabelecimento de saúde e cronograma de execução estabelecido no Plano Nacional de Redução de Filas</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1153,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BY10"/>
+  <dimension ref="A1:BY13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="BY10" sqref="BY10"/>
+      <selection activeCell="BY13" sqref="BY13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3349,81 +3492,780 @@
         <v>79</v>
       </c>
       <c r="AZ10" s="2" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="BA10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77">
+      <c r="A11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BB10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BC10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BD10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BE10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BM10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BQ10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BT10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY10" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77">
+      <c r="A12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77">
+      <c r="A13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BB13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BC13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BH13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BR13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BT13" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BW13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY13" s="2" t="s">
         <v>79</v>
       </c>
     </row>

--- a/dados/propostas_mon/relatorio_propostas.xlsx
+++ b/dados/propostas_mon/relatorio_propostas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>Nº da Proposta</t>
   </si>
@@ -457,6 +457,9 @@
     <t>Sim</t>
   </si>
   <si>
+    <t>Não</t>
+  </si>
+  <si>
     <t>170358</t>
   </si>
   <si>
@@ -580,6 +583,64 @@
     <t>24/05/2023</t>
   </si>
   <si>
+    <t>170506</t>
+  </si>
+  <si>
+    <t>04.384.829/0001-96</t>
+  </si>
+  <si>
+    <t>ARACAJU</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Considerando que a saúde é um direito fundamental do ser humano, devendo o Estado prover as condições indispensáveis ao seu pleno exercício, Art. 2º da Lei nº 8.080, de 19 de setembro de 1990, que dispõe sobre as condições para a promoção, proteção e recuperação da saúde, a organização e o funcionamento dos serviços correspondentes e dá outras providências;
+	Considerando a Portaria n o 4.279, de 30 de dezembro de 2010, que estabelece diretrizes para a organização da Rede de Atenção à Saúde no âmbito do Sistema Único de Saúde;
+	Considerando a Relação Nacional de Ações e Serviços de Saúde RENASES, que compreende todas as ações e serviços que o Sistema Único de Saúde - SUS oferece ao usuário, para atendimento da integralidade da assistência à saúde, em atendimento ao disposto no art. 22, do Decreto n o 7.508, de 28 de junho de 2011 e no art. 70, inciso II, da Lei 8.080/90;
+	Considerando a Portaria n o 3.390, de 30 de dezembro de 2013, que institui a Política Nacional de Atenção Hospitalar (PNHOSP) no âmbito do Sistema Único de Saúde (SUS), estabelecendo as diretrizes para a organização do componente hospitalar da Rede de Atenção à Saúde (RAS);
+Considerando as diretrizes para a Contratualização de hospitais no âmbito do Sistema Único de Saúde;
+	Considerando que o Estado de Sergipe, atualmente, possui uma fila de  pacientes aguardando a realização de Cirurgias Eletivas em diversas especialidades como cirurgia geral, ortopedia, oftalmologia, otorrinolaringologia, cardiologia, neurocirurgia e outras; 
+	Considerando a necessidade em ofertar serviços de saúde, garantindo o acesso ao atendimento dos pacientes do SUS, em sintonia com as necessidades de saúde da população, com as políticas públicas de saúde para atenção hospitalar e com os princípios e diretrizes do SUS;
+	Considerando o compromisso em atender a demanda dos usuários do SUS Sergipe, residentes nos 75 municípios do Estado, com demanda pela realização de procedimentos cirúrgicos eletivos de média e alta complexidade; 
+Considerando a Portaria GM/MS nº 90, de 03 de fevereiro de 2023, que institui o Programa Nacional de Redução das Filas de CirurgiasEletivas, Exames Complementares e Consultas Especializadas.
+	 Diante do exposto, justifica-se a elaboração do Plano Estadual de Redução de Filas de Cirurgias Eletivas, em especial àquelas com demanda reprimida identificada, no Estado de Sergipe, conforme procedimentos descritos na Tabela de Procedimentos, Medicamentos, Órteses e Próteses e Materiais Especiais (OPM) do Sistema Único de Saúde ¿ SUS, e constante nos documentos em anexos.</t>
+  </si>
+  <si>
+    <t>AMPARO DE SAO FRANCISCO; AQUIDABA; ARACAJU; ARAUA; AREIA BRANCA; BARRA DOS COQUEIROS; BOQUIM; BREJO GRANDE; CAMPO DO BRITO; CANHOBA; CANINDE DE SAO FRANCISCO; CAPELA; CARIRA; CARMOPOLIS; CEDRO DE SAO JOAO; CRISTINAPOLIS; CUMBE; DIVINA PASTORA; ESTANCIA; FEIRA NOVA; FREI PAULO; GARARU; GENERAL MAYNARD; GRACHO CARDOSO; ILHA DAS FLORES; INDIAROBA; ITABAIANA; ITABAIANINHA; ITABI; ITAPORANGA D'AJUDA; JAPARATUBA; JAPOATA; LAGARTO; LARANJEIRAS; MACAMBIRA; MALHADA DOS BOIS; MALHADOR; MARUIM; MOITA BONITA; MONTE ALEGRE DE SERGIPE; MURIBECA; NEOPOLIS; NOSSA SENHORA APARECIDA; NOSSA SENHORA DA GLORIA; NOSSA SENHORA DAS DORES; NOSSA SENHORA DE LOURDES; NOSSA SENHORA DO SOCORRO; PACATUBA; PEDRA MOLE; PEDRINHAS; PINHAO; PIRAMBU; POCO REDONDO; POCO VERDE; PORTO DA FOLHA; PROPRIA; RIACHAO DO DANTAS; RIACHUELO; RIBEIROPOLIS; ROSARIO DO CATETE; SALGADO; SANTA LUZIA DO ITANHY; SANTANA DO SAO FRANCISCO; SANTA ROSA DE LIMA; SANTO AMARO DAS BROTAS; SAO CRISTOVAO; SAO DOMINGOS; SAO FRANCISCO; SAO MIGUEL DO ALEIXO; SIMAO DIAS; SIRIRI; TELHA; TOBIAS BARRETO; TOMAR DO GERU; UMBAUBA</t>
+  </si>
+  <si>
+    <t>280010; 280020; 280030; 280040; 280050; 280060; 280067; 280070; 280100; 280110; 280120; 280130; 280140; 280150; 280160; 280170; 280190; 280200; 280210; 280220; 280230; 280240; 280250; 280260; 280270; 280280; 280290; 280300; 280310; 280320; 280330; 280340; 280350; 280360; 280370; 280380; 280390; 280400; 280410; 280420; 280430; 280440; 280445; 280450; 280460; 280470; 280480; 280490; 280500; 280510; 280520; 280530; 280540; 280550; 280560; 280570; 280580; 280590; 280600; 280610; 280620; 280630; 280640; 280650; 280660; 280670; 280680; 280690; 280700; 280710; 280720; 280730; 280740; 280750; 280760</t>
+  </si>
+  <si>
+    <t>2338474</t>
+  </si>
+  <si>
+    <t>NEUZICE OLIVEIRA LIMA</t>
+  </si>
+  <si>
+    <t>neuzice.lima@saude.se.gov.br</t>
+  </si>
+  <si>
+    <t>79 32268375</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
+    <t>Neuzice Oliveira Lima</t>
+  </si>
+  <si>
+    <t>Coordenadora Estadual de Articulação de Redes Temáticas.</t>
+  </si>
+  <si>
+    <t>(79) 3226-8375
+(79) 99922-1799</t>
+  </si>
+  <si>
     <t>170512</t>
   </si>
   <si>
@@ -614,12 +675,6 @@
   </si>
   <si>
     <t>61 86119188</t>
-  </si>
-  <si>
-    <t>24/02/2023</t>
-  </si>
-  <si>
-    <t>25/05/2023</t>
   </si>
   <si>
     <t>170520</t>
@@ -727,13 +782,19 @@
     <t>MA</t>
   </si>
   <si>
-    <t>ACAILANDIA; AFONSO CUNHA; AGUA DOCE DO MARANHAO; ALCANTARA; ALDEIAS ALTAS; ALTAMIRA DO MARANHAO; ALTO ALEGRE DO MARANHAO; ALTO ALEGRE DO PINDARE; ALTO PARNAIBA; AMAPA DO MARANHAO; AMARANTE DO MARANHAO; ANAJATUBA; ANAPURUS; APICUM-ACU; ARAGUANA; ARAIOSES; ARAME; ARARI; AXIXA; BACABAL; BACABEIRA; BACURI; BACURITUBA; BALSAS; BARAO DE GRAJAU; BARRA DO CORDA; BARREIRINHAS; BELAGUA; BELA VISTA DO MARANHAO; BENEDITO LEITE; BEQUIMAO; BERNARDO DO MEARIM; BOA VISTA DO GURUPI; BOM JARDIM; BOM JESUS DAS SELVAS; BOM LUGAR; BREJO; BREJO DE AREIA; BURITI; BURITI BRAVO; BURITICUPU; BURITIRANA; CACHOEIRA GRANDE; CAJAPIO; CAJARI; CAMPESTRE DO MARANHAO; CANDIDO MENDES; CANTANHEDE; CAPINZAL DO NORTE; CAROLINA; CARUTAPERA; CAXIAS; CEDRAL; CENTRAL DO MARANHAO; CENTRO DO GUILHERME; CENTRO NOVO DO MARANHAO; CHAPADINHA; CIDELANDIA; CODO; COELHO NETO; COLINAS; CONCEICAO DO LAGO-ACU; COROATA; CURURUPU; DAVINOPOLIS; DOM PEDRO; DUQUE BACELAR; ESPERANTINOPOLIS; ESTREITO; FEIRA NOVA DO MARANHAO; FERNANDO FALCAO; FORMOSA DA SERRA NEGRA; FORTALEZA DOS NOGUEIRAS; FORTUNA; GODOFREDO VIANA; GONCALVES DIAS; GOVERNADOR ARCHER; GOVERNADOR EDISON LOBAO; GOVERNADOR EUGENIO BARROS; GOVERNADOR LUIZ ROCHA; GOVERNADOR NEWTON BELLO; GOVERNADOR NUNES FREIRE; GRACA ARANHA; GRAJAU; GUIMARAES; HUMBERTO DE CAMPOS; ICATU; IGARAPE DO MEIO; IGARAPE GRANDE; IMPERATRIZ; ITAIPAVA DO GRAJAU; ITAPECURU MIRIM; ITINGA DO MARANHAO; JATOBA; JENIPAPO DOS VIEIRAS; JOAO LISBOA; JOSELANDIA; JUNCO DO MARANHAO; LAGO DA PEDRA; LAGO DO JUNCO; LAGO VERDE; LAGOA DO MATO; LAGO DOS RODRIGUES; LAGOA GRANDE DO MARANHAO; LAJEADO NOVO; LIMA CAMPOS; LORETO; LUIS DOMINGUES; MAGALHAES DE ALMEIDA; MARACACUME; MARAJA DO SENA; MARANHAOZINHO; MATA ROMA; MATINHA; MATOES; MATOES DO NORTE; MILAGRES DO MARANHAO; MIRADOR; MIRANDA DO NORTE; MIRINZAL; MONCAO; MONTES ALTOS; MORROS; NINA RODRIGUES; NOVA COLINAS; NOVA IORQUE; NOVA OLINDA DO MARANHAO; OLHO D'AGUA DAS CUNHAS; OLINDA NOVA DO MARANHAO; PACO DO LUMIAR; PALMEIRANDIA; PARAIBANO; PARNARAMA; PASSAGEM FRANCA; PASTOS BONS; PAULINO NEVES; PAULO RAMOS; PEDREIRAS; PEDRO DO ROSARIO; PENALVA; PERI MIRIM; PERITORO; PINDARE-MIRIM; PINHEIRO; PIO XII; PIRAPEMAS; POCAO DE PEDRAS; PORTO FRANCO; PORTO RICO DO MARANHAO; PRESIDENTE DUTRA; PRESIDENTE JUSCELINO; PRESIDENTE MEDICI; PRESIDENTE SARNEY; PRESIDENTE VARGAS; PRIMEIRA CRUZ; RAPOSA; RIACHAO; RIBAMAR FIQUENE; ROSARIO; SAMBAIBA; SANTA FILOMENA DO MARANHAO; SANTA HELENA; SANTA INES; SANTA LUZIA; SANTA LUZIA DO PARUA; SANTA QUITERIA DO MARANHAO; SANTA RITA; SANTANA DO MARANHAO; SANTO AMARO DO MARANHAO; SANTO ANTONIO DOS LOPES; SAO BENEDITO DO RIO PRETO; SAO BENTO; SAO BERNARDO; SAO DOMINGOS DO AZEITAO; SAO DOMINGOS DO MARANHAO; SAO FELIX DE BALSAS; SAO FRANCISCO DO BREJAO; SAO FRANCISCO DO MARANHAO; SAO JOAO BATISTA; SAO JOAO DO CARU; SAO JOAO DO PARAISO; SAO JOAO DO SOTER; SAO JOAO DOS PATOS; SAO JOSE DE RIBAMAR; SAO JOSE DOS BASILIOS; SAO LUIS; SAO LUIS GONZAGA DO MARANHAO; SAO MATEUS DO MARANHAO; SAO PEDRO DA AGUA BRANCA; SAO PEDRO DOS CRENTES; SAO RAIMUNDO DAS MANGABEIRAS; SAO RAIMUNDO DO DOCA BEZERRA; SAO ROBERTO; SAO VICENTE FERRER; SATUBINHA; SENADOR ALEXANDRE COSTA; SENADOR LA ROCQUE; SERRANO DO MARANHAO; SITIO NOVO; SUCUPIRA DO NORTE; SUCUPIRA DO RIACHAO; TASSO FRAGOSO; TIMBIRAS; TIMON; TRIZIDELA DO VALE; TUFILANDIA; TUNTUM; TURIACU; TURILANDIA; TUTOIA; URBANO SANTOS; VARGEM GRANDE; VIANA; VILA NOVA DOS MARTIRIOS; VITORIA DO MEARIM; VITORINO FREIRE; ZE DOCA</t>
-  </si>
-  <si>
-    <t>210005; 210010; 210015; 210020; 210030; 210040; 210043; 210047; 210050; 210055; 210060; 210070; 210080; 210083; 210087; 210090; 210095; 210100; 210110; 210120; 210125; 210130; 210135; 210140; 210150; 210160; 210170; 210173; 210177; 210180; 210190; 210193; 210197; 210200; 210203; 210207; 210210; 210215; 210220; 210230; 210232; 210235; 210237; 210240; 210250; 210255; 210260; 210270; 210275; 210280; 210290; 210300; 210310; 210312; 210315; 210317; 210320; 210325; 210330; 210340; 210350; 210355; 210360; 210370; 210375; 210380; 210390; 210400; 210405; 210407; 210408; 210409; 210410; 210420; 210430; 210440; 210450; 210455; 210460; 210462; 210465; 210467; 210470; 210480; 210490; 210500; 210510; 210515; 210520; 210530; 210535; 210540; 210542; 210545; 210547; 210550; 210560; 210565; 210570; 210580; 210590; 210592; 210594; 210596; 210598; 210600; 210610; 210620; 210630; 210632; 210635; 210637; 210640; 210650; 210660; 210663; 210667; 210670; 210675; 210680; 210690; 210700; 210710; 210720; 210725; 210730; 210735; 210740; 210745; 210750; 210760; 210770; 210780; 210790; 210800; 210805; 210810; 210820; 210825; 210830; 210840; 210845; 210850; 210860; 210870; 210880; 210890; 210900; 210905; 210910; 210920; 210923; 210927; 210930; 210940; 210945; 210950; 210955; 210960; 210970; 210975; 210980; 210990; 211000; 211003; 211010; 211020; 211023; 211027; 211030; 211040; 211050; 211060; 211065; 211070; 211080; 211085; 211090; 211100; 211102; 211105; 211107; 211110; 211120; 211125; 211130; 211140; 211150; 211153; 211157; 211160; 211163; 211167; 211170; 211172; 211174; 211176; 211178; 211180; 211190; 211195; 211200; 211210; 211220; 211223; 211227; 211230; 211240; 211245; 211250; 211260; 211270; 211280; 211285; 211290; 211300; 211400</t>
-  </si>
-  <si>
-    <t>7153262</t>
+    <t>Com o Programa Nacional de Redução das Filas de Cirurgias Eletivas, instituído pela Portaria GM/MS nº 90, de 03 de fevereiro de 2023, o Governo Federal deu um passo fundamental para enfrentar a questão das filas para cirurgias eletivas, exames complementares e consultas especializadas no Sistema Único de Saúde (SUS), incentivando desta forma na organização de mutirões em todo o país, a fim de desafogar a demanda reprimida. A Priore os recursos financeiros disponíveis em 2023 para o Programa Nacional estão previstos a partir de um cálculo baseado na população dos estados, o restante será repassado de acordo com a produção apresentada de cirurgias realizadas. São objetivos do Programa a organização e ampliação do acesso a cirurgias, exames e consultas na Atenção Especializada (em especial, quando forem identificadas demandas reprimidas); o aprimoramento da governança da Rede de Atenção à Saúde; o fomento ao monitoramento e à avaliação das ações e dos serviços de saúde; a qualificação da contratualização com a rede complementar; a mudança do modelo de gestão e regulação das filas para a atenção especializada; e o fomento à implementação de um novo modelo de custeio para a atenção ambulatorial especializada e para a realização de cirurgias eletivas. O Programa prevê estratégias para garantir equipes cirúrgicas completas e melhorar o fluxo de atendimento em todo o Brasil. O Estado do Maranhão estabelecerá as cirurgias prioritárias, de acordo com a realidade de cada município. Em cumprimento ao Programa Nacional de Redução das Filas de Cirurgias Eletivas a Secretaria de Estado da Saúde do Maranhão envidará esforços nas ações para melhoria de processos de gestão das filas e do fluxo</t>
+  </si>
+  <si>
+    <t>0, 0</t>
+  </si>
+  <si>
+    <t>ACAILANDIA; AMARANTE DO MARANHAO; BALSAS; BARRA DO CORDA; BURITI BRAVO; BURITICUPU; CAROLINA; CIDELANDIA; COELHO NETO; COLINAS; CONCEICAO DO LAGO-ACU; IMPERATRIZ; ITAIPAVA DO GRAJAU; JENIPAPO DOS VIEIRAS; LAGO DA PEDRA; LIMA CAMPOS; MATOES; MIRINZAL; PARNARAMA; PINHEIRO; PIRAPEMAS; POCAO DE PEDRAS; PRESIDENTE JUSCELINO; SANTA HELENA; SANTA RITA; SANTANA DO MARANHAO; SAO FRANCISCO DO MARANHAO; SAO JOAO DO SOTER; SAO JOAO DOS PATOS; SAO JOSE DE RIBAMAR; SAO LUIS; SAO PEDRO DOS CRENTES; SATUBINHA; TIMBIRAS; TIMON; TUNTUM</t>
+  </si>
+  <si>
+    <t>210005; 210060; 210140; 210160; 210230; 210232; 210280; 210325; 210340; 210350; 210355; 210530; 210535; 210547; 210570; 210600; 210660; 210680; 210780; 210860; 210880; 210890; 210920; 210980; 211020; 211023; 211090; 211107; 211110; 211120; 211130; 211157; 211172; 211210; 211220; 211230</t>
+  </si>
+  <si>
+    <t>2870060</t>
   </si>
   <si>
     <t>20.120.029,55</t>
@@ -767,9 +828,6 @@
   </si>
   <si>
     <t>Há uma demanda reprimida para procedimentos cirúrgicos eletivos de media e alta complexidade, potencializada pela Pandemia Covid 19. A Secretaria de Estado da Saúde do Maranhão em conjunto com os municípios descentralizou os serviços de saúde ambulatoriais e hospitalares para as 19 Regiões de Saúde, abrangendo os 217 municípios maranhenses. Desta feita, os procedimentos cirúrgicos eletivos serão realizados nos estabelecimentos de saúde de gestão estadual e municipal</t>
-  </si>
-  <si>
-    <t>Não</t>
   </si>
   <si>
     <t>Para ampliação dos serviços será necessário implementar os serviços nos estabelecimentos de saude adotando as seguintes medidas:
@@ -780,6 +838,250 @@
   </si>
   <si>
     <t>A gestão da fila cirúrgica será realizada pela gestão estadual com sistema de compartilhamento com os municípios, visando o acompanhamento das metas programadas e realizadas por cada estabelecimento de saúde e cronograma de execução estabelecido no Plano Nacional de Redução de Filas</t>
+  </si>
+  <si>
+    <t>170553</t>
+  </si>
+  <si>
+    <t>03.517.102/0001-77</t>
+  </si>
+  <si>
+    <t>FUNDO ESPECIAL DE SAUDE</t>
+  </si>
+  <si>
+    <t>A população estimada de Mato Grosso do Sul de 2.839.188 habitantes e a extensão territorial de 357.147,995 km², com densidade demográfica de 6,86 hab/km², de acordo com IBGE, Mato Grosso do Sul | Cidades e Estados | IBGE em 26 de agosto de 2022.
+O desenho regional da saúde é dividido por quatro macrorregiões de saúde, sendo elas Campo Grande, Dourados, Três Lagoas e Corumbá.
+O Estado dispõe de 77 serviços hospitalares, sendo 22 serviços de gestão municipal e 46 de gestão estadual. Os hospitais com maior densidade tecnológica ficam sob gestão municipal e a maioria dos hospitais de pequeno porte sob gestão estadual.</t>
+  </si>
+  <si>
+    <t>ANGELICA CRISTINA SEGATTO CONGRO</t>
+  </si>
+  <si>
+    <t>angelica.congro@saude.ms.gov.br</t>
+  </si>
+  <si>
+    <t>67 33181669; 67 33181669</t>
+  </si>
+  <si>
+    <t>170589</t>
+  </si>
+  <si>
+    <t>03.609.595/0001-75</t>
+  </si>
+  <si>
+    <t>FUNDO ESTADUAL DE SAUDE DO ESTADO DA PARAIBA - FESEP</t>
+  </si>
+  <si>
+    <t>JOAO PESSOA</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Considerando os esforços desta Secretaria de Saúde do Estado em organizar a sua rede de assistência e a missão de fazer saúde com qualidade de eficiência, garantindo acesso a todos os usuários paraibanos, que busquem assistência em Cirurgias Eletivas, Exames Complementares e Consultas Especializadas, visto que a demanda de cirurgias é muito alta, que o recurso financeiro irá ajudar na redução do tempo de espera dos pacientes e desafogar a demanda represada, estamos encaminhando proposta para habilitação no Programa Nacional de Redução das Filas de Cirurgias Eletivas, Exames Complementares e Consultas Especializadas no Sistema Único de Saúde (SUS).</t>
+  </si>
+  <si>
+    <t>AGUA BRANCA; AGUIAR; ALAGOA GRANDE; ALAGOA NOVA; ALAGOINHA; ALCANTIL; ALGODAO DE JANDAIRA; ALHANDRA; SAO JOAO DO RIO DO PEIXE; AMPARO; APARECIDA; ARACAGI; ARARA; ARARUNA; AREIA; AREIA DE BARAUNAS; AREIAL; AROEIRAS; ASSUNCAO; BAIA DA TRAICAO; BANANEIRAS; BARAUNA; BARRA DE SANTANA; BARRA DE SANTA ROSA; BARRA DE SAO MIGUEL; BAYEUX; BELEM; BELEM DO BREJO DO CRUZ; BERNARDINO BATISTA; BOA VENTURA; BOA VISTA; BOM JESUS; BOM SUCESSO; BONITO DE SANTA FE; BOQUEIRAO; IGARACY; BORBOREMA; BREJO DO CRUZ; BREJO DOS SANTOS; CAAPORA; CABACEIRAS; CABEDELO; CACHOEIRA DOS INDIOS; CACIMBA DE AREIA; CACIMBA DE DENTRO; CACIMBAS; CAICARA; CAJAZEIRAS; CAJAZEIRINHAS; CALDAS BRANDAO; CAMALAU; CAMPINA GRANDE; CAPIM; CARAUBAS; CARRAPATEIRA; CASSERENGUE; CATINGUEIRA; CATOLE DO ROCHA; CATURITE; CONCEICAO; CONDADO; CONDE; CONGO; COREMAS; COXIXOLA; CRUZ DO ESPIRITO SANTO; CUBATI; CUITE; CUITEGI; CUITE DE MAMANGUAPE; CURRAL DE CIMA; CURRAL VELHO; DAMIAO; DESTERRO; VISTA SERRANA; DIAMANTE; DONA INES; DUAS ESTRADAS; EMAS; ESPERANCA; FAGUNDES; FREI MARTINHO; GADO BRAVO; GUARABIRA; GURINHEM; GURJAO; IBIARA; IMACULADA; INGA; ITABAIANA; ITAPORANGA; ITAPOROROCA; ITATUBA; JACARAU; JERICO; JOAO PESSOA; JUAREZ TAVORA; JUAZEIRINHO; JUNCO DO SERIDO; JURIPIRANGA; JURU; LAGOA; LAGOA DE DENTRO; LAGOA SECA; LASTRO; LIVRAMENTO; LOGRADOURO; LUCENA; MAE D'AGUA; MALTA; MAMANGUAPE; MANAIRA; MARCACAO; MARI; MARIZOPOLIS; MASSARANDUBA; MATARACA; MATINHAS; MATO GROSSO; MATUREIA; MOGEIRO; MONTADAS; MONTE HOREBE; MONTEIRO; MULUNGU; NATUBA; NAZAREZINHO; NOVA FLORESTA; NOVA OLINDA; NOVA PALMEIRA; OLHO D'AGUA; OLIVEDOS; OURO VELHO; PARARI; PASSAGEM; PATOS; PAULISTA; PEDRA BRANCA; PEDRA LAVRADA; PEDRAS DE FOGO; PIANCO; PICUI; PILAR; PILOES; PILOEZINHOS; PIRPIRITUBA; PITIMBU; POCINHOS; POCO DANTAS; POCO DE JOSE DE MOURA; POMBAL; PRATA; PRINCESA ISABEL; PUXINANA; QUEIMADAS; QUIXABA; REMIGIO; PEDRO REGIS; RIACHAO; RIACHAO DO BACAMARTE; RIACHAO DO POCO; RIACHO DE SANTO ANTONIO; RIACHO DOS CAVALOS; RIO TINTO; SALGADINHO; SALGADO DE SAO FELIX; SANTA CECILIA; SANTA CRUZ; SANTA HELENA; SANTA INES; SANTA LUZIA; SANTANA DE MANGUEIRA; SANTANA DOS GARROTES; JOCA CLAUDINO; SANTA RITA; SANTA TERESINHA; SANTO ANDRE; SAO BENTO; SAO BENTINHO; SAO DOMINGOS DO CARIRI; SAO DOMINGOS; SAO FRANCISCO; SAO JOAO DO CARIRI; SAO JOAO DO TIGRE; SAO JOSE DA LAGOA TAPADA; SAO JOSE DE CAIANA; SAO JOSE DE ESPINHARAS; SAO JOSE DOS RAMOS; SAO JOSE DE PIRANHAS; SAO JOSE DE PRINCESA; SAO JOSE DO BONFIM; SAO JOSE DO BREJO DO CRUZ; SAO JOSE DO SABUGI; SAO JOSE DOS CORDEIROS; SAO MAMEDE; SAO MIGUEL DE TAIPU; SAO SEBASTIAO DE LAGOA DE ROCA; SAO SEBASTIAO DO UMBUZEIRO; SAPE; SAO VICENTE DO SERIDO; SERRA BRANCA; SERRA DA RAIZ; SERRA GRANDE; SERRA REDONDA; SERRARIA; SERTAOZINHO; SOBRADO; SOLANEA; SOLEDADE; SOSSEGO; SOUSA; SUME; TACIMA; TAPEROA; TAVARES; TEIXEIRA; TENORIO; TRIUNFO; UIRAUNA; UMBUZEIRO; VARZEA; VIEIROPOLIS; ZABELE</t>
+  </si>
+  <si>
+    <t>250010; 250020; 250030; 250040; 250050; 250053; 250057; 250060; 250070; 250073; 250077; 250080; 250090; 250100; 250110; 250115; 250120; 250130; 250135; 250140; 250150; 250153; 250157; 250160; 250170; 250180; 250190; 250200; 250205; 250210; 250215; 250220; 250230; 250240; 250250; 250260; 250270; 250280; 250290; 250300; 250310; 250320; 250330; 250340; 250350; 250355; 250360; 250370; 250375; 250380; 250390; 250400; 250403; 250407; 250410; 250415; 250420; 250430; 250435; 250440; 250450; 250460; 250470; 250480; 250485; 250490; 250500; 250510; 250520; 250523; 250527; 250530; 250535; 250540; 250550; 250560; 250570; 250580; 250590; 250600; 250610; 250620; 250625; 250630; 250640; 250650; 250660; 250670; 250680; 250690; 250700; 250710; 250720; 250730; 250740; 250750; 250760; 250770; 250780; 250790; 250800; 250810; 250820; 250830; 250840; 250850; 250855; 250860; 250870; 250880; 250890; 250900; 250905; 250910; 250915; 250920; 250930; 250933; 250937; 250939; 250940; 250950; 250960; 250970; 250980; 250990; 251000; 251010; 251020; 251030; 251040; 251050; 251060; 251065; 251070; 251080; 251090; 251100; 251110; 251120; 251130; 251140; 251150; 251160; 251170; 251180; 251190; 251200; 251203; 251207; 251210; 251220; 251230; 251240; 251250; 251260; 251270; 251272; 251274; 251275; 251276; 251278; 251280; 251290; 251300; 251310; 251315; 251320; 251330; 251335; 251340; 251350; 251360; 251365; 251370; 251380; 251385; 251390; 251392; 251394; 251396; 251398; 251400; 251410; 251420; 251430; 251440; 251445; 251450; 251455; 251460; 251465; 251470; 251480; 251490; 251500; 251510; 251520; 251530; 251540; 251550; 251560; 251570; 251580; 251590; 251593; 251597; 251600; 251610; 251615; 251620; 251630; 251640; 251650; 251660; 251670; 251675; 251680; 251690; 251700; 251710; 251720; 251740</t>
+  </si>
+  <si>
+    <t>4059905</t>
+  </si>
+  <si>
+    <t>LUCIANO PINHEIRO DA NOBREGA JUNIOR</t>
+  </si>
+  <si>
+    <t>pinheiro.lucianojr@gmail.com</t>
+  </si>
+  <si>
+    <t>83 96552274</t>
+  </si>
+  <si>
+    <t>28/02/2023</t>
+  </si>
+  <si>
+    <t>29/05/2023</t>
+  </si>
+  <si>
+    <t>LUCIANO PINHEIRO DA NÓBREGA JÚNIOR</t>
+  </si>
+  <si>
+    <t>CHEFE DE NÚCLEO DE PROCESSAMENTO</t>
+  </si>
+  <si>
+    <t>(83) 99655-2274</t>
+  </si>
+  <si>
+    <t>170595</t>
+  </si>
+  <si>
+    <t>07.458.465/0001-30</t>
+  </si>
+  <si>
+    <t>FUNDO ESTADUAL DE SAUDE - FUNDES</t>
+  </si>
+  <si>
+    <t>RIO BRANCO</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ACRELANDIA; ASSIS BRASIL; BRASILEIA; BUJARI; CAPIXABA; CRUZEIRO DO SUL; EPITACIOLANDIA; FEIJO; JORDAO; MANCIO LIMA; MANOEL URBANO; MARECHAL THAUMATURGO; PLACIDO DE CASTRO; PORTO WALTER; RIO BRANCO; RODRIGUES ALVES; SANTA ROSA DO PURUS; SENADOR GUIOMARD; SENA MADUREIRA; TARAUACA; XAPURI; PORTO ACRE</t>
+  </si>
+  <si>
+    <t>120001; 120005; 120010; 120013; 120017; 120020; 120025; 120030; 120032; 120033; 120034; 120035; 120038; 120039; 120040; 120042; 120043; 120045; 120050; 120060; 120070; 120080</t>
+  </si>
+  <si>
+    <t>906876</t>
+  </si>
+  <si>
+    <t>MONALISA RAFAELY ZAFFONATO DA ROSA</t>
+  </si>
+  <si>
+    <t>monalisarzr.bio@gmail.com</t>
+  </si>
+  <si>
+    <t>68 99533552</t>
+  </si>
+  <si>
+    <t>170625</t>
+  </si>
+  <si>
+    <t>12.116.247/0001-57</t>
+  </si>
+  <si>
+    <t>FUNDO DE SAUDE DO DISTRITO FEDERAL</t>
+  </si>
+  <si>
+    <t>BRASILIA</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>BRASILIA; REGIAO ADMINISTRATIVA DE AGUAS CLARAS; REGIAO ADMINISTRATIVA DE BRAZLANDIA; REGIAO ADMINISTRATIVA DE CANDANGOLANDIA; REGIAO ADMINISTRATIVA DE CEILANDIA; REGIAO ADMINISTRATIVA DO CRUZEIRO; REGIAO ADMINISTRATIVA DO GAMA; REGIAO ADMINISTRATIVA DO GUARA; REGIAO ADMINISTRATIVA DO LAGO NORTE; REGIAO ADMINISTRATIVA DO LAGO SUL; REGIAO ADMINISTRATIVA DO NUCLEO BANDEIRANTES; REGIAO ADMINISTRATIVA DO PARANOA; REGIAO ADMINISTRATIVA DO PARK WAY; REGIAO ADMINISTRATIVA DE PLANALTINA; REGIAO ADMINISTRATIVA DE RECANTO DA EMAS; REGIAO ADMINISTRATIVA DO RIACHO FUNDO I; REGIAO ADMINISTRATIVA DO RIACHO FUNDO II; REGIAO ADMINISTRATIVA DE SAMAMBAIA; REGIAO ADMINISTRATIVA DE SANTA MARIA; REGIAO ADMINISTRATIVA DE SAO SEBASTIAO; REGIAO ADMINISTRATIVA DE SOBRADINHO; REGIAO ADMINISTRATIVA DE SOBRADINHO II; REGIAO ADMINISTRATIVA DE TAGUATINGA; REGIAO ADMINISTRATIVA DO VARJAO; REGIAO ADMINISTRATIVA DO ITAPOA; REGIAO ADMINISTRATIVA DO JARDIM BOTANICO; REGIAO ADMINISTRATIVA DO SUDOESTE/OCTOGONAL; REGIAO ADMINISTRATIVA DE SCIA (ESTRUTURAL); REGIAO ADMINISTRATIVA DE VICENTE PIRES; REGIAO ADMINISTRATIVA DO SIA; REGIAO ADMINISTRATIVA DA FERCAL; REGIAO ADMINISTRATIVA DA ARNIQUEIRAS; REGIAO ADMINISTRATIVA DA ASA NORTE; REGIAO ADMINISTRATIVA DA ASA SUL</t>
+  </si>
+  <si>
+    <t>530010; 539901; 539902; 539903; 539904; 539905; 539906; 539907; 539908; 539909; 539910; 539912; 539913; 539914; 539915; 539916; 539917; 539918; 539919; 539920; 539921; 539922; 539924; 539925; 539928; 539930; 539931; 539933; 539934; 539935; 539936; 539938; 539939; 539940</t>
+  </si>
+  <si>
+    <t>3094325</t>
+  </si>
+  <si>
+    <t>8.703.429,35</t>
+  </si>
+  <si>
+    <t>LUDMILA DE ORNELLAS ABREU</t>
+  </si>
+  <si>
+    <t>gcch.sesdf@gmail.com</t>
+  </si>
+  <si>
+    <t>61 81159681</t>
+  </si>
+  <si>
+    <t>01/03/2023</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>170640</t>
+  </si>
+  <si>
+    <t>06.206.659/0001-85</t>
+  </si>
+  <si>
+    <t>FUNDO DE SAUDE DO ESTADO DO PIAUI</t>
+  </si>
+  <si>
+    <t>TERESINA</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>CONSIDERANDO Portaria GM/MS nº 90, de 3 de fevereiro de 2023 que Institui o Programa Nacional de Redução das Filas de Cirurgias Eletivas, Exames Complementares e Consultas Especializadas com destinação de R$ 600.000,00 para os 27 Estados Federados e especificamente R$ 9.251.808,75 ao estado do Piauí.
+Com base nos aspectos normativos do Ministério da Saúde, na existência de fila de espera por cirurgias eletivas, na disponibilidade de recursos financeiros e na capacidade instalada para a realização das cirurgias nas Unidades Hospitalares de Gerenciamento Estadual, Municipal e serviços contratualizados e na garantia de seguimento do tratamento pós-cirúrgicos, a SESAPI/SUGMAC/DUDOH apresenta o Plano DE TRABALHO PARA REDUÇÃO DAS FILAS DE CIRURGIAS ELETIVAS NO ESTADO DO PIAUÍ- 2023, visando a melhoria do acesso de forma regulada e com pactuação junto aos Municípios do estado do Piauí, através da Comissão Intergestores Bipartite (CIB).</t>
+  </si>
+  <si>
+    <t>Enviada para o MS</t>
+  </si>
+  <si>
+    <t>ACAUA; AGRICOLANDIA; AGUA BRANCA; ALAGOINHA DO PIAUI; ALEGRETE DO PIAUI; ALTO LONGA; ALTOS; ALVORADA DO GURGUEIA; AMARANTE; ANGICAL DO PIAUI; ANISIO DE ABREU; ANTONIO ALMEIDA; AROAZES; AROEIRAS DO ITAIM; ARRAIAL; ASSUNCAO DO PIAUI; AVELINO LOPES; BAIXA GRANDE DO RIBEIRO; BARRA D'ALCANTARA; BARRAS; BARREIRAS DO PIAUI; BARRO DURO; BATALHA; BELA VISTA DO PIAUI; BELEM DO PIAUI; BENEDITINOS; BERTOLINIA; BETANIA DO PIAUI; BOA HORA; BOCAINA; BOM JESUS; BOM PRINCIPIO DO PIAUI; BONFIM DO PIAUI; BOQUEIRAO DO PIAUI; BRASILEIRA; BREJO DO PIAUI; BURITI DOS LOPES; BURITI DOS MONTES; CABECEIRAS DO PIAUI; CAJAZEIRAS DO PIAUI; CAJUEIRO DA PRAIA; CALDEIRAO GRANDE DO PIAUI; CAMPINAS DO PIAUI; CAMPO ALEGRE DO FIDALGO; CAMPO GRANDE DO PIAUI; CAMPO LARGO DO PIAUI; CAMPO MAIOR; CANAVIEIRA; CANTO DO BURITI; CAPITAO DE CAMPOS; CAPITAO GERVASIO OLIVEIRA; CARACOL; CARAUBAS DO PIAUI; CARIDADE DO PIAUI; CASTELO DO PIAUI; CAXINGO; COCAL; COCAL DE TELHA; COCAL DOS ALVES; COIVARAS; COLONIA DO GURGUEIA; COLONIA DO PIAUI; CONCEICAO DO CANINDE; CORONEL JOSE DIAS; CORRENTE; CRISTALANDIA DO PIAUI; CRISTINO CASTRO; CURIMATA; CURRAIS; CURRALINHOS; CURRAL NOVO DO PIAUI; DEMERVAL LOBAO; DIRCEU ARCOVERDE; DOM EXPEDITO LOPES; DOMINGOS MOURAO; DOM INOCENCIO; ELESBAO VELOSO; ELISEU MARTINS; ESPERANTINA; FARTURA DO PIAUI; FLORES DO PIAUI; FLORESTA DO PIAUI; FLORIANO; FRANCINOPOLIS; FRANCISCO AYRES; FRANCISCO MACEDO; FRANCISCO SANTOS; FRONTEIRAS; GEMINIANO; GILBUES; GUADALUPE; GUARIBAS; HUGO NAPOLEAO; ILHA GRANDE; INHUMA; IPIRANGA DO PIAUI; ISAIAS COELHO; ITAINOPOLIS; ITAUEIRA; JACOBINA DO PIAUI; JAICOS; JARDIM DO MULATO; JATOBA DO PIAUI; JERUMENHA; JOAO COSTA; JOAQUIM PIRES; JOCA MARQUES; JOSE DE FREITAS; JUAZEIRO DO PIAUI; JULIO BORGES; JUREMA; LAGOINHA DO PIAUI; LAGOA ALEGRE; LAGOA DO BARRO DO PIAUI; LAGOA DE SAO FRANCISCO; LAGOA DO PIAUI; LAGOA DO SITIO; LANDRI SALES; LUIS CORREIA; LUZILANDIA; MADEIRO; MANOEL EMIDIO; MARCOLANDIA; MARCOS PARENTE; MASSAPE DO PIAUI; MATIAS OLIMPIO; MIGUEL ALVES; MIGUEL LEAO; MILTON BRANDAO; MONSENHOR GIL; MONSENHOR HIPOLITO; MONTE ALEGRE DO PIAUI; MORRO CABECA NO TEMPO; MORRO DO CHAPEU DO PIAUI; MURICI DOS PORTELAS; NAZARE DO PIAUI; NAZARIA; NOSSA SENHORA DE NAZARE; NOSSA SENHORA DOS REMEDIOS; NOVO ORIENTE DO PIAUI; NOVO SANTO ANTONIO; OEIRAS; OLHO D'AGUA DO PIAUI; PADRE MARCOS; PAES LANDIM; PAJEU DO PIAUI; PALMEIRA DO PIAUI; PALMEIRAIS; PAQUETA; PARNAGUA; PARNAIBA; PASSAGEM FRANCA DO PIAUI; PATOS DO PIAUI; PAU D'ARCO DO PIAUI; PAULISTANA; PAVUSSU; PEDRO II; PEDRO LAURENTINO; NOVA SANTA RITA; PICOS; PIMENTEIRAS; PIO IX; PIRACURUCA; PIRIPIRI; PORTO; PORTO ALEGRE DO PIAUI; PRATA DO PIAUI; QUEIMADA NOVA; REDENCAO DO GURGUEIA; REGENERACAO; RIACHO FRIO; RIBEIRA DO PIAUI; RIBEIRO GONCALVES; RIO GRANDE DO PIAUI; SANTA CRUZ DO PIAUI; SANTA CRUZ DOS MILAGRES; SANTA FILOMENA; SANTA LUZ; SANTANA DO PIAUI; SANTA ROSA DO PIAUI; SANTO ANTONIO DE LISBOA; SANTO ANTONIO DOS MILAGRES; SANTO INACIO DO PIAUI; SAO BRAZ DO PIAUI; SAO FELIX DO PIAUI; SAO FRANCISCO DE ASSIS DO PIAUI; SAO FRANCISCO DO PIAUI; SAO GONCALO DO GURGUEIA; SAO GONCALO DO PIAUI; SAO JOAO DA CANABRAVA; SAO JOAO DA FRONTEIRA; SAO JOAO DA SERRA; SAO JOAO DA VARJOTA; SAO JOAO DO ARRAIAL; SAO JOAO DO PIAUI; SAO JOSE DO DIVINO; SAO JOSE DO PEIXE; SAO JOSE DO PIAUI; SAO JULIAO; SAO LOURENCO DO PIAUI; SAO LUIS DO PIAUI; SAO MIGUEL DA BAIXA GRANDE; SAO MIGUEL DO FIDALGO; SAO MIGUEL DO TAPUIO; SAO PEDRO DO PIAUI; SAO RAIMUNDO NONATO; SEBASTIAO BARROS; SEBASTIAO LEAL; SIGEFREDO PACHECO; SIMOES; SIMPLICIO MENDES; SOCORRO DO PIAUI; SUSSUAPARA; TAMBORIL DO PIAUI; TANQUE DO PIAUI; TERESINA; UNIAO; URUCUI; VALENCA DO PIAUI; VARZEA BRANCA; VARZEA GRANDE; VERA MENDES; VILA NOVA DO PIAUI; WALL FERRAZ</t>
+  </si>
+  <si>
+    <t>220005; 220010; 220020; 220025; 220027; 220030; 220040; 220045; 220050; 220060; 220070; 220080; 220090; 220095; 220100; 220105; 220110; 220115; 220117; 220120; 220130; 220140; 220150; 220155; 220157; 220160; 220170; 220173; 220177; 220180; 220190; 220191; 220192; 220194; 220196; 220198; 220200; 220202; 220205; 220207; 220208; 220209; 220210; 220211; 220213; 220217; 220220; 220225; 220230; 220240; 220245; 220250; 220253; 220255; 220260; 220265; 220270; 220271; 220272; 220273; 220275; 220277; 220280; 220285; 220290; 220300; 220310; 220320; 220323; 220325; 220327; 220330; 220335; 220340; 220342; 220345; 220350; 220360; 220370; 220375; 220380; 220385; 220390; 220400; 220410; 220415; 220420; 220430; 220435; 220440; 220450; 220455; 220460; 220465; 220470; 220480; 220490; 220500; 220510; 220515; 220520; 220525; 220527; 220530; 220535; 220540; 220545; 220550; 220551; 220552; 220553; 220554; 220555; 220556; 220557; 220558; 220559; 220560; 220570; 220580; 220585; 220590; 220595; 220600; 220605; 220610; 220620; 220630; 220635; 220640; 220650; 220660; 220665; 220667; 220669; 220670; 220672; 220675; 220680; 220690; 220695; 220700; 220710; 220720; 220730; 220735; 220740; 220750; 220755; 220760; 220770; 220775; 220777; 220779; 220780; 220785; 220790; 220793; 220795; 220800; 220810; 220820; 220830; 220840; 220850; 220855; 220860; 220865; 220870; 220880; 220885; 220887; 220890; 220900; 220910; 220915; 220920; 220930; 220935; 220937; 220940; 220945; 220950; 220955; 220960; 220965; 220970; 220975; 220980; 220985; 220987; 220990; 220995; 220997; 221000; 221005; 221010; 221020; 221030; 221035; 221037; 221038; 221039; 221040; 221050; 221060; 221062; 221063; 221065; 221070; 221080; 221090; 221093; 221095; 221097; 221100; 221110; 221120; 221130; 221135; 221140; 221150; 221160; 221170</t>
+  </si>
+  <si>
+    <t>3289290</t>
+  </si>
+  <si>
+    <t>9.251.808,75</t>
+  </si>
+  <si>
+    <t>VANDERILO SOARES DE ANCHIETA FILHO</t>
+  </si>
+  <si>
+    <t>vanderilo.soares@saude.pi.gov.br</t>
+  </si>
+  <si>
+    <t>86 94143842</t>
+  </si>
+  <si>
+    <t>01/03/2023 14:31:35</t>
+  </si>
+  <si>
+    <t>JOÃO VICTOR DA SILVA BARBOZA</t>
+  </si>
+  <si>
+    <t>COORDENADOR DE APOIO E ACOMPANHAMENTO AOS MUNICÍPIOS</t>
+  </si>
+  <si>
+    <t>86994991774</t>
+  </si>
+  <si>
+    <t>joao.victor@saude.pi.gov.br // ducara@saude.pi.gov.br</t>
+  </si>
+  <si>
+    <t>CamScanner 03-01-2023 13.28.pdf</t>
+  </si>
+  <si>
+    <t>008/2023</t>
+  </si>
+  <si>
+    <t>Com base em dados fornecidos pelo Complexo Regulador Estadual do Piauí (CRE) referente à fila única da regulação estadual, sistema Hydra, observou-se em 16/02/2022 o total de 15.552 solicitações de procedimento cirúrgico eletivo com tempo médio de espera de 464 dias e tempo mediano de espera de 267 dias. Essa variação se dias se deve ao fato de alguns usuários possivelmente não terem sido retirados do sistema de regulação estadual mesmo tendo realizado a cirurgia eletiva. Isso gera um aumento do desvio padrão que consequentemente aumenta o tempo espera total gerando essa distorção entre o tempo de espera médio e mediano.
+Conforme TABELA 01 - FILA DE PACIENTES PARA PROCEDIMENTO CIRURGICO ELETIVO POR ESTABELECIMENTO SOLICITANTE NO SISTEMA DE REGULAÇÃO ESTADUAL - HYDRA - EM 16/02/2023 observa-se que os estabelecimentos de saúde com maior quantidade de solicitações em espera no sistema: 29,8% Hospital Getúlio Vargas ¿ HGV (4.623); 12,1% Hospital Universitário ¿ HU (1.883); 10,8% Hospital da Polícia Militar ¿ HPM (1.685); 8,7% Hospital Infantil Lucídio Portella ¿ HILP (1.354); 5,2 % Hospital Regional Tibério Nunes (807) e 5,1% Hospital Regional De Campo Maior (793).
+Observa-se que as especialidades médicas com maiores quantidades de solicitações em espera no sistema: 28,37 % Cirurgia Geral (4.407); 16,4% Ortopedia (2.548); 12,47% Ginecologia (1.937) e 11,4% Pediatria Cirúrgica (1.770). 
+Conforme GRÁFICO 02 - FILA DE PACIENTES PARA PROCEDIMENTO CIRURGICO ELETIVO POR MACRORREGIÃO DE SAÚDE NO SISTEMA DE REGULAÇÃO ESTADUAL - HYDRA - EM 16/02/2023 observa-se as macrorregiões de saúde com maior quantidade de solicitações em espera no sistema: 51,9 % Macro Meio Norte (8.058); 18,2% Macro Litoral (2.834); 17,4% Macro Cerrado (2.699); 12,3% Macro Semi Árido (1.906) e 0,2% outras (35) referente a usuários de outros estados cadastrados.
+Conforme GRÁFICO 03 - FILA DE PACIENTES PARA PROCEDIMENTO CIRURGICO ELETIVO POR REGIÃO DE SAÚDE NO SISTEMA DE REGULAÇÃO ESTADUAL - HYDRA - EM 16/02/2023 observa-se nas regiões de saúde com maior quantidade de solicitações em espera no sistema: 43,4% Entre Rios (6.739); 13,8 Cocais (2.147); 8,5% Carnaubais (1.319); 7,5% Vale dos Rios Piauí e Itaueira (1.165) e 6,3% Chapada das Mangabeiras (978).
+Analisada a fila em 16/02/2023 por Procedimento Cirúrgico considerando os códigos tabelados e padronizados pelo Ministério da Saúde observou-se um total de mais de 650 procedimentos eletivos na fila da regulação estadual. Para melhor análise e gestão desses dados, foi elaborada a TABELA 02 com o compilado dos 50 procedimentos com maior quantidade de percentual de usuários em fila. Nesse total de 50 principais procedimentos estão um total de 11.230 solicitações de procedimento correspondendo a um percentual de 72% de toda a fila de cirurgias eletivas no Piauí. Os demais procedimentos além dos 50 principais reúnem mais de 600 códigos de procedimentos foram então somados e totalizaram 4.302 solicitações correspondendo a 27,7% da fila.</t>
+  </si>
+  <si>
+    <t>NAO</t>
+  </si>
+  <si>
+    <t>Organizar e Ampliar o acesso a cirurgias eletivas, em especial àqueles com demanda reprimida identificada através da Fila de Regulação do Acesso a Procedimentos Cirúrgicos Eletivos com execução por Hospitais Públicos e Contratualizados do Piauí em 2023.
+Analisada a fila por Procedimento Cirúrgico considerando os códigos tabelados e padronizados pelo Ministério da Saúde observou-se um total de mais de 650 procedimentos eletivos na fila da regulação estadual. Para melhor análise e gestão desses dados, foi elaborada a TABELA 02 com o compilado dos 50 procedimentos com maior quantidade de percentual de usuários em fila. Nesse total de 50 principais procedimentos estão um total de 11.230 solicitações de procedimento correspondendo a um percentual de 72% de toda a fila de cirurgias eletivas no Piauí. Os demais procedimentos além dos 50 principais reúnem mais de 600 códigos de procedimentos foram então somados e totalizaram 4.302 solicitações correspondendo a 27,7% da fila.
+Analisada a fila o Estado do Piauí juntamente com os Municípios Gestores Plenos vai otimizar a fila de espera para cirurgia eletiva com a inclusão de EAS Públicos Gerenciados pelos municípios e também rede contratualizada. Dessa forma otimiza-se a realização de cirurgias eletivas, qualificação e estímulo a contratualização.</t>
+  </si>
+  <si>
+    <t>Atualmente o a fila de cirurgias eletivas consta no Sistema de Regulação Estadual - HYDRA. Porém, nesse sistema estão inclusos todos as unidades hospitalares de Gerenciamento Estadual, alguns municipais, federal e alguns contratualizados. Porém, com esse estímulo do Plano Nacional de Redução de Filas de Cirurgias Eletivas poderá ser incluídos mais Unidades Hospitais Municipais e Contratualizados que ainda não estão alimentando a fila de cirurgia do Hydra mas que possuem pacientes em fila e realizam procedimento cirúrgico eletivo.</t>
+  </si>
+  <si>
+    <t>plano-atendimento-perf-cir-eletiva-vrs-4a 01.03.2023.xls</t>
+  </si>
+  <si>
+    <t>plano-monitoramento-perf-cir-eletiva-vrs-3-101.03.2023.xls</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1455,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BY13"/>
+  <dimension ref="A1:BY19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="BY13" sqref="BY13"/>
+      <selection activeCell="BY19" sqref="BY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2560,7 +2862,7 @@
         <v>79</v>
       </c>
       <c r="AZ6" s="2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="BA6" s="2" t="s">
         <v>79</v>
@@ -2587,31 +2889,31 @@
         <v>79</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="BJ6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BK6" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="BM6" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="BN6" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="BO6" s="2" t="s">
         <v>145</v>
       </c>
       <c r="BP6" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="BQ6" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="BR6" s="2" t="s">
         <v>145</v>
@@ -2640,7 +2942,7 @@
     </row>
     <row r="7" spans="1:77">
       <c r="A7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>76</v>
@@ -2661,19 +2963,19 @@
         <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>87</v>
@@ -2694,13 +2996,13 @@
         <v>79</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>79</v>
@@ -2769,13 +3071,13 @@
         <v>79</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AU7" s="2" t="s">
         <v>131</v>
@@ -2793,25 +3095,25 @@
         <v>79</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BC7" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BD7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BE7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BG7" s="2" t="s">
         <v>79</v>
@@ -2873,7 +3175,7 @@
     </row>
     <row r="8" spans="1:77">
       <c r="A8" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>76</v>
@@ -2894,19 +3196,19 @@
         <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>123</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>87</v>
@@ -2927,13 +3229,13 @@
         <v>79</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>79</v>
@@ -3002,19 +3304,19 @@
         <v>79</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AW8" s="2" t="s">
         <v>79</v>
@@ -3106,7 +3408,7 @@
     </row>
     <row r="9" spans="1:77">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>76</v>
@@ -3127,19 +3429,19 @@
         <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>87</v>
@@ -3160,13 +3462,13 @@
         <v>79</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>79</v>
@@ -3235,19 +3537,19 @@
         <v>79</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AW9" s="2" t="s">
         <v>79</v>
@@ -3339,7 +3641,7 @@
     </row>
     <row r="10" spans="1:77">
       <c r="A10" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>76</v>
@@ -3360,10 +3662,10 @@
         <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>190</v>
@@ -3492,19 +3794,19 @@
         <v>79</v>
       </c>
       <c r="AZ10" s="2" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="BA10" s="2" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="BB10" s="2" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="BC10" s="2" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="BE10" s="2" t="s">
         <v>79</v>
@@ -3572,7 +3874,7 @@
     </row>
     <row r="11" spans="1:77">
       <c r="A11" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>76</v>
@@ -3593,19 +3895,19 @@
         <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>87</v>
@@ -3626,13 +3928,13 @@
         <v>79</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>79</v>
@@ -3701,13 +4003,13 @@
         <v>79</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AU11" s="2" t="s">
         <v>199</v>
@@ -3725,19 +4027,19 @@
         <v>79</v>
       </c>
       <c r="AZ11" s="2" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="BA11" s="2" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="BB11" s="2" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="BC11" s="2" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="BD11" s="2" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="BE11" s="2" t="s">
         <v>79</v>
@@ -3805,7 +4107,7 @@
     </row>
     <row r="12" spans="1:77">
       <c r="A12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>76</v>
@@ -3826,10 +4128,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>219</v>
@@ -3892,55 +4194,55 @@
         <v>79</v>
       </c>
       <c r="AD12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR12" s="2" t="s">
+      <c r="AS12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AS12" s="2" t="s">
+      <c r="AT12" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="AT12" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="AU12" s="2" t="s">
         <v>199</v>
@@ -3958,19 +4260,19 @@
         <v>79</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="BA12" s="2" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="BB12" s="2" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="BC12" s="2" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="BD12" s="2" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="BE12" s="2" t="s">
         <v>79</v>
@@ -4038,7 +4340,7 @@
     </row>
     <row r="13" spans="1:77">
       <c r="A13" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>76</v>
@@ -4059,19 +4361,19 @@
         <v>81</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>87</v>
@@ -4092,13 +4394,13 @@
         <v>79</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>79</v>
@@ -4125,10 +4427,10 @@
         <v>79</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>79</v>
@@ -4167,19 +4469,19 @@
         <v>79</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="AW13" s="2" t="s">
         <v>79</v>
@@ -4191,82 +4493,1480 @@
         <v>79</v>
       </c>
       <c r="AZ13" s="2" t="s">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="BA13" s="2" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="BB13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:77">
+      <c r="A14" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="BC13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="BD13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="BE13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG13" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="BH13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI13" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT14" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BC14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="BH14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BJ13" s="2" t="s">
+      <c r="BJ14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BK13" s="2" t="s">
+      <c r="BK14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BL13" s="2" t="s">
+      <c r="BL14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BM13" s="2" t="s">
+      <c r="BM14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BN13" s="2" t="s">
+      <c r="BN14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BO13" s="2" t="s">
+      <c r="BO14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BP13" s="2" t="s">
+      <c r="BP14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BQ13" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BR13" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BS13" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BT13" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV13" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BW13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY13" s="2" t="s">
-        <v>79</v>
+      <c r="BQ14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="BU14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BW14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77">
+      <c r="A15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR15" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AT15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:77">
+      <c r="A16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="BA16" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BB16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="BD16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BE16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:77">
+      <c r="A17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT17" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:77">
+      <c r="A18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:77">
+      <c r="A19" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BA19" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="BC19" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="BD19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="BE19" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="BG19" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="BI19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT19" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="BU19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV19" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="BW19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX19" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="BY19" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/dados/propostas_mon/relatorio_propostas.xlsx
+++ b/dados/propostas_mon/relatorio_propostas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="573">
   <si>
     <t>Nº da Proposta</t>
   </si>
@@ -433,7 +433,16 @@
     <t>BA</t>
   </si>
   <si>
-    <t>.......</t>
+    <t>A dinâmica de agendamento e realização dos procedimentos de Cirurgia Eletivas foram afetados negativamente pela pandemia de Covid-19, colaborando para o represamento de tais procedimentos no decorrer do período entre 2020 e 2022.
+A partir da identificação da necessidade de retomar a realização de consultas e procedimentos cirúrgicos eletivos, o Governo do Estado da Bahia por meio da Secretaria de Saúde do Estado da Bahia - SESAB, através do Credenciamento Nº 003/2016, implantou o Programa Estadual de Ampliação do Acesso às Cirurgias Eletivas em março de 2022. Porém, apesar dos esforços empreendidos, tal programa não foi suficiente para redução de 100% das filas.
+Nesse período, por meio do Programa Estadual, foram realizadas mais de 120 mil cirurgias eletivas para os munícipes dos 417 municípios do Estado, entretanto, em fevereiro de 2023, ficou evidenciado a existência de mais de 70 mil usuários do SUS na fila de espera do Sistema Estadual - Lista Única.
+Dito isto, o Programa Nacional de Redução de Filas de Cirurgia Eletivas vem agregar recursos para reduzir a fila já existente, e ampliar o acesso aos usuários ainda não contemplados no Programa Estadual.</t>
+  </si>
+  <si>
+    <t>Em diligência</t>
+  </si>
+  <si>
+    <t>0, 0</t>
   </si>
   <si>
     <t>ABAIRA; ABARE; ACAJUTIBA; ADUSTINA; AGUA FRIA; ERICO CARDOSO; AIQUARA; ALAGOINHAS; ALCOBACA; ALMADINA; AMARGOSA; AMELIA RODRIGUES; AMERICA DOURADA; ANAGE; ANDARAI; ANDORINHA; ANGICAL; ANGUERA; ANTAS; ANTONIO CARDOSO; ANTONIO GONCALVES; APORA; APUAREMA; ARACATU; ARACAS; ARACI; ARAMARI; ARATACA; ARATUIPE; AURELINO LEAL; BAIANOPOLIS; BAIXA GRANDE; BANZAE; BARRA; BARRA DA ESTIVA; BARRA DO CHOCA; BARRA DO MENDES; BARRA DO ROCHA; BARREIRAS; BARRO ALTO; BARROCAS; BARRO PRETO; BELMONTE; BELO CAMPO; BIRITINGA; BOA NOVA; BOA VISTA DO TUPIM; BOM JESUS DA LAPA; BOM JESUS DA SERRA; BONINAL; BONITO; BOQUIRA; BOTUPORA; BREJOES; BREJOLANDIA; BROTAS DE MACAUBAS; BRUMADO; BUERAREMA; BURITIRAMA; CAATIBA; CABACEIRAS DO PARAGUACU; CACHOEIRA; CACULE; CAEM; CAETANOS; CAETITE; CAFARNAUM; CAIRU; CALDEIRAO GRANDE; CAMACAN; CAMACARI; CAMAMU; CAMPO ALEGRE DE LOURDES; CAMPO FORMOSO; CANAPOLIS; CANARANA; CANAVIEIRAS; CANDEAL; CANDEIAS; CANDIBA; CANDIDO SALES; CANSANCAO; CANUDOS; CAPELA DO ALTO ALEGRE; CAPIM GROSSO; CARAIBAS; CARAVELAS; CARDEAL DA SILVA; CARINHANHA; CASA NOVA; CASTRO ALVES; CATOLANDIA; CATU; CATURAMA; CENTRAL; CHORROCHO; CICERO DANTAS; CIPO; COARACI; COCOS; CONCEICAO DA FEIRA; CONCEICAO DO ALMEIDA; CONCEICAO DO COITE; CONCEICAO DO JACUIPE; CONDE; CONDEUBA; CONTENDAS DO SINCORA; CORACAO DE MARIA; CORDEIROS; CORIBE; CORONEL JOAO SA; CORRENTINA; COTEGIPE; CRAVOLANDIA; CRISOPOLIS; CRISTOPOLIS; CRUZ DAS ALMAS; CURACA; DARIO MEIRA; DIAS D'AVILA; DOM BASILIO; DOM MACEDO COSTA; ELISIO MEDRADO; ENCRUZILHADA; ENTRE RIOS; ESPLANADA; EUCLIDES DA CUNHA; EUNAPOLIS; FATIMA; FEIRA DA MATA; FEIRA DE SANTANA; FILADELFIA; FIRMINO ALVES; FLORESTA AZUL; FORMOSA DO RIO PRETO; GANDU; GAVIAO; GENTIO DO OURO; GLORIA; GONGOGI; GOVERNADOR MANGABEIRA; GUAJERU; GUANAMBI; GUARATINGA; HELIOPOLIS; IACU; IBIASSUCE; IBICARAI; IBICOARA; IBICUI; IBIPEBA; IBIPITANGA; IBIQUERA; IBIRAPITANGA; IBIRAPUA; IBIRATAIA; IBITIARA; IBITITA; IBOTIRAMA; ICHU; IGAPORA; IGRAPIUNA; IGUAI; ILHEUS; INHAMBUPE; IPECAETA; IPIAU; IPIRA; IPUPIARA; IRAJUBA; IRAMAIA; IRAQUARA; IRARA; IRECE; ITABELA; ITABERABA; ITABUNA; ITACARE; ITAETE; ITAGI; ITAGIBA; ITAGIMIRIM; ITAGUACU DA BAHIA; ITAJU DO COLONIA; ITAJUIPE; ITAMARAJU; ITAMARI; ITAMBE; ITANAGRA; ITANHEM; ITAPARICA; ITAPE; ITAPEBI; ITAPETINGA; ITAPICURU; ITAPITANGA; ITAQUARA; ITARANTIM; ITATIM; ITIRUCU; ITIUBA; ITORORO; ITUACU; ITUBERA; IUIU; JABORANDI; JACARACI; JACOBINA; JAGUAQUARA; JAGUARARI; JAGUARIPE; JANDAIRA; JEQUIE; JEREMOABO; JIQUIRICA; JITAUNA; JOAO DOURADO; JUAZEIRO; JUCURUCU; JUSSARA; JUSSARI; JUSSIAPE; LAFAIETE COUTINHO; LAGOA REAL; LAJE; LAJEDAO; LAJEDINHO; LAJEDO DO TABOCAL; LAMARAO; LAPAO; LAURO DE FREITAS; LENCOIS; LICINIO DE ALMEIDA; LIVRAMENTO DE NOSSA SENHORA; LUIS EDUARDO MAGALHAES; MACAJUBA; MACARANI; MACAUBAS; MACURURE; MADRE DE DEUS; MAETINGA; MAIQUINIQUE; MAIRI; MALHADA; MALHADA DE PEDRAS; MANOEL VITORINO; MANSIDAO; MARACAS; MARAGOGIPE; MARAU; MARCIONILIO SOUZA; MASCOTE; MATA DE SAO JOAO; MATINA; MEDEIROS NETO; MIGUEL CALMON; MILAGRES; MIRANGABA; MIRANTE; MONTE SANTO; MORPARA; MORRO DO CHAPEU; MORTUGABA; MUCUGE; MUCURI; MULUNGU DO MORRO; MUNDO NOVO; MUNIZ FERREIRA; MUQUEM DE SAO FRANCISCO; MURITIBA; MUTUIPE; NAZARE; NILO PECANHA; NORDESTINA; NOVA CANAA; NOVA FATIMA; NOVA IBIA; NOVA ITARANA; NOVA REDENCAO; NOVA SOURE; NOVA VICOSA; NOVO HORIZONTE; NOVO TRIUNFO; OLINDINA; OLIVEIRA DOS BREJINHOS; OURICANGAS; OUROLANDIA; PALMAS DE MONTE ALTO; PALMEIRAS; PARAMIRIM; PARATINGA; PARIPIRANGA; PAU BRASIL; PAULO AFONSO; PE DE SERRA; PEDRAO; PEDRO ALEXANDRE; PIATA; PILAO ARCADO; PINDAI; PINDOBACU; PINTADAS; PIRAI DO NORTE; PIRIPA; PIRITIBA; PLANALTINO; PLANALTO; POCOES; POJUCA; PONTO NOVO; PORTO SEGURO; POTIRAGUA; PRADO; PRESIDENTE DUTRA; PRESIDENTE JANIO QUADROS; PRESIDENTE TANCREDO NEVES; QUEIMADAS; QUIJINGUE; QUIXABEIRA; RAFAEL JAMBEIRO; REMANSO; RETIROLANDIA; RIACHAO DAS NEVES; RIACHAO DO JACUIPE; RIACHO DE SANTANA; RIBEIRA DO AMPARO; RIBEIRA DO POMBAL; RIBEIRAO DO LARGO; RIO DE CONTAS; RIO DO ANTONIO; ...(87)</t>
@@ -445,6 +454,18 @@
     <t>14985284</t>
   </si>
   <si>
+    <t>Prazo de 5 dias para adequação. Duvidas entrar em contato com Apoiador MS.</t>
+  </si>
+  <si>
+    <t>RAFAEL FLORENTINO CORDEIRO MARTINS</t>
+  </si>
+  <si>
+    <t>07/03/2023 17:01:53</t>
+  </si>
+  <si>
+    <t>42.149.212,05</t>
+  </si>
+  <si>
     <t>LARISSA SILVA MENDONCA LESSA</t>
   </si>
   <si>
@@ -454,10 +475,92 @@
     <t>71 31154211</t>
   </si>
   <si>
+    <t>03/03/2023 18:19:24</t>
+  </si>
+  <si>
+    <t>06/04/2023</t>
+  </si>
+  <si>
+    <t>UBIRAYLSON BRANDÃO DE ANDRADE</t>
+  </si>
+  <si>
+    <t>Coordenador na Coordenação de Controle da SESAB/SUREGS/DICON.</t>
+  </si>
+  <si>
+    <t>(71) 3115-4119/4123</t>
+  </si>
+  <si>
+    <t>DICON.COCON@SAUDE.BA.GOV.BR E SUREGS.DICON@SAUDE.BA.GOV.BR</t>
+  </si>
+  <si>
+    <t>Resolução CIB 24-2023 Cirurgias Eletivas.pdf</t>
+  </si>
+  <si>
+    <t>Nº 024/2023</t>
+  </si>
+  <si>
+    <t>Atualmente o estado da Bahia possui em curso o Programa Estadual de Ampliação do Acesso às Cirurgias Eletivas, iniciativa implantada por intermédio da Secretaria da Saúde, em março de 2022, a partir da identificação da necessidade de retomar a realização de consultas e procedimentos cirúrgicos eletivos que oscilaram no período de 2020 a 2022, devido à pandemia de Covid 19. 
+O Programa, financiado com recursos do Tesouro Estadual, foi estruturado com base em apuração da demanda reprimida constante no Sistema Lista Única que é uma ferramenta informatizada utilizada na Bahia, onde os municípios inserem as solicitações de realização de procedimentos eletivos para seus munícipes.
+A Gestão Estadual vem desenvolvendo um Sistema de Regulação Ambulatorial que possivelmente substituirá o Sistema Lista Única no curso de execução do Programa Nacional de Redução de Filas.
+Para atender a demanda identificada, foi efetivado credenciamento de serviços de saúde, por intermédio dos quais foram realizados, ao longo do ano de 2022, cerca de 110.000 procedimentos para todo o Estado. Considerando que, paralelamente, novas demandas foram adicionadas no período, o cenário atual exibe como principais necessidades da população, por ordem decrescente, os procedimentos das especialidades de oftalmologia, cirurgia geral, cirurgia vascular, cirurgia ginecológica e otorrinolaringologia. A despeito do referido Programa Estadual, observa-se que há demanda reprimida significativa na especialidade de Ortopedia e Cirurgia Plástica Mamária identificadas em unidades da Rede de Atenção, motivo pelo qual se pretende contemplar as mesmas no Plano Estadual de redução de filas proposto pelo Ministério da Saúde para o exercício de 2023.
+Esse cenário é ratificado pela Secretaria Municipal de Saúde de Salvador (fonte: Sistema Vida, Central Municipal de Regulação e demandas do Ministério Público) e demais municípios pólos de macro, que reconhecem ter fila de espera para procedimentos cirúrgicos eletivos nas especialidades de: oftalmologia, vascular, ginecologia, urologia/uropediatria, otorrinolaringologia, ortopedia e cirurgia geral.
+Chama-se a atenção para a dificuldade que os municípios executores do estado da Bahia possuem em organizar e captar a demanda para os procedimentos cirúrgicos eletivos, uma vez que a porta de entrada para esses procedimentos são as consultas médicas especializadas. Essas consultas, na maioria das vezes, estão nos próprios prestadores de serviços de saúde que executam tais cirurgias e que não possuem ambulatório amplo para a captação dos pacientes. Por este motivo, parte dessa população que necessita dessas cirurgias perambulam por consultas e exames que garantam o seu acesso à fila de espera para sua cirurgia.
+Assim como a Secretaria Estadual de Saúde da Bahia (SESAB), alguns municípios, como por exemplo Salvador, realizaram Chamamentos Público/Credenciamentos com intuito de contratar consultas, exames complementares e cirurgias eletivas para ampliação do acesso da demanda que foi reprimida pela Pandemia da Covid-19.
+A atual capacidade de oferta do estado da Bahia corresponde 34 unidades públicas somada a 77 prestadores de serviços de saúde credenciados ao SUS em caráter complementar. São ofertados 104 tipos de procedimentos nas especialidades de: oftalmologia, cirurgia geral, vascular, plástica mamária não estética, ginecologia, urologia, ortopedia e otorrinolaringologia.</t>
+  </si>
+  <si>
+    <t>Avanços:
+* Organização do acesso a partir do Sistema informatizado;
+* Descentralização da oferta de serviços a partir de pactuações regionalizadas;
+* Desempenho crescente na execução de Cirurgias Eletivas nos anos de 2017 (128.976), 2018 (175.684) e 2019 (200.635), anteriores a pandemia Covid 19;
+* Investimento via tesouro estadual e municipal para ampliação da oferta de serviços;
+* Implementação, pela gestão estadual, de estratégia de comunicação entre a gestão estadual, municipal e prestadores de serviços, através de uma Central de Relacionamento.
+Desafios:
+* Organização do acesso a partir do Sistema informatizado;
+* Ampliação de ambulatório de consultas médicas especializadas para captação dos pacientes;
+* Oferta de serviços em todas as regiões de saúde do Estado;
+* Direcionar os usuários do SUS residentes em regiões desassistidas para as localidades que dispõem da oferta dos serviços;
+* Atualização sistemática, da demanda reprimida, por parte dos 417 municípios;
+* Ampliação da capacidade de oferta à SADT;
+* Reduzir absenteísmo resultante da dificuldade de deslocamento em face da vasta extensão territorial do Estado;
+* Organizar o acesso de usuários diante dos diferentes cenários loco-regionais;
+* Aprimorar mecanismos de controle;
+* Disponibilizar leitos e equipamentos para a realização de procedimentos cirúrgicos eletivos, sem o comprometimento dos serviços de urgência e emergência;
+* Superar a condição de quadros reduzidos de equipes especializadas (administrativas e de saúde) em atendimento ao SUS;
+* Competir com os valores praticados no serviço privado, superiores aos estabelecidos na tabela SUS.
+A partir da aprovação deste Plano Estadual serão adotadas as seguintes estratégias:
+* Credenciar serviços para atendimento da demanda identificada;
+* Realizar aditivos nos contratos/convênios já existentes com prestadores de serviços de saúde para assegurar ampliação da oferta e realização dos procedimentos;
+* Estabelecer os fluxos de encaminhamento dos usuários e pactuá-los em CIB;
+* Organizar acompanhamento, monitoramento e avaliação da execução do Programa;
+* Monitorar a produção de cada prestador de serviço de saúde;
+* Promover adequações a partir do processo de avaliação e controle.</t>
+  </si>
+  <si>
     <t>Sim</t>
   </si>
   <si>
     <t>Não</t>
+  </si>
+  <si>
+    <t>1 - Incentivar as Secretarias Municipais de Saúde/Prestadores para atualização do CNES (contínua) evitando glosas;
+2 - Monitoramento periódico da execução dos procedimentos  Cirurgicos  com vistas a redução das filas, realizando intervenções quando necessário;
+3 - Aportar valores, sempre que nescessário, de forma a incentivar a adesão de prestadores para a realização de procedimentos Cirurgicos Eletívos de baixa execução.</t>
+  </si>
+  <si>
+    <t>NÃO É NECESSÁRIO</t>
+  </si>
+  <si>
+    <t>Para a Regulação do Acesso será utilizado o Sistema Lista Única ¿ ferramenta disponibilizada pela gestão estadual aos 417 municípios e destinada à organização do acesso dos usuários aos serviços de saúde, permitindo a estruturação do atendimento de forma regionalizada e a participação dos municípios, no encaminhamento e acompanhamento de suas demandas ¿, e o Sistema Vida ¿ sistema de regulação utilizado pela Secretaria Municipal de Saúde (SMS) de Salvador.
+As Secretarias Municipais de Saúde são responsáveis pelo cadastro do usuário no Sistema Lista Única, conforme procedimento solicitado. Em módulos distintos, o executor gestor estadual ou o executor gestor municipal realiza agendamento da consulta pré-operatória conforme agenda disponibilizada pelo prestador no Sistema Lista Única e município visualiza agendamento da consulta no Sistema e encaminha o usuário para atendimento em unidade referenciada. Após confirmação em consulta, prestador agenda a data da cirurgia e registra no Sistema Lista Única, Município visualiza agendamento da cirurgia no Sistema Lista Única e encaminha o usuário. 
+Quando da realização das cirurgias, o executor terá que por obrigação alimentar o Sistema Lista Única, dando baixa no módulo cirurgia, a fim de que não ocorra dados que podem conflitar com a realidade/necessidade
+O Sistema permite a emissão de relatório para monitoramento e avaliação da execução da Estratégia.</t>
+  </si>
+  <si>
+    <t>plano-atendimento-perf-cir-eletiva-vrs-4a SAIPS.xlsx</t>
+  </si>
+  <si>
+    <t>plano-monitoramento-perf-cir-eletiva-oficial.xlsx</t>
   </si>
   <si>
     <t>170358</t>
@@ -782,19 +885,32 @@
     <t>MA</t>
   </si>
   <si>
-    <t>Com o Programa Nacional de Redução das Filas de Cirurgias Eletivas, instituído pela Portaria GM/MS nº 90, de 03 de fevereiro de 2023, o Governo Federal deu um passo fundamental para enfrentar a questão das filas para cirurgias eletivas, exames complementares e consultas especializadas no Sistema Único de Saúde (SUS), incentivando desta forma na organização de mutirões em todo o país, a fim de desafogar a demanda reprimida. A Priore os recursos financeiros disponíveis em 2023 para o Programa Nacional estão previstos a partir de um cálculo baseado na população dos estados, o restante será repassado de acordo com a produção apresentada de cirurgias realizadas. São objetivos do Programa a organização e ampliação do acesso a cirurgias, exames e consultas na Atenção Especializada (em especial, quando forem identificadas demandas reprimidas); o aprimoramento da governança da Rede de Atenção à Saúde; o fomento ao monitoramento e à avaliação das ações e dos serviços de saúde; a qualificação da contratualização com a rede complementar; a mudança do modelo de gestão e regulação das filas para a atenção especializada; e o fomento à implementação de um novo modelo de custeio para a atenção ambulatorial especializada e para a realização de cirurgias eletivas. O Programa prevê estratégias para garantir equipes cirúrgicas completas e melhorar o fluxo de atendimento em todo o Brasil. O Estado do Maranhão estabelecerá as cirurgias prioritárias, de acordo com a realidade de cada município. Em cumprimento ao Programa Nacional de Redução das Filas de Cirurgias Eletivas a Secretaria de Estado da Saúde do Maranhão envidará esforços nas ações para melhoria de processos de gestão das filas e do fluxo</t>
-  </si>
-  <si>
-    <t>0, 0</t>
-  </si>
-  <si>
-    <t>ACAILANDIA; AMARANTE DO MARANHAO; BALSAS; BARRA DO CORDA; BURITI BRAVO; BURITICUPU; CAROLINA; CIDELANDIA; COELHO NETO; COLINAS; CONCEICAO DO LAGO-ACU; IMPERATRIZ; ITAIPAVA DO GRAJAU; JENIPAPO DOS VIEIRAS; LAGO DA PEDRA; LIMA CAMPOS; MATOES; MIRINZAL; PARNARAMA; PINHEIRO; PIRAPEMAS; POCAO DE PEDRAS; PRESIDENTE JUSCELINO; SANTA HELENA; SANTA RITA; SANTANA DO MARANHAO; SAO FRANCISCO DO MARANHAO; SAO JOAO DO SOTER; SAO JOAO DOS PATOS; SAO JOSE DE RIBAMAR; SAO LUIS; SAO PEDRO DOS CRENTES; SATUBINHA; TIMBIRAS; TIMON; TUNTUM</t>
-  </si>
-  <si>
-    <t>210005; 210060; 210140; 210160; 210230; 210232; 210280; 210325; 210340; 210350; 210355; 210530; 210535; 210547; 210570; 210600; 210660; 210680; 210780; 210860; 210880; 210890; 210920; 210980; 211020; 211023; 211090; 211107; 211110; 211120; 211130; 211157; 211172; 211210; 211220; 211230</t>
-  </si>
-  <si>
-    <t>2870060</t>
+    <t>Com o Programa Nacional de Redução das Filas de Cirurgias Eletivas, instituído pela Portaria GM/MS nº 90, de 03 de fevereiro de 2023, o Governo Federal deu um passo fundamental para enfrentar a questão das filas para cirurgias eletivas, exames complementares e consultas especializadas no Sistema Único de Saúde (SUS), incentivando desta forma na organização de mutirões em todo o país, a fim de desafogar a demanda reprimida. A priori, os recursos financeiros disponíveis em 2023 para o Programa Nacional estão previstos a partir de um cálculo referente a população dos estados, ademais parcelas serão repassadas de acordo com as produções de cirurgias realizadas aprovados pelo Sistema de Informações Hospitalares e Ambulatoriais (SIH e SIA). São objetivos do Programa: a organização e ampliação do acesso as cirurgias, exames e consultas na Atenção Especializada (em especial, quando forem identificadas demandas reprimidas); o aprimoramento da governança da Rede de Atenção à Saúde; o fomento ao monitoramento e à avaliação das ações e dos serviços de saúde; a qualificação da contratualização com a rede complementar; a mudança do modelo de gestão e regulação das filas para a atenção especializada; e o fomento à implementação de um novo modelo de custeio para a atenção ambulatorial especializada e para a realização de cirurgias eletivas. O Programa prevê estratégias para garantir equipes cirúrgicas completas e melhorar o fluxo de atendimento em todo o Brasil. O Estado do Maranhão por meio da Secretaria de Estado da Saúde do Maranhão/SES e COSEMS estabelecerão as cirurgias prioritárias, de acordo com as necessidades de cada município. A Secretaria de Estado da Saúde do Maranhão envidará esforços nas ações para melhoria de processos de gestão das filas e do fluxo de atendimentos dos usuários visando garantir atendimento à população maranhense</t>
+  </si>
+  <si>
+    <t>Aprovada</t>
+  </si>
+  <si>
+    <t>ACAILANDIA; AMARANTE DO MARANHAO; BACABAL; BALSAS; BARRA DO CORDA; BURITI BRAVO; BURITICUPU; CAROLINA; CARUTAPERA; CAXIAS; CHAPADINHA; CIDELANDIA; COELHO NETO; COLINAS; CONCEICAO DO LAGO-ACU; COROATA; GRAJAU; IMPERATRIZ; ITAIPAVA DO GRAJAU; JENIPAPO DOS VIEIRAS; LAGO DA PEDRA; LIMA CAMPOS; MATOES; MIRINZAL; MONCAO; PARNARAMA; PAULINO NEVES; PEDREIRAS; PERITORO; PINHEIRO; PIRAPEMAS; POCAO DE PEDRAS; PRESIDENTE JUSCELINO; SANTA HELENA; SANTA INES; SANTA LUZIA DO PARUA; SANTA RITA; SANTANA DO MARANHAO; SAO FRANCISCO DO MARANHAO; SAO JOAO DO SOTER; SAO JOAO DOS PATOS; SAO JOSE DE RIBAMAR; SAO LUIS; SAO PEDRO DOS CRENTES; SATUBINHA; TIMBIRAS; TIMON; TUNTUM</t>
+  </si>
+  <si>
+    <t>210005; 210060; 210120; 210140; 210160; 210230; 210232; 210280; 210290; 210300; 210320; 210325; 210340; 210350; 210355; 210360; 210480; 210530; 210535; 210547; 210570; 210600; 210660; 210680; 210690; 210780; 210805; 210820; 210845; 210860; 210880; 210890; 210920; 210980; 210990; 211003; 211020; 211023; 211090; 211107; 211110; 211120; 211130; 211157; 211172; 211210; 211220; 211230</t>
+  </si>
+  <si>
+    <t>3610873</t>
+  </si>
+  <si>
+    <t>ORIENTAÇÕES IMPORTANTES: 
+1) O estado foi informado que há unidades que possuem exigências de serviço e/ou  habilitação e/ou leito, portanto devem ajustados o CNES antes de iniciar os atendimentos para evitar rejeição na produção; e
+2) Há unidades registadas no CNES que não atendem ao SUS, orientamos para formalizar de instrumento contratual do estabelecimento e atualizar o CNES, antes do início dos atendimento para evitar rejeição na produção.
+OBS1: A planilha de validação será encaminhada pelo apoiador por e-mail.
+OBS2: O processo passará a tramitar no SEI(Sistema Eletrônico de Informação)-MS.</t>
+  </si>
+  <si>
+    <t>MARCOS ELIZEU MARINHO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>08/03/2023 12:11:07</t>
   </si>
   <si>
     <t>20.120.029,55</t>
@@ -812,10 +928,10 @@
     <t>27/02/2023</t>
   </si>
   <si>
-    <t>28/05/2023</t>
-  </si>
-  <si>
-    <t>Marina Nascimento Sousa</t>
+    <t>03/03/2023 10:28:37</t>
+  </si>
+  <si>
+    <t>Marina do Nascimento Sousa</t>
   </si>
   <si>
     <t>Superintendência de Avaliação e Controle do Sistema de Saúde/SES</t>
@@ -825,6 +941,12 @@
   </si>
   <si>
     <t>marinasousa20@gmail.com</t>
+  </si>
+  <si>
+    <t>RESOLUÇÃO nº 15 CIRURGIAS ELETIVAS - ATUALIZADA 06.03.23.pdf</t>
+  </si>
+  <si>
+    <t>RESOLUÇÃO Nº 15/2023 - CIB-MA DE 28 DE FEVEREIRO DE 2023</t>
   </si>
   <si>
     <t>Há uma demanda reprimida para procedimentos cirúrgicos eletivos de media e alta complexidade, potencializada pela Pandemia Covid 19. A Secretaria de Estado da Saúde do Maranhão em conjunto com os municípios descentralizou os serviços de saúde ambulatoriais e hospitalares para as 19 Regiões de Saúde, abrangendo os 217 municípios maranhenses. Desta feita, os procedimentos cirúrgicos eletivos serão realizados nos estabelecimentos de saúde de gestão estadual e municipal</t>
@@ -840,6 +962,12 @@
     <t>A gestão da fila cirúrgica será realizada pela gestão estadual com sistema de compartilhamento com os municípios, visando o acompanhamento das metas programadas e realizadas por cada estabelecimento de saúde e cronograma de execução estabelecido no Plano Nacional de Redução de Filas</t>
   </si>
   <si>
+    <t>Plano de Atendimento PERF Cir. Eletiva - Passo 7 - Versão Alterada 06.03.23.xlsx</t>
+  </si>
+  <si>
+    <t>Plano monitoramento PERF Cir. Eletiva - Passo 8.pdf</t>
+  </si>
+  <si>
     <t>170553</t>
   </si>
   <si>
@@ -863,6 +991,9 @@
     <t>67 33181669; 67 33181669</t>
   </si>
   <si>
+    <t>28/05/2023</t>
+  </si>
+  <si>
     <t>170589</t>
   </si>
   <si>
@@ -929,7 +1060,15 @@
     <t>AC</t>
   </si>
   <si>
-    <t>M</t>
+    <t>A Secretária de Estado de Saúde tem a intenção estratégica, realizar tratativas e pactuações entre as gerências das unidades e Secretaria Adjunta com objetivo de haver adequação, manutenção e estruturação dos ambientes onde serão realizados os procedimentos cirúrgicos, além de, definição de equipes de saúde que estarão realizando as cirurgias, bem como, garantir materiais e insumos necessários.
+As especialidades médicas elencadas como prioritárias são de cirurgia cabeça e pescoço, urologia, ortopedia, ginecologia, cirurgia geral, otorrinolaringologia, cardiologia, proctologia, mastologia, cirurgia pediátrica e cirurgia vascular.
+No plano, serão apresentadas ações de dimensões macro com a característica de viabilidade por parte da Secretaria de Estado de Saúde do Acre na realização de oferta de procedimentos cirúrgicos eletivos para usuários do SUS, visando assegurar prestação de serviço o mais célere possível.
+Atualmente as especialidades médicas que estão com as demandas reprimidas mais expressivas são as de Cirurgia cabeça e pescoço, urologia, ortopedia, ginecologia, cirurgia geral, otorrinolaringologia, cardiologia, proctologia, cirurgia de mastologia, cirurgia pediátrica, cirurgia vascular, sendo todos avaliados as solicitações por profissionais médicos reguladores com análise criteriosa das informações clínicas dispostas no sistema de regulação.
+A realização das cirurgias deverá ter como base também, determinações governamentais, dados epidemiológicos da única macrorregião de saúde no Estado do Acre, controle social e outros. É importante destacar que as variáveis estão sujeitas alterações após consulta aos sistemas de informações.
+Entre as estratégias, deverá ser organizado as cirurgias de forma a atender pacientes em filas eletivas das 03 regiões de saúde (Baixo Acre Purus, Alto Acre e Juruá) e deverá ser como base também, instrumentos de gestão, dados epidemiológicos da única macrorregião de saúde no Estado do Acre, controle social e outros. É importante destacar que as variáveis estão sujeitas a alterações, podendo ser consultadas.</t>
+  </si>
+  <si>
+    <t>Enviada para o MS</t>
   </si>
   <si>
     <t>ACRELANDIA; ASSIS BRASIL; BRASILEIA; BUJARI; CAPIXABA; CRUZEIRO DO SUL; EPITACIOLANDIA; FEIJO; JORDAO; MANCIO LIMA; MANOEL URBANO; MARECHAL THAUMATURGO; PLACIDO DE CASTRO; PORTO WALTER; RIO BRANCO; RODRIGUES ALVES; SANTA ROSA DO PURUS; SENADOR GUIOMARD; SENA MADUREIRA; TARAUACA; XAPURI; PORTO ACRE</t>
@@ -950,6 +1089,55 @@
     <t>68 99533552</t>
   </si>
   <si>
+    <t>09/03/2023 11:49:38</t>
+  </si>
+  <si>
+    <t>MARESSA GUIMARÃES TAUMATURGO PASSOS</t>
+  </si>
+  <si>
+    <t>GERENTE ASSISTENCIAL DO COMPLEXO REGULADOR</t>
+  </si>
+  <si>
+    <t>(68) 99908-5686</t>
+  </si>
+  <si>
+    <t>maressaguimaraes.sesacre@gmail.com</t>
+  </si>
+  <si>
+    <t>07._RES._CIB_ACRE_N__07_2023_AD_REF.___PLANO_DE_REDUCAO_DE_FILA_DE_CIRURGIAS_ELETIVAS_2023.pdf</t>
+  </si>
+  <si>
+    <t>RESOLUÇÃO CIB/AC Nº 07</t>
+  </si>
+  <si>
+    <t>O Estado do Acre por meio da Secretaria de Estado de Saúde tem por responsabilidade ofertar serviços especializados na área de cirurgias eletivas, sendo que, atualmente o há uma lista de mais de 8.000 pacientes aguardando para realização de cirurgias nas mais diversas especialidades médicas;
+Na presente data, a secretaria de estado de saúde por meio da central de regulação de cirurgias do complexo regulador estadual, tem realizado gestão das filas por meio do sistema SISREG III, havendo contato direto com os Estabelecimentos de Saúde habilitados e estruturados para realização de cirurgias eletivas, totalizando 05 estabelecimentos de saúde e 09 Salas cirúrgicas sendo realizado aproximadamente 800 cirurgias por mês.</t>
+  </si>
+  <si>
+    <t>A Secretaria de Estado de Saúde estará realizando como estratégias, tratativas e
+pactuações entre as gerências das unidades e Secretaria Adjunta com objetivo de adequação, manutenção e estruturação dos ambientes onde serão realizados os procedimentos cirúrgicos, além de, definição de equipes de saúde que estarão realizando as cirurgias, bem como, garantia de materiais e insumos necessários.
+As especialidades médicas que serão contempladas são de cirurgia cabeça e pescoço,
+urologia, ortopedia, ginecologia, cirurgia geral e pediátrica e proctologia.
+Será organizado as cirurgias de forma a atender pacientes nas filas eletivas das 03
+regiões de saúde do Acre (Baixo Acre Purus, Alto Acre e Juruá) e deverá ter como base também, instrumentos de gestão, dados epidemiológicos, controle social e outros. É importante destacar que as variáveis estão sujeitas a alterações, podendo ser consultadas nas bases de dados disponíveis.</t>
+  </si>
+  <si>
+    <t>Atualmente a Secretaria de Estado de Saúde por meio da Central de Regulação de
+Cirurgias, está realizando gestão das filas cirurgias por meio do Sistema de Regulação SISREG III. 
+As solicitações são inseridas nas Unidades Assistenciais pelos operadores do sistema
+em fila única, posteriormente são avaliados pelos médicos reguladores da Central de
+Regulação Estadual de Cirurgias para classificação de prioridade.
+Posterior a classificação, os pacientes são acionados via telefone e encaminhados a
+Central de Atendimento e Cirurgias (CAC ¿ FUNDHACRE) para realização de exames pré- operatórios; posterior a conclusão dos exames é realizada nova avaliação para definição de Classificação de Risco e assim, confeccionados os mapas de acordo com a data de inserção e critério de prioridade.
+Após esse trâmite, é realizado novo contato com paciente para orientação e encaminhamentos para o procedimento cirúrgico conforme oferta de vaga.</t>
+  </si>
+  <si>
+    <t>plano-atendimento-perf-cir-eletiva-vrs-4a 07 03 2023 DEFINITIVO.xlsx</t>
+  </si>
+  <si>
+    <t>plano-monitoramento-perf-cir-eletiva-vrs-3- DEFINITIVO.xlsx</t>
+  </si>
+  <si>
     <t>170625</t>
   </si>
   <si>
@@ -965,7 +1153,7 @@
     <t>DF</t>
   </si>
   <si>
-    <t>xx</t>
+    <t>A Portaria nº 90, de 3 de fevereiro de 2023, institui o Programa Nacional de Redução de Filas de Cirurgias Eletivas, Exames Complementares e Consultas Especializadas, no âmbito do SUS, portanto, encaminhamos o referido Plano do Distrito Federal para apreciação.</t>
   </si>
   <si>
     <t>BRASILIA; REGIAO ADMINISTRATIVA DE AGUAS CLARAS; REGIAO ADMINISTRATIVA DE BRAZLANDIA; REGIAO ADMINISTRATIVA DE CANDANGOLANDIA; REGIAO ADMINISTRATIVA DE CEILANDIA; REGIAO ADMINISTRATIVA DO CRUZEIRO; REGIAO ADMINISTRATIVA DO GAMA; REGIAO ADMINISTRATIVA DO GUARA; REGIAO ADMINISTRATIVA DO LAGO NORTE; REGIAO ADMINISTRATIVA DO LAGO SUL; REGIAO ADMINISTRATIVA DO NUCLEO BANDEIRANTES; REGIAO ADMINISTRATIVA DO PARANOA; REGIAO ADMINISTRATIVA DO PARK WAY; REGIAO ADMINISTRATIVA DE PLANALTINA; REGIAO ADMINISTRATIVA DE RECANTO DA EMAS; REGIAO ADMINISTRATIVA DO RIACHO FUNDO I; REGIAO ADMINISTRATIVA DO RIACHO FUNDO II; REGIAO ADMINISTRATIVA DE SAMAMBAIA; REGIAO ADMINISTRATIVA DE SANTA MARIA; REGIAO ADMINISTRATIVA DE SAO SEBASTIAO; REGIAO ADMINISTRATIVA DE SOBRADINHO; REGIAO ADMINISTRATIVA DE SOBRADINHO II; REGIAO ADMINISTRATIVA DE TAGUATINGA; REGIAO ADMINISTRATIVA DO VARJAO; REGIAO ADMINISTRATIVA DO ITAPOA; REGIAO ADMINISTRATIVA DO JARDIM BOTANICO; REGIAO ADMINISTRATIVA DO SUDOESTE/OCTOGONAL; REGIAO ADMINISTRATIVA DE SCIA (ESTRUTURAL); REGIAO ADMINISTRATIVA DE VICENTE PIRES; REGIAO ADMINISTRATIVA DO SIA; REGIAO ADMINISTRATIVA DA FERCAL; REGIAO ADMINISTRATIVA DA ARNIQUEIRAS; REGIAO ADMINISTRATIVA DA ASA NORTE; REGIAO ADMINISTRATIVA DA ASA SUL</t>
@@ -993,6 +1181,76 @@
   </si>
   <si>
     <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>Ludmila de Ornellas Abreu</t>
+  </si>
+  <si>
+    <t>Enfermeiro</t>
+  </si>
+  <si>
+    <t>(61) 98115-9681</t>
+  </si>
+  <si>
+    <t>Durante a pandemia de COVID-19 os atendimentos nos serviços de saúde foram afetados pelo enfrentamento ao coronavírus e suas imensas complexidades. Assim, ao longo dos anos de 2020 e 2021 o alto índice de casos no Distrito Federal (DF) impactou diretamente na organização e funcionamento dos espaços assistenciais. Houve também interferência indireta em diversos serviços em todos os níveis de assistência à saúde. É possível exemplificar o caso dos centros cirúrgicos, que tendo em vista a suspensão nacional das cirurgias eletivas não essenciais, ficaram restritos ao atendimentos essenciais e emergenciais. É possível observar que houve queda de aproximadamente 50% no número de procedimentos cirúrgicos eletivos. Assim sendo, em 2021, foi elaborado um plano de trabalho para reorganização das cirurgias eletivas a SES/DF a ser executado em 2021-2022. Esse plano subsidiou ações referentes Às contratações de especialistas, aquisições e credenciamentos, visando atender às necessidades reprimidas ao longo do período de pandemia. Hoje, permanecemos com a mesma necessidade, porém visando ampliação da assistência cirúrgica. Atualmente, o Distrito Federal possui uma fila de 30.997 usuários aguardando cirurgias eletivas, sendo que destes procedimentos 4.982 são classificados  como vermelhos, 11.774 amarelos, 7.235 verdes e 6.839 azuis.
+Diagnóstico situacional das cirurgias eletivas:
+A rede SES/DF possui 14 hospitais com habilitação cirúrgica, sendo da rede própria os hospitais: HRT - 05 salas eletivas, 01 sala de urgência, 09 leitos de SRPA e 0 sala bloqueada 
+HRSAM - 02 salas eletivas, 01 sala de urgência, 04 leitos de SRPA e 01 sala bloqueada
+HRC - 04 salas eletivas, 02 salas de urgência, 12 leitos de SRPA e 02 salas bloqueadas 
+HRBz - 01 sala eletiva, 02 salas de urgência, 05 leitos de SRPA e 1 sala bloqueada
+HRG - 04 salas eletivas, 02 salas de urgência, 06 leitos de SRPA e 0 sala bloqueada 
+HRL - 03 salas eletivas, 02 salas de urgência, 06 leitos de SRPA e 02 salas bloqueadas
+HRAN - 04 salas eletivas ativas, 01 sala de urgência, 11 leitos de SRPA sendo 03 salas bloqueadas 
+HRS - 05 salas eletivas, 01 sala de urgência, 06 leitos de SRPA e 01 sala bloqueada, 
+HRPL - 03 salas eletivas, 01 sala de urgência, 05 leitos de SRPA e 01 sala bloqueada
+HMIB - 04 salas eletivas, 01 sala de urgência, 06 leitos de SRPA e 01 sala bloqueada
+Rede Contratualizada: 
+HBDF - 07 salas eletivas ativas, 05 salas de urgência, 17 leitos de SRPA e 04 salas bloqueadas
+HRSM - 02 salas eletivas ativas, 03 salas de urgência, 07 leitos de SRPA e 01 sala bloqueada 
+HCB e 
+HUB - 05 salas eletivas, 01 sala de urgência, 01 sala pra cirurgia ambulatorial, 07 leitos de SRPA e 1 sala bloqueada 
+É importante apontar que na rede conveniada ao SUS, Instituto de Cardiologia e Transplantes do Distrito Federal (ICTDF), na Clínica de Olhos Dr. João Eugênio, CBV, INBOL e Oftalmed para oftalmologia.
+No segundo semestre de 2022 tivemos a contratualização de empresas hospitalares para atender ao Edital de Credenciamento para a contratação de entidades privadas com ou sem fins lucrativos, para a prestação de serviços de procedimentos cirúrgicos eletivos de média complexidade, de forma complementar. As especialidades contempladas no edital foram: cirurgia geral e ginecologia.
+Para o adequado andamento das cirurgias, especialmente as cirurgias de médio e grande porte, é necessária a garantia de leitos de retaguarda, tantos clínicos, quando de Unidade de Terapia Intensiva. Nesse sentido, a Rede assistencial da SES-DF dispões de leitos direcionados à internação cirúrgica, ativos e bloqueados.</t>
+  </si>
+  <si>
+    <t>A Secretaria de Saúde do Distrito Federal tem promovido diversas ações com o objetivo de regularizar a demanda existente de cirurgias eletivas. Credenciamento e reorganização dos serviços, bem como novos planejamentos (incorporação do terceiro turno), aquisições de equipamentos e produtos para saúde, são alguns exemplos dos esforços empreendidos.
+Panorama das especialidades contempladas:
+Todas as especialidades cirúrgicas possuem grande relevância no cenário da SES DF. Porém, dentre essas, elencamos especialidades que, além da necessidade de redução de filas de espera, apresentam importante demanda reprimida em nível ambulatorial, ações civis públicas e judicializações, além do impacto assistencial. Está sendo elaborado um Plano de Trabalho: Reorganização das cirurgias eletivas na SES-DF 2023-2024 que tem como principais propostas:
+- Atualização, pelas unidades hospitalares, da real disponibilidade de turnos cirúrgicos no decorrer dos meses
+- Definição e sinalização das complexidades/tempos cirúrgicos com revisão das notas técnicas apresentadas ao CRDF
+- Higienização dinâmica da fila
+- Implementação de ambulatórios de pré-anestésico
+- Vinculação de ambulatórios de risco cirúrgico aos ambulatórios de pré-anestésico
+- Reinserção com prioridade para aqueles pacientes retirados do direcionamento por exames e risco cirúrgico, para que possam efetivamente realizar seus procedimentos.
+- Levantamento e aquisição de insumos
+- Estruturação de leitos de retaguarda na Rede, incluindo leitos de UTI e de enfermaria
+- Readequação de fluxos de entrada de pacientes na rede hospitalares
+- Regulação de cirurgias eletivas para todas as especialidades
+-Abertura de terceiro turno e/ou de finais de semana
+- Para o ajuste de escala e turnos, considerar o espaço da SRPA como leitos de retaguarda para giro rápido de pacientes cujo pós-operatório permita alta dentro do período de até 12hs
+- Revisão da Portaria nº200/2015, que normatiza os critérios para admissão e alta em relação aos leitos de UTI da Rede SES-DF
+- Divisão de especialidades prioritárias por hospital, organizada a partir de potencialidades identificadas com base na realidade atual.</t>
+  </si>
+  <si>
+    <t>O processo regulatório de acesso à assistência no Distrito Federal, referente a consultas, exames, procedimentos cirúrgicos e leitos, tem como objetivo principal a coordenação e qualificação dos fluxos de acesso às ações e serviços de saúde, que para ser operacionalizado necessita de diretrizes operacionais e protocolos clínicos de regulação. O Manual de Regulação vigente foi publicado no ano de 2021.
+Na SES-DF a regulação se iniciou no ano de 2004, inicialmente com as consultas de cardiologia e dermatologia e em seguida com acesso aos leitos de UTI.
+No regimento interno da SES-DF, publicado no DODF nº241 de 20 de dezembro de 2018, o art. 492 define a Diretoria de Regulação de Acesso Ambulatorial e hospitalar (DIRAAH/CRDF), dentre outras competências, coordena o planejamento das ações para implantação e implementação da regulação assistencial no âmbito desta Secretaria. Para o cumprimento do processo regulatório do acesso À assistência na SES-DF, destaca-se outras áreas envolvidas, alguns de seus atores e outras definições:
+É responsável por formular e propor normas relacionadas à regulação assistencial em saúde na SES-DF, dirigir, orientar e supervisionar a regulação do acesso inter-hospitalar, leitos, consultas e procedimentos especializados, cirurgias eletivas e regulação interestadual em consonância com as diretrizes do Ministério da Saúde e da Secretaria.
+A Central de Regulação de Cirurgias Eletivas (CERCE/DIRAAH), diretamente subordinada à Diretoria de Regulação Hospitalar e Ambulatorial, é competente para gerenciar os processos regulatórios relacionados às cirurgias eletivas, no âmbito das SES-DF, planejar as ações para implantação e implementação da regulação das cirurgias eletivas, estabelecer, com as áreas técnicas responsáveis, os critérios para regulação das cirurgias eletivas, estabelecer fluxos e protocolos de regulação das cirurgias eletivas, baseado em critérios de classificação de risco, protocolos clínicos e de regulação, dentre outras.
+REGULAÇÃO
+PANORAMA 1 OU REGULAÇÃO REGIONAL: refere-se ao quadro de oferta de serviços que está  presente em todas as regiões de saúde do DF, ou seja, ocorre quando o território/região de saúde tem condições de gerenciar sua própria distribuição de oferta e alocação de demanda dos pacientes, conforme capacidade instalada. Além disso, o território ou região de saúde torna-se responsável pela qualificação das solicitações (consultas, procedimentos e internações), de acordo com os fluxos e protocolos vigentes.
+PANORAMA 2 OU REGULAÇÃO PACTUADA (INTER-REGIONAL): refere-se à região ofertante do recurso que deve ter aptidão para gerenciar, além de suas demandas, também as demandas de outro território/região, mediante pactuação prévia (cotas de atendimento). O território deverá atender as classificações de risco da sua própria região e as das regiões pactuadas. A fila de espera para o agendamento de cada especialidade seguirá as diretrizes de priorização de acordo com a classificação de risco e complexidade de cada especialidade, respeitando os protocolos e linhas de cuidado adotados pela SES/DF
+PANORAMA 3 OU REGULAÇÃO CENTRAL: refere-se aos recursos que não estão presentes na maioria dos territórios, estando concentrados em unidades executantes específicos que servem a toda a rede SES/DF. São serviços escassos e estratégicos que servem à população do DF como um todo. O processo regulatório para o acesso a esses serviços é realizado paras Centrais de Regulação (CR) do Complexo Regulador do Distrito Federal (CRDF), com o gerenciamento de demandas, avaliação e agendamentos, sempre observando os fluxos e protocolos vigentes</t>
+  </si>
+  <si>
+    <t>Em suma, o Processo Regulatório de procedimentos cirúrgicos no Distrito Federal (Panorama 3) segue as etapas a seguir:
+1- O usuário é atendido em consulta pelo médico da especialidade cirúrgica, que define ou não a necessidade de cirurgia eletiva, quando o procedimento é indicado, o cirurgião insere a solicitação no Sistema de Regulação ¿ SISREGIII (sistema atualmente utilizado pela SES e CRDF) enquanto unidade solicitante;
+2- O médico regulador da CERCE avalia a solicitação inserida no sistema, levando em consideração a Nota Técnica da especialidade, que determina os critérios de prioridade conforme a gravidade, realizando dessa forma a higienização das solicitações e eventuais correções que se fizerem necessárias (como devolver a solicitação para acréscimo de informações necessárias, corrigir a prioridade inserida em inconformidade com Nota Técnica ou negar a solicitação, por exemplo);
+3 ¿ As vagas estimadas de cada procedimento cirúrgico são disponibilizadas no sistema pela Unidade Executante, que define quantas vagas serão direcionadas para cada especialidade contemplada na Unidade Hospitalar
+4- O médico regulador realiza autorizações das solicitações no SISREG, seguindo a ordem da fila gerada pelo próprio sistema, estabelecida por data de inserção, prioridade e porte cirúrgico, dentro o número de vagas disponibilizadas pela Unidade Executante para determinado mês. As autorizações são válidas para o mês correspondente, devendo ser desconsideradas dias e horário de agendamento que constam na autorização;
+5- A convocação do paciente, bem como a definição do dia da cirurgia dentro do mês autorizado, são atribuições da Unidade Executante conforme sua disponibilidade de recursos humanos e materiais, leitos e/ou sala cirúrgica;
+6- A confirmação da execução (ou não) do procedimento cirúrgico somente ocorre após a finalização do mês autorizado, informação enviada pelas Unidades Executantes através dos meus oficiais (planilhas e chaves no SISREG) para o CRDF. Para os pacientes submetidos ao procedimento cirúrgico, a Unidade Executante realiza o fechamento da chave no SISREG, sinalizando na planilha oficial que o procedimento foi realizado. Para os pacientes não submetidos ao procedimento cirúrgico, a Unidade Executante deve fornecer justificativa (dentre as padronizadas na planilha oficial) para a não execução, bem como realizar a reinserção da solicitação no SISREG com a devida sinalização, sendo o paciente priorizado no próximo agendamento por se tratar de reautorização.</t>
   </si>
   <si>
     <t>170640</t>
@@ -1014,9 +1272,6 @@
 Com base nos aspectos normativos do Ministério da Saúde, na existência de fila de espera por cirurgias eletivas, na disponibilidade de recursos financeiros e na capacidade instalada para a realização das cirurgias nas Unidades Hospitalares de Gerenciamento Estadual, Municipal e serviços contratualizados e na garantia de seguimento do tratamento pós-cirúrgicos, a SESAPI/SUGMAC/DUDOH apresenta o Plano DE TRABALHO PARA REDUÇÃO DAS FILAS DE CIRURGIAS ELETIVAS NO ESTADO DO PIAUÍ- 2023, visando a melhoria do acesso de forma regulada e com pactuação junto aos Municípios do estado do Piauí, através da Comissão Intergestores Bipartite (CIB).</t>
   </si>
   <si>
-    <t>Enviada para o MS</t>
-  </si>
-  <si>
     <t>ACAUA; AGRICOLANDIA; AGUA BRANCA; ALAGOINHA DO PIAUI; ALEGRETE DO PIAUI; ALTO LONGA; ALTOS; ALVORADA DO GURGUEIA; AMARANTE; ANGICAL DO PIAUI; ANISIO DE ABREU; ANTONIO ALMEIDA; AROAZES; AROEIRAS DO ITAIM; ARRAIAL; ASSUNCAO DO PIAUI; AVELINO LOPES; BAIXA GRANDE DO RIBEIRO; BARRA D'ALCANTARA; BARRAS; BARREIRAS DO PIAUI; BARRO DURO; BATALHA; BELA VISTA DO PIAUI; BELEM DO PIAUI; BENEDITINOS; BERTOLINIA; BETANIA DO PIAUI; BOA HORA; BOCAINA; BOM JESUS; BOM PRINCIPIO DO PIAUI; BONFIM DO PIAUI; BOQUEIRAO DO PIAUI; BRASILEIRA; BREJO DO PIAUI; BURITI DOS LOPES; BURITI DOS MONTES; CABECEIRAS DO PIAUI; CAJAZEIRAS DO PIAUI; CAJUEIRO DA PRAIA; CALDEIRAO GRANDE DO PIAUI; CAMPINAS DO PIAUI; CAMPO ALEGRE DO FIDALGO; CAMPO GRANDE DO PIAUI; CAMPO LARGO DO PIAUI; CAMPO MAIOR; CANAVIEIRA; CANTO DO BURITI; CAPITAO DE CAMPOS; CAPITAO GERVASIO OLIVEIRA; CARACOL; CARAUBAS DO PIAUI; CARIDADE DO PIAUI; CASTELO DO PIAUI; CAXINGO; COCAL; COCAL DE TELHA; COCAL DOS ALVES; COIVARAS; COLONIA DO GURGUEIA; COLONIA DO PIAUI; CONCEICAO DO CANINDE; CORONEL JOSE DIAS; CORRENTE; CRISTALANDIA DO PIAUI; CRISTINO CASTRO; CURIMATA; CURRAIS; CURRALINHOS; CURRAL NOVO DO PIAUI; DEMERVAL LOBAO; DIRCEU ARCOVERDE; DOM EXPEDITO LOPES; DOMINGOS MOURAO; DOM INOCENCIO; ELESBAO VELOSO; ELISEU MARTINS; ESPERANTINA; FARTURA DO PIAUI; FLORES DO PIAUI; FLORESTA DO PIAUI; FLORIANO; FRANCINOPOLIS; FRANCISCO AYRES; FRANCISCO MACEDO; FRANCISCO SANTOS; FRONTEIRAS; GEMINIANO; GILBUES; GUADALUPE; GUARIBAS; HUGO NAPOLEAO; ILHA GRANDE; INHUMA; IPIRANGA DO PIAUI; ISAIAS COELHO; ITAINOPOLIS; ITAUEIRA; JACOBINA DO PIAUI; JAICOS; JARDIM DO MULATO; JATOBA DO PIAUI; JERUMENHA; JOAO COSTA; JOAQUIM PIRES; JOCA MARQUES; JOSE DE FREITAS; JUAZEIRO DO PIAUI; JULIO BORGES; JUREMA; LAGOINHA DO PIAUI; LAGOA ALEGRE; LAGOA DO BARRO DO PIAUI; LAGOA DE SAO FRANCISCO; LAGOA DO PIAUI; LAGOA DO SITIO; LANDRI SALES; LUIS CORREIA; LUZILANDIA; MADEIRO; MANOEL EMIDIO; MARCOLANDIA; MARCOS PARENTE; MASSAPE DO PIAUI; MATIAS OLIMPIO; MIGUEL ALVES; MIGUEL LEAO; MILTON BRANDAO; MONSENHOR GIL; MONSENHOR HIPOLITO; MONTE ALEGRE DO PIAUI; MORRO CABECA NO TEMPO; MORRO DO CHAPEU DO PIAUI; MURICI DOS PORTELAS; NAZARE DO PIAUI; NAZARIA; NOSSA SENHORA DE NAZARE; NOSSA SENHORA DOS REMEDIOS; NOVO ORIENTE DO PIAUI; NOVO SANTO ANTONIO; OEIRAS; OLHO D'AGUA DO PIAUI; PADRE MARCOS; PAES LANDIM; PAJEU DO PIAUI; PALMEIRA DO PIAUI; PALMEIRAIS; PAQUETA; PARNAGUA; PARNAIBA; PASSAGEM FRANCA DO PIAUI; PATOS DO PIAUI; PAU D'ARCO DO PIAUI; PAULISTANA; PAVUSSU; PEDRO II; PEDRO LAURENTINO; NOVA SANTA RITA; PICOS; PIMENTEIRAS; PIO IX; PIRACURUCA; PIRIPIRI; PORTO; PORTO ALEGRE DO PIAUI; PRATA DO PIAUI; QUEIMADA NOVA; REDENCAO DO GURGUEIA; REGENERACAO; RIACHO FRIO; RIBEIRA DO PIAUI; RIBEIRO GONCALVES; RIO GRANDE DO PIAUI; SANTA CRUZ DO PIAUI; SANTA CRUZ DOS MILAGRES; SANTA FILOMENA; SANTA LUZ; SANTANA DO PIAUI; SANTA ROSA DO PIAUI; SANTO ANTONIO DE LISBOA; SANTO ANTONIO DOS MILAGRES; SANTO INACIO DO PIAUI; SAO BRAZ DO PIAUI; SAO FELIX DO PIAUI; SAO FRANCISCO DE ASSIS DO PIAUI; SAO FRANCISCO DO PIAUI; SAO GONCALO DO GURGUEIA; SAO GONCALO DO PIAUI; SAO JOAO DA CANABRAVA; SAO JOAO DA FRONTEIRA; SAO JOAO DA SERRA; SAO JOAO DA VARJOTA; SAO JOAO DO ARRAIAL; SAO JOAO DO PIAUI; SAO JOSE DO DIVINO; SAO JOSE DO PEIXE; SAO JOSE DO PIAUI; SAO JULIAO; SAO LOURENCO DO PIAUI; SAO LUIS DO PIAUI; SAO MIGUEL DA BAIXA GRANDE; SAO MIGUEL DO FIDALGO; SAO MIGUEL DO TAPUIO; SAO PEDRO DO PIAUI; SAO RAIMUNDO NONATO; SEBASTIAO BARROS; SEBASTIAO LEAL; SIGEFREDO PACHECO; SIMOES; SIMPLICIO MENDES; SOCORRO DO PIAUI; SUSSUAPARA; TAMBORIL DO PIAUI; TANQUE DO PIAUI; TERESINA; UNIAO; URUCUI; VALENCA DO PIAUI; VARZEA BRANCA; VARZEA GRANDE; VERA MENDES; VILA NOVA DO PIAUI; WALL FERRAZ</t>
   </si>
   <si>
@@ -1026,6 +1281,17 @@
     <t>3289290</t>
   </si>
   <si>
+    <t>- Na planilha de atendimento que foi enviada, na aba ¿Execução¿, ficaram faltando os percentuais das parcelas mensais a serem executadas (cronograma), não é uma falha digna de se tornar uma diligência, mas é bom ser preenchida para não deixar nenhuma pendência. Importante salientar que a nova versão da planilha venha renomeada como ¿versão 2¿ e que a mesma não seja desbloqueada, pois ela é protegida devido a fórmulas existentes.
+- E por último, o procedimento laqueadura tubária (código SIGTAP 409060186) exige habilitação local, sendo assim é necessário que esta situação seja pactuada na CIB e regularizada junto ao CNES para evitar qualquer rejeição na produção.
+PRAZO PARA AJUSTE: 5 dias.</t>
+  </si>
+  <si>
+    <t>CAROLINA PERES XAVIER PINTO</t>
+  </si>
+  <si>
+    <t>06/03/2023 17:53:17</t>
+  </si>
+  <si>
     <t>9.251.808,75</t>
   </si>
   <si>
@@ -1039,6 +1305,9 @@
   </si>
   <si>
     <t>01/03/2023 14:31:35</t>
+  </si>
+  <si>
+    <t>05/04/2023</t>
   </si>
   <si>
     <t>JOÃO VICTOR DA SILVA BARBOZA</t>
@@ -1082,6 +1351,630 @@
   </si>
   <si>
     <t>plano-monitoramento-perf-cir-eletiva-vrs-3-101.03.2023.xls</t>
+  </si>
+  <si>
+    <t>170673</t>
+  </si>
+  <si>
+    <t>03.133.408/0001-20</t>
+  </si>
+  <si>
+    <t>BELO HORIZONTE</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>ABADIA DOS DOURADOS; ABAETE; ABRE CAMPO; ACAIACA; ACUCENA; AGUA BOA; AGUA COMPRIDA; AGUANIL; AGUAS FORMOSAS; AGUAS VERMELHAS; AIMORES; AIURUOCA; ALAGOA; ALBERTINA; ALEM PARAIBA; ALFENAS; ALFREDO VASCONCELOS; ALMENARA; ALPERCATA; ALPINOPOLIS; ALTEROSA; ALTO CAPARAO; ALTO RIO DOCE; ALVARENGA; ALVINOPOLIS; ALVORADA DE MINAS; AMPARO DO SERRA; ANDRADAS; CACHOEIRA DE PAJEU; ANDRELANDIA; ANGELANDIA; ANTONIO CARLOS; ANTONIO DIAS; ANTONIO PRADO DE MINAS; ARACAI; ARACITABA; ARACUAI; ARAGUARI; ARANTINA; ARAPONGA; ARAPORA; ARAPUA; ARAUJOS; ARAXA; ARCEBURGO; ARCOS; AREADO; ARGIRITA; ARICANDUVA; ARINOS; ASTOLFO DUTRA; ATALEIA; AUGUSTO DE LIMA; BAEPENDI; BALDIM; BAMBUI; BANDEIRA; BANDEIRA DO SUL; BARAO DE COCAIS; BARAO DE MONTE ALTO; BARBACENA; BARRA LONGA; BARROSO; BELA VISTA DE MINAS; BELMIRO BRAGA; BELO HORIZONTE; BELO ORIENTE; BELO VALE; BERILO; BERTOPOLIS; BERIZAL; BETIM; BIAS FORTES; BICAS; BIQUINHAS; BOA ESPERANCA; BOCAINA DE MINAS; BOCAIUVA; BOM DESPACHO; BOM JARDIM DE MINAS; BOM JESUS DA PENHA; BOM JESUS DO AMPARO; BOM JESUS DO GALHO; BOM REPOUSO; BOM SUCESSO; BONFIM; BONFINOPOLIS DE MINAS; BONITO DE MINAS; BORDA DA MATA; BOTELHOS; BOTUMIRIM; BRASILANDIA DE MINAS; BRASILIA DE MINAS; BRAS PIRES; BRAUNAS; BRAZOPOLIS; BRUMADINHO; BUENO BRANDAO; BUENOPOLIS; BUGRE; BURITIS; BURITIZEIRO; CABECEIRA GRANDE; CABO VERDE; CACHOEIRA DA PRATA; CACHOEIRA DE MINAS; CACHOEIRA DOURADA; CAETANOPOLIS; CAETE; CAIANA; CAJURI; CALDAS; CAMACHO; CAMANDUCAIA; CAMBUI; CAMBUQUIRA; CAMPANARIO; CAMPANHA; CAMPESTRE; CAMPINA VERDE; CAMPO AZUL; CAMPO BELO; CAMPO DO MEIO; CAMPO FLORIDO; CAMPOS ALTOS; CAMPOS GERAIS; CANAA; CANAPOLIS; CANA VERDE; CANDEIAS; CANTAGALO; CAPARAO; CAPELA NOVA; CAPELINHA; CAPETINGA; CAPIM BRANCO; CAPINOPOLIS; CAPITAO ANDRADE; CAPITAO ENEAS; CAPITOLIO; CAPUTIRA; CARAI; CARANAIBA; CARANDAI; CARANGOLA; CARATINGA; CARBONITA; CAREACU; CARLOS CHAGAS; CARMESIA; CARMO DA CACHOEIRA; CARMO DA MATA; CARMO DE MINAS; CARMO DO CAJURU; CARMO DO PARANAIBA; CARMO DO RIO CLARO; CARMOPOLIS DE MINAS; CARNEIRINHO; CARRANCAS; CARVALHOPOLIS; CARVALHOS; CASA GRANDE; CASCALHO RICO; CASSIA; CONCEICAO DA BARRA DE MINAS; CATAGUASES; CATAS ALTAS; CATAS ALTAS DA NORUEGA; CATUJI; CATUTI; CAXAMBU; CEDRO DO ABAETE; CENTRAL DE MINAS; CENTRALINA; CHACARA; CHALE; CHAPADA DO NORTE; CHAPADA GAUCHA; CHIADOR; CIPOTANEA; CLARAVAL; CLARO DOS POCOES; CLAUDIO; COIMBRA; COLUNA; COMENDADOR GOMES; COMERCINHO; CONCEICAO DA APARECIDA; CONCEICAO DAS PEDRAS; CONCEICAO DAS ALAGOAS; CONCEICAO DE IPANEMA; CONCEICAO DO MATO DENTRO; CONCEICAO DO PARA; CONCEICAO DO RIO VERDE; CONCEICAO DOS OUROS; CONEGO MARINHO; CONFINS; CONGONHAL; CONGONHAS; CONGONHAS DO NORTE; CONQUISTA; CONSELHEIRO LAFAIETE; CONSELHEIRO PENA; CONSOLACAO; CONTAGEM; COQUEIRAL; CORACAO DE JESUS; CORDISBURGO; CORDISLANDIA; CORINTO; COROACI; COROMANDEL; CORONEL FABRICIANO; CORONEL MURTA; CORONEL PACHECO; CORONEL XAVIER CHAVES; CORREGO DANTA; CORREGO DO BOM JESUS; CORREGO FUNDO; CORREGO NOVO; COUTO DE MAGALHAES DE MINAS; CRISOLITA; CRISTAIS; CRISTALIA; CRISTIANO OTONI; CRISTINA; CRUCILANDIA; CRUZEIRO DA FORTALEZA; CRUZILIA; CUPARAQUE; CURRAL DE DENTRO; CURVELO; DATAS; DELFIM MOREIRA; DELFINOPOLIS; DELTA; DESCOBERTO; DESTERRO DE ENTRE RIOS; DESTERRO DO MELO; DIAMANTINA; DIOGO DE VASCONCELOS; DIONISIO; DIVINESIA; DIVINO; DIVINO DAS LARANJEIRAS; DIVINOLANDIA DE MINAS; DIVINOPOLIS; DIVISA ALEGRE; DIVISA NOVA; DIVISOPOLIS; DOM BOSCO; DOM CAVATI; DOM JOAQUIM; DOM SILVERIO; DOM VICOSO; DONA EUSEBIA; DORES DE CAMPOS; DORES DE GUANHAES; DORES DO INDAIA; DORES DO TURVO; DORESOPOLIS; DOURADOQUARA; DURANDE; ELOI MENDES; ENGENHEIRO CALDAS; ENGENHEIRO NAVARRO; ENTRE FOLHAS; ENTRE RIOS DE MINAS; ERVALIA; ESMERALDAS; ESPERA FELIZ; ESPINOSA; ESPIRITO SANTO DO DOURADO; ESTIVA; ESTRELA DALVA; ESTRELA DO INDAIA; ESTRELA DO SUL; EUGENOPOLIS; EWBANK DA CAMARA; EXTREMA; FAMA; FARIA LEMOS; FELICIO DOS SANTOS; SAO GONCALO DO RIO PRETO; FELISBURGO; FELIXLANDIA; FERNANDES TOURINHO; FERROS; FERVEDOURO; FLORESTAL; FORMIGA; ...(562)</t>
+  </si>
+  <si>
+    <t>310010; 310020; 310030; 310040; 310050; 310060; 310070; 310080; 310090; 310100; 310110; 310120; 310130; 310140; 310150; 310160; 310163; 310170; 310180; 310190; 310200; 310205; 310210; 310220; 310230; 310240; 310250; 310260; 310270; 310280; 310285; 310290; 310300; 310310; 310320; 310330; 310340; 310350; 310360; 310370; 310375; 310380; 310390; 310400; 310410; 310420; 310430; 310440; 310445; 310450; 310460; 310470; 310480; 310490; 310500; 310510; 310520; 310530; 310540; 310550; 310560; 310570; 310590; 310600; 310610; 310620; 310630; 310640; 310650; 310660; 310665; 310670; 310680; 310690; 310700; 310710; 310720; 310730; 310740; 310750; 310760; 310770; 310780; 310790; 310800; 310810; 310820; 310825; 310830; 310840; 310850; 310855; 310860; 310870; 310880; 310890; 310900; 310910; 310920; 310925; 310930; 310940; 310945; 310950; 310960; 310970; 310980; 310990; 311000; 311010; 311020; 311030; 311040; 311050; 311060; 311070; 311080; 311090; 311100; 311110; 311115; 311120; 311130; 311140; 311150; 311160; 311170; 311180; 311190; 311200; 311205; 311210; 311220; 311230; 311240; 311250; 311260; 311265; 311270; 311280; 311290; 311300; 311310; 311320; 311330; 311340; 311350; 311360; 311370; 311380; 311390; 311400; 311410; 311420; 311430; 311440; 311450; 311455; 311460; 311470; 311480; 311490; 311500; 311510; 311520; 311530; 311535; 311540; 311545; 311547; 311550; 311560; 311570; 311580; 311590; 311600; 311610; 311615; 311620; 311630; 311640; 311650; 311660; 311670; 311680; 311690; 311700; 311710; 311720; 311730; 311740; 311750; 311760; 311770; 311780; 311783; 311787; 311790; 311800; 311810; 311820; 311830; 311840; 311850; 311860; 311870; 311880; 311890; 311900; 311910; 311920; 311930; 311940; 311950; 311960; 311970; 311980; 311990; 311995; 312000; 312010; 312015; 312020; 312030; 312040; 312050; 312060; 312070; 312080; 312083; 312087; 312090; 312100; 312110; 312120; 312125; 312130; 312140; 312150; 312160; 312170; 312180; 312190; 312200; 312210; 312220; 312230; 312235; 312240; 312245; 312247; 312250; 312260; 312270; 312280; 312290; 312300; 312310; 312320; 312330; 312340; 312350; 312352; 312360; 312370; 312380; 312385; 312390; 312400; 312410; 312420; 312430; 312440; 312450; 312460; 312470; 312480; 312490; 312500; 312510; 312520; 312530; 312540; 312550; 312560; 312570; 312580; 312590; 312595; 312600; 312610; 312620; 312630; 312640; 312650; 312660; 312670; 312675; 312680; 312690; 312695; 312700; 312705; 312707; 312710; 312720; 312730; 312733; 312735; 312737; 312738; 312740; 312750; 312760; 312770; 312780; 312790; 312800; 312810; 312820; 312825; 312830; 312840; 312850; 312860; 312870; 312880; 312890; 312900; 312910; 312920; 312930; 312940; 312950; 312960; 312965; 312970; 312980; 312990; 313000; 313005; 313010; 313020; 313030; 313040; 313050; 313055; 313060; 313065; 313070; 313080; 313090; 313100; 313110; 313115; 313120; 313130; 313140; 313150; 313160; 313170; 313180; 313190; 313200; 313210; 313220; 313230; 313240; 313250; 313260; 313270; 313280; 313290; 313300; 313310; 313320; 313330; 313340; 313350; 313360; 313370; 313375; 313380; 313390; 313400; 313410; 313420; 313430; 313440; 313450; 313460; 313470; 313480; 313490; 313500; 313505; 313507; 313510; 313520; 313530; 313535; 313540; 313545; 313550; 313560; 313570; 313580; 313590; 313600; 313610; 313620; 313630; 313640; 313650; 313652; 313655; 313657; 313660; 313665; 313670; 313680; 313690; 313695; 313700; 313710; 313720; 313730; 313740; 313750; 313753; 313760; 313770; 313780; 313790; 313800; 313810; 313820; 313830; 313835; 313840; 313850; 313860; 313862; 313865; 313867; 313868; 313870; 313880; 313890; 313900; 313910; 313920; 313925; 313930; 313940; 313950; 313960; 313970; 313980; 313990; 314000; 314010; 314015; 314020; 314030; 314040; 314050; 314053; 314055; 314060; 314070; 314080; 314085; 314090; 314100; 314110; 314120; 314130; 314140; 314150; 314160; 314170; 314180; 314190; 314200; 314210; 314220; 314225; 314230; 314240; 314250; 314260; 314270; 314280; 314290; 314300; ...(357)</t>
+  </si>
+  <si>
+    <t>21411923</t>
+  </si>
+  <si>
+    <t>ROSANA DE VASCONCELOS PARRA</t>
+  </si>
+  <si>
+    <t>rosana.parra@saude.mg.gov.br</t>
+  </si>
+  <si>
+    <t>31 39160729</t>
+  </si>
+  <si>
+    <t>02/03/2023</t>
+  </si>
+  <si>
+    <t>31/05/2023</t>
+  </si>
+  <si>
+    <t>170687</t>
+  </si>
+  <si>
+    <t>06.893.466/0001-40</t>
+  </si>
+  <si>
+    <t>FUNDO ESTADUAL DE SAUDE - FES</t>
+  </si>
+  <si>
+    <t>VITORIA</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>A inserção do Estado do Espírito Santo no PROGRAMA NACIONAL DE REDUÇÃO DAS FILAS DE CIRURGIAS ELETIVAS, EXAMES COMPLEMENTARES E CONSULTAS ESPECIALIZADAS objetiva organizar e gerir a fila de espera para Consultas, Exames e procedimentos cirúrgicos eletivos na Rede de Atenção Hospitalar SUS do Estado do Espírito Santo para o Ano de 2023, ampliando a oferta para suprir a demanda reprimida, garantindo o acesso do paciente de forma célere, através da Regulação Formativa Territorial e participação dos setores competentes da SESA e outros - Superintendências Regionais de Saúde; dos Núcleos de Regulação Estadual; das Secretarias Municipais de Saúde; Prestadoras de serviço de Saúde e dos espaços institucionais deliberativos (Diretoria do COSEMS-ES; Assembléia do COSEMS-ES; Câmara Técnica da Comissão Intergestores Bipartite ¿CIB;  CIB-ES).
+O Planejamento ocorrerá através do levantamento e estratificação das demandas para consultas especializadas; consultas em cirurgia; cirurgias eletivas na rede hospitalar (com AIH¿s emitidas) e exames complementares.
+Será realizada análise da capacidade instalada; dos contratos vigentes; da produção da rede hospitalar e perfil assistencial e em seguida, será estabelecido as metas e pactuado com a rede hospitalar executora.
+Os procedimentos cirúrgicos eletivos pactuados junto à rede hospitalar terá o monitoramento e acompanhamento periódico de sua produção para cumprimento dos prazos e quantitativos estabelecidos.
+  Estabelece-se como resultado esperado o efetivo gerenciamento do ¿Plano Estadual de Redução das Filas de Cirurgias Eletivas, Exames Complementares e Consultas Especializadas¿ tendo como premissas a gestão da fila; a gestão do tempo de espera para o procedimento e a gestão do absenteísmo. Garantindo:
+¿	o acesso da demanda reprimida existente para as especialidades pactuadas;
+¿	realização das ações estabelecidas; 
+¿	  otimização da capacidade instalada e existente para as cirurgias      hospitalares como mudança de cultura e processos nas instituições da rede própria.
+¿	ajustes necessários ao bom desempenho do plano à serem realizados caso haja necessidade.</t>
+  </si>
+  <si>
+    <t>AFONSO CLAUDIO; AGUIA BRANCA; AGUA DOCE DO NORTE; ALEGRE; ALFREDO CHAVES; ALTO RIO NOVO; ANCHIETA; APIACA; ARACRUZ; ATILIO VIVACQUA; BAIXO GUANDU; BARRA DE SAO FRANCISCO; BOA ESPERANCA; BOM JESUS DO NORTE; BREJETUBA; CACHOEIRO DE ITAPEMIRIM; CARIACICA; CASTELO; COLATINA; CONCEICAO DA BARRA; CONCEICAO DO CASTELO; DIVINO DE SAO LOURENCO; DOMINGOS MARTINS; DORES DO RIO PRETO; ECOPORANGA; FUNDAO; GOVERNADOR LINDENBERG; GUACUI; GUARAPARI; IBATIBA; IBIRACU; IBITIRAMA; ICONHA; IRUPI; ITAGUACU; ITAPEMIRIM; ITARANA; IUNA; JAGUARE; JERONIMO MONTEIRO; JOAO NEIVA; LARANJA DA TERRA; LINHARES; MANTENOPOLIS; MARATAIZES; MARECHAL FLORIANO; MARILANDIA; MIMOSO DO SUL; MONTANHA; MUCURICI; MUNIZ FREIRE; MUQUI; NOVA VENECIA; PANCAS; PEDRO CANARIO; PINHEIROS; PIUMA; PONTO BELO; PRESIDENTE KENNEDY; RIO BANANAL; RIO NOVO DO SUL; SANTA LEOPOLDINA; SANTA MARIA DE JETIBA; SANTA TERESA; SAO DOMINGOS DO NORTE; SAO GABRIEL DA PALHA; SAO JOSE DO CALCADO; SAO MATEUS; SAO ROQUE DO CANAA; SERRA; SOORETAMA; VARGEM ALTA; VENDA NOVA DO IMIGRANTE; VIANA; VILA PAVAO; VILA VALERIO; VILA VELHA; VITORIA</t>
+  </si>
+  <si>
+    <t>320010; 320013; 320016; 320020; 320030; 320035; 320040; 320050; 320060; 320070; 320080; 320090; 320100; 320110; 320115; 320120; 320130; 320140; 320150; 320160; 320170; 320180; 320190; 320200; 320210; 320220; 320225; 320230; 320240; 320245; 320250; 320255; 320260; 320265; 320270; 320280; 320290; 320300; 320305; 320310; 320313; 320316; 320320; 320330; 320332; 320334; 320335; 320340; 320350; 320360; 320370; 320380; 320390; 320400; 320405; 320410; 320420; 320425; 320430; 320435; 320440; 320450; 320455; 320460; 320465; 320470; 320480; 320490; 320495; 320500; 320501; 320503; 320506; 320510; 320515; 320517; 320520; 320530</t>
+  </si>
+  <si>
+    <t>4108508</t>
+  </si>
+  <si>
+    <t>11.556.028,89</t>
+  </si>
+  <si>
+    <t>CLAUDIANO ALMEIDA TIBURCIO</t>
+  </si>
+  <si>
+    <t>claudianotiburcio@saude.es.gov.br</t>
+  </si>
+  <si>
+    <t>27 33475685</t>
+  </si>
+  <si>
+    <t>09/03/2023 09:36:57</t>
+  </si>
+  <si>
+    <t>Maria Jose da Costa Mendes</t>
+  </si>
+  <si>
+    <t>Coordenador de Projetos</t>
+  </si>
+  <si>
+    <t>(27) 9 99373356</t>
+  </si>
+  <si>
+    <t>mariajosemendes@saude.es.gov.br</t>
+  </si>
+  <si>
+    <t>Resolução CIB ES Nº004 - 2023 - Plano Estadual do Programa Nacional de Redução das Filas.pdf</t>
+  </si>
+  <si>
+    <t>Resolução CIB-ES Nº 004/2023</t>
+  </si>
+  <si>
+    <t>A produção de cirurgias eletivas ambulatoriais no Estado do Espírito Santo ocorre de forma pactuada entre os entes federados conforme PPI - Programação Pactuada e Integrada firmada nos espaços de deliberação do SUS através dos meios e instrumento formais que regem o Sistema. Os municípios com recursos financeiros gerenciados pelo Fundo Estadual de Saúde do SUS-ES destinam as ações assistenciais de média e alta complexidade ao Estado. As demandas municipais são inseridas no Sistema de Regulação do Estado que providencia a oferta conforme capacidade instalada na rede.
+Entretanto, observou-se momento singular na saúde devido a pandemia de Covid-19, a qual gerou a necessidade de adequações e mudanças de caráter emergencial, com relação às demandas assistenciais. Nesse período de emergência em saúde pública, no estado do Espírito Santo foram estabelecidas mudanças do perfil assistencial dos hospitais pertencentes à Rede Estadual de Atenção Hospitalar, bem como a necessidade de adequação de leitos hospitalares para suprir as demandas urgentes de acesso decorrentes da COVID-19. 
+Em decorrência desta necessidade imposta pela pandemia, houve impacto importante nas atividades ambulatoriais, procedimentos cirúrgicos eletivos, bem como a realização de exames especializados.
+A organização da retomada desta assistência ocorreu através de um Plano Estadual denominado ¿Plano Estadual de Gestão de Filas para Procedimentos Eletivos Ambulatoriais para Garantia do Acesso¿ concebido em 2021, obtendo como resultado a realização de 55.015 cirurgias eletivas em 07 meses de funcionamento do plano. 
+Tendo em vista a demanda permanente para acesso aos procedimentos eletivos especializados, sejam ambulatoriais ou hospitalares, a Secretaria Estadual de Saúde ¿ SESA perpetuou o planejamento e ações de gestão de filas para procedimentos cirúrgicos eletivos para 2022, o qual de Janeiro à Dezembro de 2022 concretizou 105.825 cirurgias eletivas realizadas pelos hospitais da rede própria e contratualizada do Estado. 
+Para o ano de 2023, o Estado do ES elaborou o Plano Estadual de Gestão de Filas para Procedimentos Eletivos Ambulatoriais para Garantia do Acesso¿ estabelecendo a meta anual com acréscimo de 23,22% em relação a produção de 2022. 
+Meta estabelecida para o ano de 2023: 130.400 procedimentos cirúrgicos. 
+Através do incremento de R$ 11.556.028,89 previsto da Portaria GM/MS Nº 90 de 03 de Fevereiro de 2023, o Estado do Espírito Santo planeja realizar 11.915 procedimentos cirúrgicos alcançando o acréscimo de 9,7% sobre a produção de 2022
+A execução do Plano Estadual concomitante com o Plano Nacional de Redução de Filas de Cirurgias Eletivas ampliará em 34,47% da oferta comparada a produção realizada em 2022.</t>
+  </si>
+  <si>
+    <t>As demandas de consultas e exames tem origem na Atenção Primária à Saúde sendo inseridas no Sistema de Regulação do Estado. As necessidades reguladas são agendadas conforme disponibilidade regional.
+O critério de classificação das demandas cirúrgicas ocorrem da seguinte forma:
+As consultas especializadas são estratificadas de acordo com as especialidades que demandam procedimentos, e para estas, utiliza-se o percentual de incidência cirúrgica (média entre 5% à 15%).
+Para as consultas em cirurgias, utiliza-se o percentual de incidência cirúrgica de 30% das especialidades.
+Considera-se a Fila constante no Portal das AIH¿s emitidas (disponibilizados nas  Unidades Hospitalares do SUS-ES).
+O Plano Estadual foi elaborado tomando como base a Fila de AIH¿s emitidas que aguardam atendimento para realização de cirurgias eletivas. 
+A produção de cirurgias eletivas é monitorada diariamente através da ferramenta tecnológica disponibilizada no Portal de Cirurgias eletivas, https://conteudo.saude.es.gov.br/SmartPortalCirurgiasEletivas/ e https://portalbi.saude.es.gov.br/ onde a rede hospitalar cadastra a produção realizada. Nas situações identificadas, em que as metas previstas não atingiram o esperado, há intervenção da gestão junto a rede hospitalar para que medidas de apoio sejam realizadas para alcance do planejado.</t>
+  </si>
+  <si>
+    <t>ESTRATÉGIAS E MÉTODOS 
+Para delimitação da estratégia, identificou-se:
+1.	Necessidade de definição e qualificação de cadastro dos pacientes na fila de cirurgias eletivas nas Instituições hospitalares (AIH¿s emitidas), fila de consultas em cirurgias; fila das consultas especializadas e filas de exames complementares;
+2.	Necessidade de redução do tempo entre a consulta e realização da cirurgia;
+3.	Necessidade de organização da Rede de Atenção à Saúde para a redução no deslocamento desnecessário do paciente (retorno previamente programado, desburocratizar as centrais telefônicas, evitar dias fixos para determinadas atividades, resultados dos exames junto com a reconsulta).</t>
+  </si>
+  <si>
+    <t>ESCOPO E RESULTADOS ESPERADOS
+Estabelece-se como escopo o gerenciamento do ¿Plano Estadual de Redução das Filas de Cirurgias Eletivas, Exames Complementares e Consultas Especializadas¿ em etapas de planejamento e execução, tendo como premissas a gestão da fila; a gestão do tempo de espera para o procedimento; e a gestão do absenteísmo, pelos setores competentes.
+Para este plano, estima-se como resultados a serem alcançados:
+1.	Garantia do acesso da demanda reprimida existente para as especialidades pactuadas;
+2.	Garantia da realização de consultas e exames pré-cirúrgicos em tempo hábil;
+3.	Garantia da comunicação eficiente entre os prestadores e pacientes;
+4.	Alcance de 85% de realização dos procedimentos cirúrgicos previsto nas principais especialidades com maiores demandas.
+5.	Otimização da capacidade instalada existente para as cirurgias hospitalares como mudança de cultura e processos nas instituições. 
+6.	Redução da fila de consultas e exames especializados em 70%.</t>
+  </si>
+  <si>
+    <t>Delimita-se as seguintes responsabilidades de acordo com cada âmbito de gestão da saúde:
+À SESA-ES/Subsecretaria de Estado de Atenção à Saúde - SSAS :
+Organização e apoio institucional ao ¿Plano Estadual de Redução das Filas de Cirurgias Eletivas, Exames Complementares e Consultas Especializadas¿ do Estado do Espírito Santo 
+Monitoramento da produção dos procedimentos pactuados junto aos hospitais executores; 
+Acompanhamento periódico das ações previstas no plano e cumprimento dos prazos, com ações imediatas nos problemas identificados;
+Visitas técnicas mensais na rede hospitalar executora.
+Aos Municípios
+Inserção e atualização dos dados do paciente no Sistema de Regulação Estadual para auxiliar na identificação e localização do paciente;
+Providências quanto ao transporte sanitário para realização da consulta, exames, e procedimento cirúrgico de forma a reduzir o absenteísmo.
+Aos Hospitais Selecionados
+Qualificação e priorização da fila institucional, quando houver, dentre as especialidades contempladas neste Plano com ações de garantia de acesso e cumprimento dos prazos e metas estabelecidas;
+Disponibilizar agenda de consultas, exames e consultas em cirurgias para o Núcleo de Regulação do Acesso (NRA); 
+Monitoramento interno da execução das metas do Plano, garantindo o agendamento, controle de insumos, materiais e eventos adversos, otimização da capacidade cirúrgica e controle indicadores de qualidade;
+Confirmação da cirurgia através de contato prévio com o paciente;
+Articulação com as Centrais de Regulação e Assistência Social Municipais do território vinculado do paciente referenciado;</t>
+  </si>
+  <si>
+    <t>plano-atendimento-perf-cir-eletiva-vrs-4a           03 março 2023 A.xlsx</t>
+  </si>
+  <si>
+    <t>170692</t>
+  </si>
+  <si>
+    <t>04.441.389/0001-61</t>
+  </si>
+  <si>
+    <t>CUIABA</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>A alta demanda de usuários aguardando por procedimentos eletivos, devido a suspensão das cirurgias eletivas em decorrência da pandemia da COVID-19, ocasionando um colapso nas unidades de urgência e emergência, assim como o aumento da judicialização, e o custo elevado nas contas do Estado, ensejou que a gestão da Secretaria de Estado de Saúde de Mato Grosso analisasse os dados da demanda reprimida existente nos sistemas de regulação do Estado SISREG III, juntamente com os baixos índices de produção hospitalar e ambulatorial registrados no Ministério da Saúde, a fim de identificar as causas e oferecer solução para o problema. Nesse sentido o programa será destinado aos gestores de saúde de entidades públicas, filantrópicas ou privadas que tenham interesse e disponibilidade em ofertar procedimentos cirúrgicos e/ou ambulatoriais para atender a demanda eletiva reprimida existente no estado de Mato Grosso;</t>
+  </si>
+  <si>
+    <t>ACORIZAL; AGUA BOA; ALTA FLORESTA; ALTO ARAGUAIA; ALTO BOA VISTA; ALTO GARCAS; ALTO PARAGUAI; ALTO TAQUARI; APIACAS; ARAGUAIANA; ARAGUAINHA; ARAPUTANGA; ARENAPOLIS; ARIPUANA; BARAO DE MELGACO; BARRA DO BUGRES; BARRA DO GARCAS; BOM JESUS DO ARAGUAIA; BRASNORTE; CACERES; CAMPINAPOLIS; CAMPO NOVO DO PARECIS; CAMPO VERDE; CAMPOS DE JULIO; CANABRAVA DO NORTE; CANARANA; CARLINDA; CASTANHEIRA; CHAPADA DOS GUIMARAES; CLAUDIA; COCALINHO; COLIDER; COLNIZA; COMODORO; CONFRESA; CONQUISTA D'OESTE; COTRIGUACU; CUIABA; CURVELANDIA; DENISE; DIAMANTINO; DOM AQUINO; FELIZ NATAL; FIGUEIROPOLIS D'OESTE; GAUCHA DO NORTE; GENERAL CARNEIRO; GLORIA D'OESTE; GUARANTA DO NORTE; GUIRATINGA; INDIAVAI; IPIRANGA DO NORTE; ITANHANGA; ITAUBA; ITIQUIRA; JACIARA; JANGADA; JAURU; JUARA; JUINA; JURUENA; JUSCIMEIRA; LAMBARI D'OESTE; LUCAS DO RIO VERDE; LUCIARA; VILA BELA DA SANTISSIMA TRINDADE; MARCELANDIA; MATUPA; MIRASSOL D'OESTE; NOBRES; NORTELANDIA; NOSSA SENHORA DO LIVRAMENTO; NOVA BANDEIRANTES; NOVA NAZARE; NOVA LACERDA; NOVA SANTA HELENA; NOVA BRASILANDIA; NOVA CANAA DO NORTE; NOVA MUTUM; NOVA OLIMPIA; NOVA UBIRATA; NOVA XAVANTINA; NOVO MUNDO; NOVO HORIZONTE DO NORTE; NOVO SAO JOAQUIM; PARANAITA; PARANATINGA; NOVO SANTO ANTONIO; PEDRA PRETA; PEIXOTO DE AZEVEDO; PLANALTO DA SERRA; POCONE; PONTAL DO ARAGUAIA; PONTE BRANCA; PONTES E LACERDA; PORTO ALEGRE DO NORTE; PORTO DOS GAUCHOS; PORTO ESPERIDIAO; PORTO ESTRELA; POXOREO; PRIMAVERA DO LESTE; QUERENCIA; SAO JOSE DOS QUATRO MARCOS; RESERVA DO CABACAL; RIBEIRAO CASCALHEIRA; RIBEIRAOZINHO; RIO BRANCO; SANTA CARMEM; SANTO AFONSO; SAO JOSE DO POVO; SAO JOSE DO RIO CLARO; SAO JOSE DO XINGU; SAO PEDRO DA CIPA; RONDOLANDIA; RONDONOPOLIS; ROSARIO OESTE; SANTA CRUZ DO XINGU; SALTO DO CEU; SANTA RITA DO TRIVELATO; SANTA TEREZINHA; SANTO ANTONIO DO LESTE; SANTO ANTONIO DO LEVERGER; SAO FELIX DO ARAGUAIA; SAPEZAL; SERRA NOVA DOURADA; SINOP; SORRISO; TABAPORA; TANGARA DA SERRA; TAPURAH; TERRA NOVA DO NORTE; TESOURO; TORIXOREU; UNIAO DO SUL; VALE DE SAO DOMINGOS; VARZEA GRANDE; VERA; VILA RICA; NOVA GUARITA; NOVA MARILANDIA; NOVA MARINGA; NOVA MONTE VERDE</t>
+  </si>
+  <si>
+    <t>510010; 510020; 510025; 510030; 510035; 510040; 510050; 510060; 510080; 510100; 510120; 510125; 510130; 510140; 510160; 510170; 510180; 510185; 510190; 510250; 510260; 510263; 510267; 510268; 510269; 510270; 510279; 510285; 510300; 510305; 510310; 510320; 510325; 510330; 510335; 510336; 510337; 510340; 510343; 510345; 510350; 510360; 510370; 510380; 510385; 510390; 510395; 510410; 510420; 510450; 510452; 510454; 510455; 510460; 510480; 510490; 510500; 510510; 510515; 510517; 510520; 510523; 510525; 510530; 510550; 510558; 510560; 510562; 510590; 510600; 510610; 510615; 510617; 510618; 510619; 510620; 510621; 510622; 510623; 510624; 510625; 510626; 510627; 510628; 510629; 510630; 510631; 510637; 510642; 510645; 510650; 510665; 510670; 510675; 510677; 510680; 510682; 510685; 510700; 510704; 510706; 510710; 510715; 510718; 510719; 510720; 510724; 510726; 510729; 510730; 510735; 510740; 510757; 510760; 510770; 510774; 510775; 510776; 510777; 510779; 510780; 510785; 510787; 510788; 510790; 510792; 510794; 510795; 510800; 510805; 510810; 510820; 510830; 510835; 510840; 510850; 510860; 510880; 510885; 510890; 510895</t>
+  </si>
+  <si>
+    <t>3567234</t>
+  </si>
+  <si>
+    <t>10.033.583,77</t>
+  </si>
+  <si>
+    <t>SIMONE RAMOS DA CRUZ</t>
+  </si>
+  <si>
+    <t>simonecruz@ses.mt.gov.br</t>
+  </si>
+  <si>
+    <t>65 84330837</t>
+  </si>
+  <si>
+    <t>170700</t>
+  </si>
+  <si>
+    <t>87.182.846/0001-78</t>
+  </si>
+  <si>
+    <t>PORTO ALEGRE</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>ACEGUA; AGUA SANTA; AGUDO; AJURICABA; ALECRIM; ALEGRETE; ALEGRIA; ALMIRANTE TAMANDARE DO SUL; ALPESTRE; ALTO ALEGRE; ALTO FELIZ; ALVORADA; AMARAL FERRADOR; AMETISTA DO SUL; ANDRE DA ROCHA; ANTA GORDA; ANTONIO PRADO; ARAMBARE; ARARICA; ARATIBA; ARROIO DO MEIO; ARROIO DO SAL; ARROIO DO PADRE; ARROIO DOS RATOS; ARROIO DO TIGRE; ARROIO GRANDE; ARVOREZINHA; AUGUSTO PESTANA; AUREA; BAGE; BALNEARIO PINHAL; BARAO; BARAO DE COTEGIPE; BARAO DO TRIUNFO; BARRACAO; BARRA DO GUARITA; BARRA DO QUARAI; BARRA DO RIBEIRO; BARRA DO RIO AZUL; BARRA FUNDA; BARROS CASSAL; BENJAMIN CONSTANT DO SUL; BENTO GONCALVES; BOA VISTA DAS MISSOES; BOA VISTA DO BURICA; BOA VISTA DO CADEADO; BOA VISTA DO INCRA; BOA VISTA DO SUL; BOM JESUS; BOM PRINCIPIO; BOM PROGRESSO; BOM RETIRO DO SUL; BOQUEIRAO DO LEAO; BOSSOROCA; BOZANO; BRAGA; BROCHIER; BUTIA; CACAPAVA DO SUL; CACEQUI; CACHOEIRA DO SUL; CACHOEIRINHA; CACIQUE DOBLE; CAIBATE; CAICARA; CAMAQUA; CAMARGO; CAMBARA DO SUL; CAMPESTRE DA SERRA; CAMPINA DAS MISSOES; CAMPINAS DO SUL; CAMPO BOM; CAMPO NOVO; CAMPOS BORGES; CANDELARIA; CANDIDO GODOI; CANDIOTA; CANELA; CANGUCU; CANOAS; CANUDOS DO VALE; CAPAO BONITO DO SUL; CAPAO DA CANOA; CAPAO DO CIPO; CAPAO DO LEAO; CAPIVARI DO SUL; CAPELA DE SANTANA; CAPITAO; CARAZINHO; CARAA; CARLOS BARBOSA; CARLOS GOMES; CASCA; CASEIROS; CATUIPE; CAXIAS DO SUL; CENTENARIO; CERRITO; CERRO BRANCO; CERRO GRANDE; CERRO GRANDE DO SUL; CERRO LARGO; CHAPADA; CHARQUEADAS; CHARRUA; CHIAPETTA; CHUI; CHUVISCA; CIDREIRA; CIRIACO; COLINAS; COLORADO; CONDOR; CONSTANTINA; COQUEIRO BAIXO; COQUEIROS DO SUL; CORONEL BARROS; CORONEL BICACO; CORONEL PILAR; COTIPORA; COXILHA; CRISSIUMAL; CRISTAL; CRISTAL DO SUL; CRUZ ALTA; CRUZALTENSE; CRUZEIRO DO SUL; DAVID CANABARRO; DERRUBADAS; DEZESSEIS DE NOVEMBRO; DILERMANDO DE AGUIAR; DOIS IRMAOS; DOIS IRMAOS DAS MISSOES; DOIS LAJEADOS; DOM FELICIANO; DOM PEDRO DE ALCANTARA; DOM PEDRITO; DONA FRANCISCA; DOUTOR MAURICIO CARDOSO; DOUTOR RICARDO; ELDORADO DO SUL; ENCANTADO; ENCRUZILHADA DO SUL; ENGENHO VELHO; ENTRE-IJUIS; ENTRE RIOS DO SUL; EREBANGO; ERECHIM; ERNESTINA; HERVAL; ERVAL GRANDE; ERVAL SECO; ESMERALDA; ESPERANCA DO SUL; ESPUMOSO; ESTACAO; ESTANCIA VELHA; ESTEIO; ESTRELA; ESTRELA VELHA; EUGENIO DE CASTRO; FAGUNDES VARELA; FARROUPILHA; FAXINAL DO SOTURNO; FAXINALZINHO; FAZENDA VILANOVA; FELIZ; FLORES DA CUNHA; FLORIANO PEIXOTO; FONTOURA XAVIER; FORMIGUEIRO; FORQUETINHA; FORTALEZA DOS VALOS; FREDERICO WESTPHALEN; GARIBALDI; GARRUCHOS; GAURAMA; GENERAL CAMARA; GENTIL; GETULIO VARGAS; GIRUA; GLORINHA; GRAMADO; GRAMADO DOS LOUREIROS; GRAMADO XAVIER; GRAVATAI; GUABIJU; GUAIBA; GUAPORE; GUARANI DAS MISSOES; HARMONIA; HERVEIRAS; HORIZONTINA; HULHA NEGRA; HUMAITA; IBARAMA; IBIACA; IBIRAIARAS; IBIRAPUITA; IBIRUBA; IGREJINHA; IJUI; ILOPOLIS; IMBE; IMIGRANTE; INDEPENDENCIA; INHACORA; IPE; IPIRANGA DO SUL; IRAI; ITAARA; ITACURUBI; ITAPUCA; ITAQUI; ITATI; ITATIBA DO SUL; IVORA; IVOTI; JABOTICABA; JACUIZINHO; JACUTINGA; JAGUARAO; JAGUARI; JAQUIRANA; JARI; JOIA; JULIO DE CASTILHOS; LAGOA BONITA DO SUL; LAGOAO; LAGOA DOS TRES CANTOS; LAGOA VERMELHA; LAJEADO; LAJEADO DO BUGRE; LAVRAS DO SUL; LIBERATO SALZANO; LINDOLFO COLLOR; LINHA NOVA; MACHADINHO; MACAMBARA; MAMPITUBA; MANOEL VIANA; MAQUINE; MARATA; MARAU; MARCELINO RAMOS; MARIANA PIMENTEL; MARIANO MORO; MARQUES DE SOUZA; MATA; MATO CASTELHANO; MATO LEITAO; MATO QUEIMADO; MAXIMILIANO DE ALMEIDA; MINAS DO LEAO; MIRAGUAI; MONTAURI; MONTE ALEGRE DOS CAMPOS; MONTE BELO DO SUL; MONTENEGRO; MORMACO; MORRINHOS DO SUL; MORRO REDONDO; MORRO REUTER; MOSTARDAS; MUCUM; MUITOS CAPOES; MULITERNO; NAO-ME-TOQUE; NICOLAU VERGUEIRO; NONOAI; NOVA ALVORADA; NOVA ARACA; NOVA BASSANO; NOVA BOA VISTA; NOVA BRESCIA; NOVA CANDELARIA; NOVA ESPERANCA DO SUL; NOVA HARTZ; NOVA PADUA; NOVA PALMA; NOVA PETROPOLIS; NOVA PRATA; NOVA RAMADA; NOVA ROMA DO SUL; NOVA SANTA RITA; NOVO CABRAIS; NOVO HAMBURGO; NOVO MACHADO; NOVO TIRADENTES; NOVO XINGU; NOVO BARREIRO; OSORIO; PAIM FILHO; PALMARES DO SUL; PALMEIRA DAS MISSOES; ...(202)</t>
+  </si>
+  <si>
+    <t>430003; 430005; 430010; 430020; 430030; 430040; 430045; 430047; 430050; 430055; 430057; 430060; 430063; 430064; 430066; 430070; 430080; 430085; 430087; 430090; 430100; 430105; 430107; 430110; 430120; 430130; 430140; 430150; 430155; 430160; 430163; 430165; 430170; 430175; 430180; 430185; 430187; 430190; 430192; 430195; 430200; 430205; 430210; 430215; 430220; 430222; 430223; 430225; 430230; 430235; 430237; 430240; 430245; 430250; 430258; 430260; 430265; 430270; 430280; 430290; 430300; 430310; 430320; 430330; 430340; 430350; 430355; 430360; 430367; 430370; 430380; 430390; 430400; 430410; 430420; 430430; 430435; 430440; 430450; 430460; 430461; 430462; 430463; 430465; 430466; 430467; 430468; 430469; 430470; 430471; 430480; 430485; 430490; 430495; 430500; 430510; 430511; 430512; 430513; 430515; 430517; 430520; 430530; 430535; 430537; 430540; 430543; 430544; 430545; 430550; 430558; 430560; 430570; 430580; 430583; 430585; 430587; 430590; 430593; 430595; 430597; 430600; 430605; 430607; 430610; 430613; 430620; 430630; 430632; 430635; 430637; 430640; 430642; 430645; 430650; 430655; 430660; 430670; 430673; 430675; 430676; 430680; 430690; 430692; 430693; 430695; 430697; 430700; 430705; 430710; 430720; 430730; 430740; 430745; 430750; 430755; 430760; 430770; 430780; 430781; 430783; 430786; 430790; 430800; 430805; 430807; 430810; 430820; 430825; 430830; 430840; 430843; 430845; 430850; 430860; 430865; 430870; 430880; 430885; 430890; 430900; 430905; 430910; 430912; 430915; 430920; 430925; 430930; 430940; 430950; 430955; 430957; 430960; 430965; 430970; 430975; 430980; 430990; 430995; 431000; 431010; 431020; 431030; 431033; 431036; 431040; 431041; 431043; 431046; 431050; 431053; 431055; 431057; 431060; 431065; 431070; 431075; 431080; 431085; 431087; 431090; 431100; 431110; 431112; 431113; 431115; 431120; 431123; 431125; 431127; 431130; 431140; 431142; 431150; 431160; 431162; 431164; 431170; 431171; 431173; 431175; 431177; 431179; 431180; 431190; 431198; 431200; 431205; 431210; 431213; 431215; 431217; 431220; 431225; 431230; 431235; 431237; 431238; 431240; 431242; 431244; 431245; 431247; 431250; 431260; 431261; 431262; 431265; 431267; 431270; 431275; 431280; 431290; 431295; 431300; 431301; 431303; 431306; 431308; 431310; 431320; 431330; 431333; 431335; 431337; 431339; 431340; 431342; 431344; 431346; 431349; 431350; 431360; 431365; 431370; 431380; 431390; 431395; 431400; 431402; 431403; 431405; 431406; 431407; 431410; 431413; 431415; 431417; 431420; 431430; 431440; 431442; 431445; 431446; 431447; 431449; 431450; 431454; 431455; 431460; 431470; 431475; 431477; 431478; 431480; 431490; 431500; 431505; 431507; 431510; 431513; 431514; 431515; 431517; 431520; 431530; 431531; 431532; 431535; 431540; 431545; 431550; 431555; 431560; 431570; 431575; 431580; 431590; 431595; 431600; 431610; 431620; 431630; 431640; 431642; 431643; 431645; 431647; 431650; 431660; 431670; 431673; 431675; 431680; 431690; 431695; 431697; 431700; 431710; 431720; 431725; 431730; 431740; 431750; 431755; 431760; 431770; 431775; 431780; 431790; 431795; 431800; 431805; 431810; 431820; 431830; 431840; 431842; 431843; 431844; 431845; 431846; 431848; 431849; 431850; 431860; 431861; 431862; 431870; 431880; 431890; 431900; 431910; 431912; 431915; 431920; 431930; 431935; 431936; 431937; 431940; 431950; 431960; 431970; 431971; 431973; 431975; 431980; 431990; 432000; 432010; 432020; 432023; 432026; 432030; 432032; 432035; 432040; 432045; 432050; 432055; 432057; 432060; 432065; 432067; 432070; 432080; 432085; 432090; 432100; 432110; 432120; 432130; 432132; 432135; 432140; 432143; 432145; 432146; 432147; 432149; 432150; 432160; 432162; 432163; 432166; 432170; 432180; 432183; 432185; 432190; 432195; 432200; 432210; 432215; 432218; 432220; 432225; 432230; 432232; 432234; 432235; 432237; 432240; 432250; 432252; 432253; 432254; 432255; 432260; 432270; 432280; 432285; 432290; 432300; 432310; 432320; 432330; 432335; 432340; 432345; 432350; 432360; 432370; 432375; 432377; 432380</t>
+  </si>
+  <si>
+    <t>11466630</t>
+  </si>
+  <si>
+    <t>ALESSANDRA LOPES BATISTA</t>
+  </si>
+  <si>
+    <t>alessandra-batista@saude.rs.gov.br</t>
+  </si>
+  <si>
+    <t>51 91845639</t>
+  </si>
+  <si>
+    <t>03/03/2023</t>
+  </si>
+  <si>
+    <t>01/06/2023</t>
+  </si>
+  <si>
+    <t>170710</t>
+  </si>
+  <si>
+    <t>00.544.963/0001-56</t>
+  </si>
+  <si>
+    <t>GOIANIA</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Solicitação de Aprovação do Plano Estadual de redução de filas de espera em procedimentos e cirurgias eletivas conforme Portaria GM/MS nº 90 de 03 de fevereiro de 2023.</t>
+  </si>
+  <si>
+    <t>ABADIA DE GOIAS; ABADIANIA; ACREUNA; ADELANDIA; AGUA FRIA DE GOIAS; AGUA LIMPA; AGUAS LINDAS DE GOIAS; ALEXANIA; ALOANDIA; ALTO HORIZONTE; ALTO PARAISO DE GOIAS; ALVORADA DO NORTE; AMARALINA; AMERICANO DO BRASIL; AMORINOPOLIS; ANAPOLIS; ANHANGUERA; ANICUNS; APARECIDA DE GOIANIA; APARECIDA DO RIO DOCE; APORE; ARACU; ARAGARCAS; ARAGOIANIA; ARAGUAPAZ; ARENOPOLIS; ARUANA; AURILANDIA; AVELINOPOLIS; BALIZA; BARRO ALTO; BELA VISTA DE GOIAS; BOM JARDIM DE GOIAS; BOM JESUS DE GOIAS; BONFINOPOLIS; BONOPOLIS; BRAZABRANTES; BRITANIA; BURITI ALEGRE; BURITI DE GOIAS; BURITINOPOLIS; CABECEIRAS; CACHOEIRA ALTA; CACHOEIRA DE GOIAS; CACHOEIRA DOURADA; CACU; CAIAPONIA; CALDAS NOVAS; CALDAZINHA; CAMPESTRE DE GOIAS; CAMPINACU; CAMPINORTE; CAMPO ALEGRE DE GOIAS; CAMPO LIMPO DE GOIAS; CAMPOS BELOS; CAMPOS VERDES; CARMO DO RIO VERDE; CASTELANDIA; CATALAO; CATURAI; CAVALCANTE; CERES; CEZARINA; CHAPADAO DO CEU; CIDADE OCIDENTAL; COCALZINHO DE GOIAS; COLINAS DO SUL; CORREGO DO OURO; CORUMBA DE GOIAS; CORUMBAIBA; CRISTALINA; CRISTIANOPOLIS; CRIXAS; CROMINIA; CUMARI; DAMIANOPOLIS; DAMOLANDIA; DAVINOPOLIS; DIORAMA; DOVERLANDIA; EDEALINA; EDEIA; ESTRELA DO NORTE; FAINA; FAZENDA NOVA; FIRMINOPOLIS; FLORES DE GOIAS; FORMOSA; FORMOSO; GAMELEIRA DE GOIAS; DIVINOPOLIS DE GOIAS; GOIANAPOLIS; GOIANDIRA; GOIANESIA; GOIANIA; GOIANIRA; GOIAS; GOIATUBA; GOUVELANDIA; GUAPO; GUARAITA; GUARANI DE GOIAS; GUARINOS; HEITORAI; HIDROLANDIA; HIDROLINA; IACIARA; INACIOLANDIA; INDIARA; INHUMAS; IPAMERI; IPIRANGA DE GOIAS; IPORA; ISRAELANDIA; ITABERAI; ITAGUARI; ITAGUARU; ITAJA; ITAPACI; ITAPIRAPUA; ITAPURANGA; ITARUMA; ITAUCU; ITUMBIARA; IVOLANDIA; JANDAIA; JARAGUA; JATAI; JAUPACI; JESUPOLIS; JOVIANIA; JUSSARA; LAGOA SANTA; LEOPOLDO DE BULHOES; LUZIANIA; MAIRIPOTABA; MAMBAI; MARA ROSA; MARZAGAO; MATRINCHA; MAURILANDIA; MIMOSO DE GOIAS; MINACU; MINEIROS; MOIPORA; MONTE ALEGRE DE GOIAS; MONTES CLAROS DE GOIAS; MONTIVIDIU; MONTIVIDIU DO NORTE; MORRINHOS; MORRO AGUDO DE GOIAS; MOSSAMEDES; MOZARLANDIA; MUNDO NOVO; MUTUNOPOLIS; NAZARIO; NEROPOLIS; NIQUELANDIA; NOVA AMERICA; NOVA AURORA; NOVA CRIXAS; NOVA GLORIA; NOVA IGUACU DE GOIAS; NOVA ROMA; NOVA VENEZA; NOVO BRASIL; NOVO GAMA; NOVO PLANALTO; ORIZONA; OURO VERDE DE GOIAS; OUVIDOR; PADRE BERNARDO; PALESTINA DE GOIAS; PALMEIRAS DE GOIAS; PALMELO; PALMINOPOLIS; PANAMA; PARANAIGUARA; PARAUNA; PEROLANDIA; PETROLINA DE GOIAS; PILAR DE GOIAS; PIRACANJUBA; PIRANHAS; PIRENOPOLIS; PIRES DO RIO; PLANALTINA; PONTALINA; PORANGATU; PORTEIRAO; PORTELANDIA; POSSE; PROFESSOR JAMIL; QUIRINOPOLIS; RIALMA; RIANAPOLIS; RIO QUENTE; RIO VERDE; RUBIATABA; SANCLERLANDIA; SANTA BARBARA DE GOIAS; SANTA CRUZ DE GOIAS; SANTA FE DE GOIAS; SANTA HELENA DE GOIAS; SANTA ISABEL; SANTA RITA DO ARAGUAIA; SANTA RITA DO NOVO DESTINO; SANTA ROSA DE GOIAS; SANTA TEREZA DE GOIAS; SANTA TEREZINHA DE GOIAS; SANTO ANTONIO DA BARRA; SANTO ANTONIO DE GOIAS; SANTO ANTONIO DO DESCOBERTO; SAO DOMINGOS; SAO FRANCISCO DE GOIAS; SAO JOAO D'ALIANCA; SAO JOAO DA PARAUNA; SAO LUIS DE MONTES BELOS; SAO LUIZ DO NORTE; SAO MIGUEL DO ARAGUAIA; SAO MIGUEL DO PASSA QUATRO; SAO PATRICIO; SAO SIMAO; SENADOR CANEDO; SERRANOPOLIS; SILVANIA; SIMOLANDIA; SITIO D'ABADIA; TAQUARAL DE GOIAS; TERESINA DE GOIAS; TEREZOPOLIS DE GOIAS; TRES RANCHOS; TRINDADE; TROMBAS; TURVANIA; TURVELANDIA; UIRAPURU; URUACU; URUANA; URUTAI; VALPARAISO DE GOIAS; VARJAO; VIANOPOLIS; VICENTINOPOLIS; VILA BOA; VILA PROPICIO</t>
+  </si>
+  <si>
+    <t>520005; 520010; 520013; 520015; 520017; 520020; 520025; 520030; 520050; 520055; 520060; 520080; 520082; 520085; 520090; 520110; 520120; 520130; 520140; 520145; 520150; 520160; 520170; 520180; 520215; 520235; 520250; 520260; 520280; 520310; 520320; 520330; 520340; 520350; 520355; 520357; 520360; 520380; 520390; 520393; 520396; 520400; 520410; 520420; 520425; 520430; 520440; 520450; 520455; 520460; 520465; 520470; 520480; 520485; 520490; 520495; 520500; 520505; 520510; 520520; 520530; 520540; 520545; 520547; 520549; 520551; 520552; 520570; 520580; 520590; 520620; 520630; 520640; 520650; 520660; 520670; 520680; 520690; 520710; 520725; 520735; 520740; 520750; 520753; 520760; 520780; 520790; 520800; 520810; 520815; 520830; 520840; 520850; 520860; 520870; 520880; 520890; 520910; 520915; 520920; 520929; 520940; 520945; 520960; 520970; 520980; 520990; 520993; 520995; 521000; 521010; 521015; 521020; 521030; 521040; 521056; 521060; 521080; 521090; 521100; 521120; 521130; 521140; 521150; 521160; 521170; 521180; 521190; 521200; 521205; 521210; 521220; 521225; 521230; 521250; 521260; 521270; 521280; 521290; 521295; 521300; 521305; 521308; 521310; 521340; 521350; 521370; 521375; 521377; 521380; 521385; 521390; 521400; 521405; 521410; 521440; 521450; 521460; 521470; 521480; 521483; 521486; 521487; 521490; 521500; 521520; 521523; 521525; 521530; 521540; 521550; 521560; 521565; 521570; 521580; 521590; 521600; 521630; 521640; 521645; 521680; 521690; 521710; 521720; 521730; 521740; 521760; 521770; 521800; 521805; 521810; 521830; 521839; 521850; 521860; 521870; 521878; 521880; 521890; 521900; 521910; 521920; 521925; 521930; 521935; 521940; 521945; 521950; 521960; 521970; 521971; 521973; 521975; 521980; 521990; 522000; 522005; 522010; 522015; 522020; 522026; 522028; 522040; 522045; 522050; 522060; 522068; 522070; 522100; 522108; 522119; 522130; 522140; 522145; 522150; 522155; 522157; 522160; 522170; 522180; 522185; 522190; 522200; 522205; 522220; 522230</t>
+  </si>
+  <si>
+    <t>7206589</t>
+  </si>
+  <si>
+    <t>ORIANA NIKARE GOMES REGO</t>
+  </si>
+  <si>
+    <t>cohabgoias@gmail.com</t>
+  </si>
+  <si>
+    <t>62 32017027</t>
+  </si>
+  <si>
+    <t>Luciano de Moura Carvalho</t>
+  </si>
+  <si>
+    <t>Subsecretário de Vigilância e Atenção Integral à Saúde</t>
+  </si>
+  <si>
+    <t>(62) 981187141</t>
+  </si>
+  <si>
+    <t>lucianomourac@hotmail.com</t>
+  </si>
+  <si>
+    <t>Resolução CIB n° ..., de março de 2023</t>
+  </si>
+  <si>
+    <t>Atualmente consta em lista de espera junto à Central Estadual de Regulação de Cirurgias Eletivas 16.312 procedimentos cirúrgicos, com um tempo de expectativa de espera médio de 3,92 meses (com variação entre 0,48 a 24 meses a depender da especialidade). A lista de espera por cirurgias eletivas, no âmbito das unidades sob regulação estadual, estão disponíveis para consulta pública no site da SES-GO em ¿Transparência¿&gt; ¿Regulação Estadual¿&gt; ¿Listas de Espera¿&gt;, ou por meio do link direto https://indicadores.saude.go.gov.br/public/transparencia_regulacao.html.
+Enfatiza-se que além da lista de espera por cirurgias eletivas junto à regulação estadual, ainda existe uma quantidade de pacientes que aguardam por cirurgias eletivas junto à diversas regulações municipais. O número real é de difícil conhecimento pela gestão estadual devido a fragmentação dos dados em diversos sistemas de regulação, uma vez que o mesmo paciente pode constar em mais de uma lista de espera, entre outros fatores. No mês de fevereiro/2023 considerando a Portaria GM/MS nº 90 de 03 de fevereiro de 2023, que institui o Programa Nacional de Redução das Filas de Cirurgias Eletivas, Exames Complementares e Consultas Especializadas e a necessidade de fila única para o projeto estadual, foi disponibilizado aos municípios um sistema com a solicitação da inserção dos dados dos pacientes dos respectivos munícipes que aguardam procedimentos eletivos para que fosse possível a compilação dos dados em uma lista única.
+Incluir aqui dados colhidos no sistema REGnet (lista de espera dos municípios).
+Atualmente a SES-GO possui 28 unidades de saúde executantes de cirurgias eletivas sob regulação estadual (21 unidades sob gestão estadual - 19 próprias; 3 conveniadas e 6 unidades sob gestão municipal conveniada com a SES-GO) com a Carteira de Cirurgia Eletiva definida por procedimento e de conhecimento público por meio do link: https://docs.google.com/spreadsheets/d/1MdpsDbVB0O3Y6vr5zY3Xu94j9y23u204lfrOTREMxa0/edit#gid=1372269037
+No SIH (Sistema de Informação Hospitalar) foram identificadas 118 unidades de saúde sob gestão municipal com histórico de execução de cirurgias eletivas em 2022, distribuídas em 79 municípios.
+No ano de 2022 foram realizadas nas unidades de saúde sob regulação estadual 36.519 cirurgias eletivas, conforme registro no Sistema Estadual de Regulação de 
+Cirurgias Eletivas - REGNET. No mesmo período, foram realizadas nas unidades sob regulação municipal 34.413 conforme registro no Sistema de Informações Hospitalares (SIH - Filtros: Caráter atendimento: Eletivo, Grupo procedimento: 04 Procedimentos cirúrgicos, Gestão: Municipal plena assist, Período: 2022)</t>
+  </si>
+  <si>
+    <t>Convênio com Secretarias Municipais de Saúde que possuem unidades de saúde próprias ou vínculo contratual com Entidades privadas com e sem fins lucrativos, para incremento na prestação de serviços em cirurgias eletivas no Estado de Goiás, com vistas à redução do tempo de espera por cirurgias eletivas no Estado de Goiás.
+A estratégia tática está focada em disponibilizar aos municípios que possuem unidades de saúde executantes de cirurgias eletivas um sistema informatizado único para a regulação do acesso, autorização e monitoramento de execução das cirurgias eletivas aos municípios que aderirem ao projeto.</t>
+  </si>
+  <si>
+    <t>Após a aprovação do Plano Estadual estado e municípios irão se articular, via adesão, para efetivar as referências intermunicipais com a utilização de um sistema informatizado único, que irá viabilizar que cada município/Estado operacionalize a regulação do acesso aos serviços das unidades sob sua respectiva gestão, sem haver a interferência no comando regulatório  por outro ente. O sistema viabilizará que todo o processo de gestão de listas de espera, autorização e monitoramento de cumprimento de metas sejam realizados em tempo real. As estruturas de regulação que atuam na gestão das filas cirúrgicas serão organizadas sob o comando regulatório do ente que detém o comando regulatório de cada estabelecimento de saúde.
+O Protocolo Estadual de Regulação de Cirurgias Eletivas será expandido para todo o Estado de Goiás de maneira a viabilizar a gestão das listas de espera por estratificação de risco conforme o critério de prioridade SWALIS. Este recurso irá permitir que os gestores municipais e estadual possuam indicadores de Tempo de Espera e Tempo de Expectativa de Espera e também monitorar o indicador TMAT (Tempo Máximo Aceitável para Tratamento) expirado.
+Considerando que grande quantidade de listas de espera não são gerenciáveis, especialmente quando não estão sujeitas a priorização - política de primeiro a entrar, primeiro a sair e critérios subjetivos, para qualificar o processo de gestão de listas de espera, pesquisadores italianos desenvolveram o SWALIS (Surgical Waiting List Info System). O SWALIS é um sistema de gerenciamento de lista de espera com base em um algoritmo de priorização que atribui pontuações de critérios de prioridade de acordo com a gravidade do estado clínico do paciente e o máximo tempo de espera aceitável.No modelo SWALIS os cirurgiões atribuem urgência a cada encaminhamento de admissão, avaliando as condições clínicas no momento da avaliação pré-operatória. A definição clínica de urgência é então está associada a um Tempo Máximo Aceitável para Tratamento - TMAT (Maximum Time Before Treatment- MTBT)</t>
+  </si>
+  <si>
+    <t>170727</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>170728</t>
+  </si>
+  <si>
+    <t>00.733.062/0001-02</t>
+  </si>
+  <si>
+    <t>PORTO VELHO</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>A situação atual em relação às cirurgias eletivas no estado de Rondônia reflete uma necessidade de atendimento prioritário principalmente nas especialidades de ortopedia e traumatologia, bem como cirurgia geral e nefrologia/urologia. 
+De acordo com dados obtidos em 20 de dezembro de 2022, temos uma fila de 435 pacientes para cirurgia geral, 183 pacientes para nefrologia/urologia e 1780 pacientes na fila de ortopedia e traumatologia, aptos a realizar o procedimento cirúrgico eletivo, o que significa que essas pessoas estão aguardando por meses ou até mesmo anos para receber o tratamento necessário.</t>
+  </si>
+  <si>
+    <t>ALTA FLORESTA D'OESTE; ARIQUEMES; CABIXI; CACOAL; CEREJEIRAS; COLORADO DO OESTE; CORUMBIARA; COSTA MARQUES; ESPIGAO D'OESTE; GUAJARA-MIRIM; JARU; JI-PARANA; MACHADINHO D'OESTE; NOVA BRASILANDIA D'OESTE; OURO PRETO DO OESTE; PIMENTA BUENO; PORTO VELHO; PRESIDENTE MEDICI; RIO CRESPO; ROLIM DE MOURA; SANTA LUZIA D'OESTE; VILHENA; SAO MIGUEL DO GUAPORE; NOVA MAMORE; ALVORADA D'OESTE; ALTO ALEGRE DOS PARECIS; ALTO PARAISO; BURITIS; NOVO HORIZONTE DO OESTE; CACAULANDIA; CAMPO NOVO DE RONDONIA; CANDEIAS DO JAMARI; CASTANHEIRAS; CHUPINGUAIA; CUJUBIM; GOVERNADOR JORGE TEIXEIRA; ITAPUA DO OESTE; MINISTRO ANDREAZZA; MIRANTE DA SERRA; MONTE NEGRO; NOVA UNIAO; PARECIS; PIMENTEIRAS DO OESTE; PRIMAVERA DE RONDONIA; SAO FELIPE D'OESTE; SAO FRANCISCO DO GUAPORE; SERINGUEIRAS; TEIXEIROPOLIS; THEOBROMA; URUPA; VALE DO ANARI; VALE DO PARAISO</t>
+  </si>
+  <si>
+    <t>110001; 110002; 110003; 110004; 110005; 110006; 110007; 110008; 110009; 110010; 110011; 110012; 110013; 110014; 110015; 110018; 110020; 110025; 110026; 110028; 110029; 110030; 110032; 110033; 110034; 110037; 110040; 110045; 110050; 110060; 110070; 110080; 110090; 110092; 110094; 110100; 110110; 110120; 110130; 110140; 110143; 110145; 110146; 110147; 110148; 110149; 110150; 110155; 110160; 110170; 110175; 110180</t>
+  </si>
+  <si>
+    <t>1815278</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>MARIANA AGUIAR PRADO</t>
+  </si>
+  <si>
+    <t>prof.mariana.aguiar@gmail.com</t>
+  </si>
+  <si>
+    <t>69 92275267</t>
+  </si>
+  <si>
+    <t>09/03/2023 12:25:21</t>
+  </si>
+  <si>
+    <t>Mariana Aguiar Prado</t>
+  </si>
+  <si>
+    <t>Enfermeira - Coordenadora Assessoria Técnica</t>
+  </si>
+  <si>
+    <t>69 99227-5267</t>
+  </si>
+  <si>
+    <t>prof.mariana.aguiar@gmail.com 
+astecsesauro.gestao@gmail.com</t>
+  </si>
+  <si>
+    <t>Resolução CIB.pdf</t>
+  </si>
+  <si>
+    <t>RESOLUÇÃO N. 26/2023/SESAU-CIB</t>
+  </si>
+  <si>
+    <t>De acordo com dados obtidos em 20 de dezembro de 2022, há uma fila de 435 pacientes para cirurgia geral, 183 pacientes para nefrologia/urologia e 1780 pacientes na fila de ortopedia e traumatologia, aptos a realizar o procedimento cirúrgico eletivo, o que significa que essas pessoas estão aguardando por meses ou até mesmo anos para receber o tratamento necessário.</t>
+  </si>
+  <si>
+    <t>Se considerarmos os pacientes que aguardam na fila ambulatorial para indicação cirúrgica e que fiquem aptos para cirurgias eletivas, teremos um número bem maior, sendo que para o ambulatório em 2022 de cirurgia geral constava 7.444 em urologia 4.136, em nefrologia 1.282 e em ortopedia 6.798 pacientes. 
+Infelizmente, a atual capacidade operacional do estado para ofertar esses procedimentos é limitada. Há uma insuficiência de aporte financeiros e humanos para atender a demanda existente, o que resulta em longas filas de espera e atrasos significativos no tratamento dos pacientes. Além disso, a pandemia de COVID-19 sobrecarregou o sistema de saúde, o que tornou ainda mais difícil para os pacientes receberem o tratamento necessário.
+É possível notar uma semelhança do Estado de Rondônia com os demais entes federados em que a demanda por esses procedimentos supera em muito a capacidade dos sistemas de saúde locais para atender a todos os pacientes.</t>
+  </si>
+  <si>
+    <t>Não se Aplica</t>
+  </si>
+  <si>
+    <t>Diante disso, considerando que o local sede das cirurgias eletivas seja Porto Velho, o hospital eleito para procedimentos cirúrgicos é o Hospital de Retaguarda de Rondônia (HRRO), o local conta com três salas de centro cirúrgico, podendo ser usadas duas salas para essa execução de ofício, com capacidade operacional de 12 cirurgias em 12 horas. Levando em consideração procedimentos ortopédicos, da cirurgia geral e da urologia.
+Consideramos ainda o estabelecimento de parcerias com hospitais privados para a realização de cirurgias eletivas, aumentando assim a capacidade operacional que tem como objetivo, reduzir a espera dos pacientes.
+A definição de critérios claros e objetivos para a priorização dos pacientes pode ajudar a garantir que as vagas sejam distribuídas de forma justa e equânime, levando em consideração a gravidade da condição de saúde, o tempo de espera na fila e outros fatores relevantes.
+É importante que as filas de cirurgias eletivas sejam monitoradas regularmente para identificar gargalos e eventuais atrasos. O controle do tempo de espera permite que medidas corretivas sejam adotadas rapidamente para evitar que a fila cresça ainda mais.
+É importante ressaltar que a implementação dessas estratégias requer investimentos e planejamento adequado, além da colaboração dos profissionais de saúde e da população em geral.</t>
+  </si>
+  <si>
+    <t>Existem as filas cirúrgicas eletivas de diversas especialidades armazenadas no Sistema Nacional de Regulação (SISREGIII), gerenciadas pela central de regulação de leitos. 
+Esse sistema é operado por meio da Central Estadual de Regulação, que tem como objetivo gerenciar as filas de espera e garantir a efetivação das referências intermunicipais. Para garantir a eficiência na gestão das filas cirúrgicas, a Central Estadual de Regulação trabalha em conjunto com as centrais municipais de regulação, que recebem as solicitações de procedimentos cirúrgicos eletivos dos pacientes em cada cidade. Essas centrais municipais são responsáveis por fazer o primeiro contato com o paciente e encaminhá-lo para a unidade de saúde mais adequada ao seu caso, de acordo com a disponibilidade de leitos e profissionais.
+A Central Estadual de Regulação é responsável por receber as solicitações de procedimentos cirúrgicos eletivos de todos os municípios do estado e organizar a oferta desses serviços
+Após a sinalização do hospital executante sobre a programação cirúrgica semanal conforme o departamento (urologia, cirurgia geral e ortopedia), faz-se uma análise dos pacientes por ordem cronológica, gravidade dos doentes e perfil cirúrgico, para desse modo autorizar pelos reguladores/operadores do SISREGIII a internação e execução do procedimento cirúrgico no hospital sinalizador.</t>
+  </si>
+  <si>
+    <t>plano-atendimento-perf-cir-eletiva-vrs-oficial (1).xlsx</t>
+  </si>
+  <si>
+    <t>170772</t>
+  </si>
+  <si>
+    <t>83.369.835/0001-40</t>
+  </si>
+  <si>
+    <t>BELEM</t>
+  </si>
+  <si>
+    <t>Redução das filas eletivas do Estado do Pará</t>
+  </si>
+  <si>
+    <t>ABAETETUBA; ABEL FIGUEIREDO; ACARA; AFUA; AGUA AZUL DO NORTE; ALENQUER; ALMEIRIM; ALTAMIRA; ANAJAS; ANANINDEUA; ANAPU; AUGUSTO CORREA; AURORA DO PARA; AVEIRO; BAGRE; BAIAO; BANNACH; BARCARENA; BELEM; BELTERRA; BENEVIDES; BOM JESUS DO TOCANTINS; BONITO; BRAGANCA; BRASIL NOVO; BREJO GRANDE DO ARAGUAIA; BREU BRANCO; BREVES; BUJARU; CACHOEIRA DO PIRIA; CACHOEIRA DO ARARI; CAMETA; CANAA DOS CARAJAS; CAPANEMA; CAPITAO POCO; CASTANHAL; CHAVES; COLARES; CONCEICAO DO ARAGUAIA; CONCORDIA DO PARA; CUMARU DO NORTE; CURIONOPOLIS; CURRALINHO; CURUA; CURUCA; DOM ELISEU; ELDORADO DOS CARAJAS; FARO; FLORESTA DO ARAGUAIA; GARRAFAO DO NORTE; GOIANESIA DO PARA; GURUPA; IGARAPE-ACU; IGARAPE-MIRI; INHANGAPI; IPIXUNA DO PARA; IRITUIA; ITAITUBA; ITUPIRANGA; JACAREACANGA; JACUNDA; JURUTI; LIMOEIRO DO AJURU; MAE DO RIO; MAGALHAES BARATA; MARABA; MARACANA; MARAPANIM; MARITUBA; MEDICILANDIA; MELGACO; MOCAJUBA; MOJU; MOJUI DOS CAMPOS; MONTE ALEGRE; MUANA; NOVA ESPERANCA DO PIRIA; NOVA IPIXUNA; NOVA TIMBOTEUA; NOVO PROGRESSO; NOVO REPARTIMENTO; OBIDOS; OEIRAS DO PARA; ORIXIMINA; OUREM; OURILANDIA DO NORTE; PACAJA; PALESTINA DO PARA; PARAGOMINAS; PARAUAPEBAS; PAU D'ARCO; PEIXE-BOI; PICARRA; PLACAS; PONTA DE PEDRAS; PORTEL; PORTO DE MOZ; PRAINHA; PRIMAVERA; QUATIPURU; REDENCAO; RIO MARIA; RONDON DO PARA; RUROPOLIS; SALINOPOLIS; SALVATERRA; SANTA BARBARA DO PARA; SANTA CRUZ DO ARARI; SANTA IZABEL DO PARA; SANTA LUZIA DO PARA; SANTA MARIA DAS BARREIRAS; SANTA MARIA DO PARA; SANTANA DO ARAGUAIA; SANTAREM; SANTAREM NOVO; SANTO ANTONIO DO TAUA; SAO CAETANO DE ODIVELAS; SAO DOMINGOS DO ARAGUAIA; SAO DOMINGOS DO CAPIM; SAO FELIX DO XINGU; SAO FRANCISCO DO PARA; SAO GERALDO DO ARAGUAIA; SAO JOAO DA PONTA; SAO JOAO DE PIRABAS; SAO JOAO DO ARAGUAIA; SAO MIGUEL DO GUAMA; SAO SEBASTIAO DA BOA VISTA; SAPUCAIA; SENADOR JOSE PORFIRIO; SOURE; TAILANDIA; TERRA ALTA; TERRA SANTA; TOME-ACU; TRACUATEUA; TRAIRAO; TUCUMA; TUCURUI; ULIANOPOLIS; URUARA; VIGIA; VISEU; VITORIA DO XINGU; XINGUARA</t>
+  </si>
+  <si>
+    <t>150010; 150013; 150020; 150030; 150034; 150040; 150050; 150060; 150070; 150080; 150085; 150090; 150095; 150100; 150110; 150120; 150125; 150130; 150140; 150145; 150150; 150157; 150160; 150170; 150172; 150175; 150178; 150180; 150190; 150195; 150200; 150210; 150215; 150220; 150230; 150240; 150250; 150260; 150270; 150275; 150276; 150277; 150280; 150285; 150290; 150293; 150295; 150300; 150304; 150307; 150309; 150310; 150320; 150330; 150340; 150345; 150350; 150360; 150370; 150375; 150380; 150390; 150400; 150405; 150410; 150420; 150430; 150440; 150442; 150445; 150450; 150460; 150470; 150475; 150480; 150490; 150495; 150497; 150500; 150503; 150506; 150510; 150520; 150530; 150540; 150543; 150548; 150549; 150550; 150553; 150555; 150560; 150563; 150565; 150570; 150580; 150590; 150600; 150610; 150611; 150613; 150616; 150618; 150619; 150620; 150630; 150635; 150640; 150650; 150655; 150658; 150660; 150670; 150680; 150690; 150700; 150710; 150715; 150720; 150730; 150740; 150745; 150746; 150747; 150750; 150760; 150770; 150775; 150780; 150790; 150795; 150796; 150797; 150800; 150803; 150805; 150808; 150810; 150812; 150815; 150820; 150830; 150835; 150840</t>
+  </si>
+  <si>
+    <t>8777124</t>
+  </si>
+  <si>
+    <t>24.687.477,44</t>
+  </si>
+  <si>
+    <t>BRENA BENTES DA SILVA BRASIL</t>
+  </si>
+  <si>
+    <t>brena.silva@sespa.pa.gov.br</t>
+  </si>
+  <si>
+    <t>91 93033999</t>
+  </si>
+  <si>
+    <t>06/03/2023</t>
+  </si>
+  <si>
+    <t>04/06/2023</t>
+  </si>
+  <si>
+    <t>170780</t>
+  </si>
+  <si>
+    <t>06.023.708/0001-44</t>
+  </si>
+  <si>
+    <t>MANAUS</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Considerando a demanda reprimida ambulatorial, bem como a paralisação das cirurgias eletivas durante a pandemia da COVID-19, sendo evidenciado um grande número de pacientes aguardando para avaliação e realização de procedimentos cirúrgicos de média e alta complexidade; 
+Considerando a necessidade definida em Portaria GM/MS nº 90 de 03 de fevereiro de 2023 apresentamos o Plano Estadual de Redução de Cirurgias Eletivas do Estado do Amazonas como etapa primordial para buscar incentivo conforme orienta o Plano Nacional de Redução de Filas de Cirurgias Eletivas, Exames Complementares e Consultas Especializadas. 
+Justifica-se assim a elaboração de um plano de Estado que promova a Redução de Cirurgias Eletivas no Estado do Amazonas, com vistas a favorecer o acesso dos pacientes que estão indicados para a realização das mesmas, de acordo com a Central de Regulação do Amazonas.
+O plano apresentado tem como objetivo principal organizar e ampliar o acesso a cirurgias, exames e consultas na Atenção Especializada à Saúde, em especial àqueles com demanda reprimida identificada junto ao Central de Regulação do Estado do Amazonas, com gestão por resultados. Tem-se ainda como finalidade, qualificar a contratualização com a rede complementar, adequando a oferta de ações e serviços de saúde de acordo com as necessidades de saúde das Regiões de Saúde do Estado do Amazonas. 
+O plano que ora apresentamos segue as diretrizes estabelecidas pelo Plano Nacional que visa buscar a universalidade, equidade e integralidade da atenção à saúde, tendo em vista a organização da Atenção Especializada; ampliação do acesso com foco nas Cirurgias Eletivas, Exames Complementares; e fundamentalmente garantindo a humanização da atenção, com um modelo de atenção centrado no usuário e baseado nas necessidades de saúde da população adstrita aos territórios.</t>
+  </si>
+  <si>
+    <t>ALVARAES; AMATURA; ANAMA; ANORI; APUI; ATALAIA DO NORTE; AUTAZES; BARCELOS; BARREIRINHA; BENJAMIN CONSTANT; BERURI; BOA VISTA DO RAMOS; BOCA DO ACRE; BORBA; CAAPIRANGA; CANUTAMA; CARAUARI; CAREIRO; CAREIRO DA VARZEA; COARI; CODAJAS; EIRUNEPE; ENVIRA; FONTE BOA; GUAJARA; HUMAITA; IPIXUNA; IRANDUBA; ITACOATIARA; ITAMARATI; ITAPIRANGA; JAPURA; JURUA; JUTAI; LABREA; MANACAPURU; MANAQUIRI; MANAUS; MANICORE; MARAA; MAUES; NHAMUNDA; NOVA OLINDA DO NORTE; NOVO AIRAO; NOVO ARIPUANA; PARINTINS; PAUINI; PRESIDENTE FIGUEIREDO; RIO PRETO DA EVA; SANTA ISABEL DO RIO NEGRO; SANTO ANTONIO DO ICA; SAO GABRIEL DA CACHOEIRA; SAO PAULO DE OLIVENCA; SAO SEBASTIAO DO UATUMA; SILVES; TABATINGA; TAPAUA; TEFE; TONANTINS; UARINI; URUCARA; URUCURITUBA</t>
+  </si>
+  <si>
+    <t>130002; 130006; 130008; 130010; 130014; 130020; 130030; 130040; 130050; 130060; 130063; 130068; 130070; 130080; 130083; 130090; 130100; 130110; 130115; 130120; 130130; 130140; 130150; 130160; 130165; 130170; 130180; 130185; 130190; 130195; 130200; 130210; 130220; 130230; 130240; 130250; 130255; 130260; 130270; 130280; 130290; 130300; 130310; 130320; 130330; 130340; 130350; 130353; 130356; 130360; 130370; 130380; 130390; 130395; 130400; 130406; 130410; 130420; 130423; 130426; 130430; 130440</t>
+  </si>
+  <si>
+    <t>4269995</t>
+  </si>
+  <si>
+    <t>LEANDRO SILVA PIMENTEL</t>
+  </si>
+  <si>
+    <t>enfermeiro.leandropimentel@gmail.com</t>
+  </si>
+  <si>
+    <t>92 84277086</t>
+  </si>
+  <si>
+    <t>170800</t>
+  </si>
+  <si>
+    <t>13.851.748/0001-40</t>
+  </si>
+  <si>
+    <t>SAO PAULO</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Portaria GM/MS nº 90, de 03 de fevereiro de 2023</t>
+  </si>
+  <si>
+    <t>ADAMANTINA; ADOLFO; AGUAI; AGUAS DA PRATA; AGUAS DE LINDOIA; AGUAS DE SANTA BARBARA; AGUAS DE SAO PEDRO; AGUDOS; ALAMBARI; ALFREDO MARCONDES; ALTAIR; ALTINOPOLIS; ALTO ALEGRE; ALUMINIO; ALVARES FLORENCE; ALVARES MACHADO; ALVARO DE CARVALHO; ALVINLANDIA; AMERICANA; AMERICO BRASILIENSE; AMERICO DE CAMPOS; AMPARO; ANALANDIA; ANDRADINA; ANGATUBA; ANHEMBI; ANHUMAS; APARECIDA; APARECIDA D'OESTE; APIAI; ARACARIGUAMA; ARACATUBA; ARACOIABA DA SERRA; ARAMINA; ARANDU; ARAPEI; ARARAQUARA; ARARAS; ARCO-IRIS; AREALVA; AREIAS; AREIOPOLIS; ARIRANHA; ARTUR NOGUEIRA; ARUJA; ASPASIA; ASSIS; ATIBAIA; AURIFLAMA; AVAI; AVANHANDAVA; AVARE; BADY BASSITT; BALBINOS; BALSAMO; BANANAL; BARAO DE ANTONINA; BARBOSA; BARIRI; BARRA BONITA; BARRA DO CHAPEU; BARRA DO TURVO; BARRETOS; BARRINHA; BARUERI; BASTOS; BATATAIS; BAURU; BEBEDOURO; BENTO DE ABREU; BERNARDINO DE CAMPOS; BERTIOGA; BILAC; BIRIGUI; BIRITIBA-MIRIM; BOA ESPERANCA DO SUL; BOCAINA; BOFETE; BOITUVA; BOM JESUS DOS PERDOES; BOM SUCESSO DE ITARARE; BORA; BORACEIA; BORBOREMA; BOREBI; BOTUCATU; BRAGANCA PAULISTA; BRAUNA; BREJO ALEGRE; BRODOWSKI; BROTAS; BURI; BURITAMA; BURITIZAL; CABRALIA PAULISTA; CABREUVA; CACAPAVA; CACHOEIRA PAULISTA; CACONDE; CAFELANDIA; CAIABU; CAIEIRAS; CAIUA; CAJAMAR; CAJATI; CAJOBI; CAJURU; CAMPINA DO MONTE ALEGRE; CAMPINAS; CAMPO LIMPO PAULISTA; CAMPOS DO JORDAO; CAMPOS NOVOS PAULISTA; CANANEIA; CANAS; CANDIDO MOTA; CANDIDO RODRIGUES; CANITAR; CAPAO BONITO; CAPELA DO ALTO; CAPIVARI; CARAGUATATUBA; CARAPICUIBA; CARDOSO; CASA BRANCA; CASSIA DOS COQUEIROS; CASTILHO; CATANDUVA; CATIGUA; CEDRAL; CERQUEIRA CESAR; CERQUILHO; CESARIO LANGE; CHARQUEADA; CLEMENTINA; COLINA; COLOMBIA; CONCHAL; CONCHAS; CORDEIROPOLIS; COROADOS; CORONEL MACEDO; CORUMBATAI; COSMOPOLIS; COSMORAMA; COTIA; CRAVINHOS; CRISTAIS PAULISTA; CRUZALIA; CRUZEIRO; CUBATAO; CUNHA; DESCALVADO; DIADEMA; DIRCE REIS; DIVINOLANDIA; DOBRADA; DOIS CORREGOS; DOLCINOPOLIS; DOURADO; DRACENA; DUARTINA; DUMONT; ECHAPORA; ELDORADO; ELIAS FAUSTO; ELISIARIO; EMBAUBA; EMBU DAS ARTES; EMBU-GUACU; EMILIANOPOLIS; ENGENHEIRO COELHO; ESPIRITO SANTO DO PINHAL; ESPIRITO SANTO DO TURVO; ESTRELA D'OESTE; ESTRELA DO NORTE; EUCLIDES DA CUNHA PAULISTA; FARTURA; FERNANDOPOLIS; FERNANDO PRESTES; FERNAO; FERRAZ DE VASCONCELOS; FLORA RICA; FLOREAL; FLORIDA PAULISTA; FLORINIA; FRANCA; FRANCISCO MORATO; FRANCO DA ROCHA; GABRIEL MONTEIRO; GALIA; GARCA; GASTAO VIDIGAL; GAVIAO PEIXOTO; GENERAL SALGADO; GETULINA; GLICERIO; GUAICARA; GUAIMBE; GUAIRA; GUAPIACU; GUAPIARA; GUARA; GUARACAI; GUARACI; GUARANI D'OESTE; GUARANTA; GUARARAPES; GUARAREMA; GUARATINGUETA; GUAREI; GUARIBA; GUARUJA; GUARULHOS; GUATAPARA; GUZOLANDIA; HERCULANDIA; HOLAMBRA; HORTOLANDIA; IACANGA; IACRI; IARAS; IBATE; IBIRA; IBIRAREMA; IBITINGA; IBIUNA; ICEM; IEPE; IGARACU DO TIETE; IGARAPAVA; IGARATA; IGUAPE; ILHABELA; ILHA COMPRIDA; ILHA SOLTEIRA; INDAIATUBA; INDIANA; INDIAPORA; INUBIA PAULISTA; IPAUSSU; IPERO; IPEUNA; IPIGUA; IPORANGA; IPUA; IRACEMAPOLIS; IRAPUA; IRAPURU; ITABERA; ITAI; ITAJOBI; ITAJU; ITANHAEM; ITAOCA; ITAPECERICA DA SERRA; ITAPETININGA; ITAPEVA; ITAPEVI; ITAPIRA; ITAPIRAPUA PAULISTA; ITAPOLIS; ITAPORANGA; ITAPUI; ITAPURA; ITAQUAQUECETUBA; ITARARE; ITARIRI; ITATIBA; ITATINGA; ITIRAPINA; ITIRAPUA; ITOBI; ITU; ITUPEVA; ITUVERAVA; JABORANDI; JABOTICABAL; JACAREI; JACI; JACUPIRANGA; JAGUARIUNA; JALES; JAMBEIRO; JANDIRA; JARDINOPOLIS; JARINU; JAU; JERIQUARA; JOANOPOLIS; JOAO RAMALHO; JOSE BONIFACIO; JULIO MESQUITA; JUMIRIM; JUNDIAI; JUNQUEIROPOLIS; JUQUIA; JUQUITIBA; LAGOINHA; LARANJAL PAULISTA; LAVINIA; LAVRINHAS; LEME; LENCOIS PAULISTA; LIMEIRA; LINDOIA; LINS; LORENA; LOURDES; LOUVEIRA; LUCELIA; LUCIANOPOLIS; LUIS ANTONIO; LUIZIANIA; LUPERCIO; LUTECIA; MACATUBA; MACAUBAL; MACEDONIA; MAGDA; MAIRINQUE; MAIRIPORA; MANDURI; MARABA PAULISTA; MARACAI; MARAPOAMA; MARIAPOLIS; MARILIA; MARINOPOLIS; MARTINOPOLIS; MATAO; MAUA; MENDONCA; MERIDIANO; MESOPOLIS; MIGUELOPOLIS; MINEIROS DO TIETE; MIRACATU; MIRA ESTRELA; MIRANDOPOLIS; MIRANTE DO PARANAPANEMA; ...(305)</t>
+  </si>
+  <si>
+    <t>350010; 350020; 350030; 350040; 350050; 350055; 350060; 350070; 350075; 350080; 350090; 350100; 350110; 350115; 350120; 350130; 350140; 350150; 350160; 350170; 350180; 350190; 350200; 350210; 350220; 350230; 350240; 350250; 350260; 350270; 350275; 350280; 350290; 350300; 350310; 350315; 350320; 350330; 350335; 350340; 350350; 350360; 350370; 350380; 350390; 350395; 350400; 350410; 350420; 350430; 350440; 350450; 350460; 350470; 350480; 350490; 350500; 350510; 350520; 350530; 350535; 350540; 350550; 350560; 350570; 350580; 350590; 350600; 350610; 350620; 350630; 350635; 350640; 350650; 350660; 350670; 350680; 350690; 350700; 350710; 350715; 350720; 350730; 350740; 350745; 350750; 350760; 350770; 350775; 350780; 350790; 350800; 350810; 350820; 350830; 350840; 350850; 350860; 350870; 350880; 350890; 350900; 350910; 350920; 350925; 350930; 350940; 350945; 350950; 350960; 350970; 350980; 350990; 350995; 351000; 351010; 351015; 351020; 351030; 351040; 351050; 351060; 351070; 351080; 351090; 351100; 351110; 351120; 351130; 351140; 351150; 351160; 351170; 351190; 351200; 351210; 351220; 351230; 351240; 351250; 351260; 351270; 351280; 351290; 351300; 351310; 351320; 351330; 351340; 351350; 351360; 351370; 351380; 351385; 351390; 351400; 351410; 351420; 351430; 351440; 351450; 351460; 351470; 351480; 351490; 351492; 351495; 351500; 351510; 351512; 351515; 351518; 351519; 351520; 351530; 351535; 351540; 351550; 351560; 351565; 351570; 351580; 351590; 351600; 351610; 351620; 351630; 351640; 351650; 351660; 351670; 351680; 351685; 351690; 351700; 351710; 351720; 351730; 351740; 351750; 351760; 351770; 351780; 351790; 351800; 351810; 351820; 351830; 351840; 351850; 351860; 351870; 351880; 351885; 351890; 351900; 351905; 351907; 351910; 351920; 351925; 351930; 351940; 351950; 351960; 351970; 351980; 351990; 352000; 352010; 352020; 352030; 352040; 352042; 352044; 352050; 352060; 352070; 352080; 352090; 352100; 352110; 352115; 352120; 352130; 352140; 352150; 352160; 352170; 352180; 352190; 352200; 352210; 352215; 352220; 352230; 352240; 352250; 352260; 352265; 352270; 352280; 352290; 352300; 352310; 352320; 352330; 352340; 352350; 352360; 352370; 352380; 352390; 352400; 352410; 352420; 352430; 352440; 352450; 352460; 352470; 352480; 352490; 352500; 352510; 352520; 352530; 352540; 352550; 352560; 352570; 352580; 352585; 352590; 352600; 352610; 352620; 352630; 352640; 352650; 352660; 352670; 352680; 352690; 352700; 352710; 352720; 352725; 352730; 352740; 352750; 352760; 352770; 352780; 352790; 352800; 352810; 352820; 352830; 352840; 352850; 352860; 352870; 352880; 352885; 352890; 352900; 352910; 352920; 352930; 352940; 352950; 352960; 352965; 352970; 352980; 352990; 353000; 353010; 353020; 353030; 353040; 353050; 353060; 353070; 353080; 353090; 353100; 353110; 353120; 353130; 353140; 353150; 353160; 353170; 353180; 353190; 353200; 353205; 353210; 353215; 353220; 353230; 353240; 353250; 353260; 353270; 353280; 353282; 353284; 353286; 353290; 353300; 353310; 353320; 353325; 353330; 353340; 353350; 353360; 353370; 353380; 353390; 353400; 353410; 353420; 353430; 353440; 353450; 353460; 353470; 353475; 353480; 353490; 353500; 353510; 353520; 353530; 353540; 353550; 353560; 353570; 353580; 353590; 353600; 353610; 353620; 353625; 353630; 353640; 353650; 353657; 353660; 353670; 353680; 353690; 353700; 353710; 353715; 353720; 353730; 353740; 353750; 353760; 353770; 353780; 353790; 353800; 353810; 353820; 353830; 353850; 353860; 353870; 353880; 353890; 353900; 353910; 353920; 353930; 353940; 353950; 353960; 353970; 353980; 353990; 354000; 354010; 354020; 354025; 354030; 354040; 354050; 354060; 354070; 354075; 354080; 354085; 354090; 354100; 354105; 354110; 354120; 354130; 354140; 354150; 354160; 354165; 354170; 354180; 354190; 354200; 354210; 354220; 354230; 354240; 354250; 354260; 354270; 354280; 354290; 354300; 354310; 354320; 354323; 354325; 354330; 354340; 354350; 354360; 354370; 354380; 354390; 354400; 354410; 354420; ...(149)</t>
+  </si>
+  <si>
+    <t>46649132</t>
+  </si>
+  <si>
+    <t>TANIA REGINA MATUCCI HOTSUMI</t>
+  </si>
+  <si>
+    <t>trhotsumi@saude.sp.gov.br</t>
+  </si>
+  <si>
+    <t>11 30668563</t>
+  </si>
+  <si>
+    <t>07/03/2023</t>
+  </si>
+  <si>
+    <t>05/06/2023</t>
+  </si>
+  <si>
+    <t>170803</t>
+  </si>
+  <si>
+    <t>Adesão  do Estado do Rio Grande do Sul ao Programa Nacional de Redução das Filas de Cirurgias Eletivas, Exames Complementares e Consultas Especializadas, objetivando ampliar o acesso aos usuários do SUS a cirurgias eletivas com a finalidade de reduzir as filas de espera nas diversas especialidades.</t>
+  </si>
+  <si>
+    <t>IVONETE BUENO PEIXOTO</t>
+  </si>
+  <si>
+    <t>ivonete-peixoto@saude.rs.gov.br</t>
+  </si>
+  <si>
+    <t>51 32887939</t>
+  </si>
+  <si>
+    <t>ESPECIALISTA EM SAÚDE</t>
+  </si>
+  <si>
+    <t>51.3288..5934</t>
+  </si>
+  <si>
+    <t>170872</t>
+  </si>
+  <si>
+    <t>06.023.582/0001-08</t>
+  </si>
+  <si>
+    <t>MACAPA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>1. JUSTIFICATIVA
+Com a emissão de alerta de emergência de Saúde Pública de importância internacional pela Organização Mundial de Saúde (OMS), devido à velocidade e dinâmica de transmissão do vírus SARS-CoV-2, na data de 11 de março de 2020, a situação foi classificada oficialmente como uma pandemia, e iniciou-se um colapso do sistema de saúde em muitos locais (ZHU et al., 2020).
+A pandemia causada pelo SARS-CoV-2 impôs grande sobrecarga aos sistemas de saúde em todo o mundo. A partir de março de 2020, no intuito de priorizar os recursos assistenciais ao atendimento dos casos de COVID-19, consultas e procedimentos cirúrgicos eletivos foram suspensos por diferentes períodos de tempo conforme a situação epidemiológica de cada país (ROYAL COLLEGE OF SURGEONS OF ENGLAND, 2021).
+Dentre os principais serviços interrompidos estão as cirurgias eletivas, as quais foram canceladas de modo a oferecer maior segurança ao paciente. Reduzir as atividades eletivas foi a estratégia utilizada para proteger os pacientes da transmissão intra-hospitalar do vírus e complicações pulmonares pós-operatórias associadas. Além disso, foram preservados suprimentos de proteção, os quais tiveram prioridade para o atendimento de pacientes com COVID-19. Ainda, a equipe cirúrgica foi remanejada para outras especialidades e linha de frente. Estima-se que 72,3% das cirurgias foram canceladas durante o pico da pandemia, nas suas primeiras 12 semanas, ao redor do mundo (ROCCO et al, 2022).
+O Brasil deixou de realizar ou adiou pelo menos 2,8 milhões de cirurgias eletivas em 2020, em função da pandemia. Procedimentos como a cirurgia de catarata, hérnia, vesícula, varizes e postectomia foram os mais afetados. Assim como aconteceu com os procedimentos ambulatoriais, a redução no volume de cirurgias, hospitalares ou ambulatoriais, também afetou todas as regiões do país, conforme apresentado na Tabela 1 (CFM, 2021).
+A demanda acumulada de cirurgias na área de oncologia, cirurgia geral,  ortopedia, gineco-obstétricas, vascular e outras aumentaram consideravelmente nos últimos dois anos, chegando a mais de 10.000 cirurgias eletivas e 1200 ambulatoriais, na rede de saúde amapaense.
+No Amapá esse cenário não foi diferente, associado ainda ao fato de ter a menor proporção de especialistas em relação ao total de profissionais (40,4 %) do país, segundo a Associação Médica Brasileira (2023). Da mesma forma, a demanda de exames de apoio ao diagnóstico, como as biópsias (incisional e excecional), ultrassonografia com doppler, densitometria, endoscopia e colonoscopia foram ampliadas pela pandemia.</t>
+  </si>
+  <si>
+    <t>160030</t>
+  </si>
+  <si>
+    <t>522357</t>
+  </si>
+  <si>
+    <t>ELIELB VALES MACIEL</t>
+  </si>
+  <si>
+    <t>jhonvalente@gmail.com</t>
+  </si>
+  <si>
+    <t>96 81269532</t>
+  </si>
+  <si>
+    <t>09/03/2023</t>
+  </si>
+  <si>
+    <t>09/03/2023 11:32:50</t>
+  </si>
+  <si>
+    <t>JUVANETE AMORAS TAVORA</t>
+  </si>
+  <si>
+    <t>COORDENADORA DE PLANEJAMENTO</t>
+  </si>
+  <si>
+    <t>(96) 98140-4382</t>
+  </si>
+  <si>
+    <t>juvanetetavora@gmail.com</t>
+  </si>
+  <si>
+    <t>Resolução nº 004.23 - CIB.AP.pdf</t>
+  </si>
+  <si>
+    <t>Resolução Nº 004\2023</t>
+  </si>
+  <si>
+    <t>Com a emissão de alerta de emergência de Saúde Pública de importância internacional pela Organização Mundial de Saúde (OMS), devido à velocidade e dinâmica de transmissão do vírus SARS-CoV-2, na data de 11 de março de 2020, a situação foi classificada oficialmente como uma pandemia, e iniciou-se um colapso do sistema de saúde em muitos locais (ZHU et al., 2020).
+A pandemia causada pelo SARS-CoV-2 impôs grande sobrecarga aos sistemas de saúde em todo o mundo. A partir de março de 2020, no intuito de priorizar os recursos assistenciais ao atendimento dos casos de COVID-19, consultas e procedimentos cirúrgicos eletivos foram suspensos por diferentes períodos de tempo conforme a situação epidemiológica de cada país (ROYAL COLLEGE OF SURGEONS OF ENGLAND, 2021).
+Dentre os principais serviços interrompidos estão as cirurgias eletivas, as quais foram canceladas de modo a oferecer maior segurança ao paciente. Reduzir as atividades eletivas foi a estratégia utilizada para proteger os pacientes da transmissão intra-hospitalar do vírus e complicações pulmonares pós-operatórias associadas. Além disso, foram preservados suprimentos de proteção, os quais tiveram prioridade para o atendimento de pacientes com COVID-19. Ainda, a equipe cirúrgica foi remanejada para outras especialidades e linha de frente. Estima-se que 72,3% das cirurgias foram canceladas durante o pico da pandemia, nas suas primeiras 12 semanas, ao redor do mundo (ROCCO et al, 2022).
+O Brasil deixou de realizar ou adiou pelo menos 2,8 milhões de cirurgias eletivas em 2020, em função da pandemia. Procedimentos como a cirurgia de catarata, hérnia, vesícula, varizes e postectomia foram os mais afetados. Assim como aconteceu com os procedimentos ambulatoriais, a redução no volume de cirurgias, hospitalares ou ambulatoriais, também afetou todas as regiões do país, conforme apresentado na Tabela 1 (CFM, 2021).
+A demanda acumulada de cirurgias na área de oncologia, cirurgia geral,  ortopedia, gineco-obstétricas, vascular e outras aumentaram consideravelmente nos últimos dois anos, chegando a mais de 10.000 cirurgias eletivas e 1200 ambulatoriais, na rede de saúde amapaense.
+No Amapá esse cenário não foi diferente, associado ainda ao fato de ter a menor proporção de especialistas em relação ao total de profissionais (40,4 %) do país, segundo a Associação Médica Brasileira (2023). Da mesma forma, a demanda de exames de apoio ao diagnóstico, como as biópsias (incisional e excecional), ultrassonografia com doppler, densitometria, endoscopia e colonoscopia foram ampliadas pela pandemia.
+Em todo o território nacional, em 2020, houve uma redução de 38% do total de cirurgias eletivas e, no estado de 33,6% em relação à 2019 (SESA, 2021). 
+Tabela 2: Variação de procedimentos cirúrgicos entre 2019 e 2020.
+Procedimento	2019	2020	Variação
+Apendicectomia	540	275	- 49%
+Colecistectomia	1124	552	- 51%
+Postectomia	86	36	- 59%
+Histerectomia	109	52	- 52%
+Prostatectomia	119	43	- 64%
+Fonte: SIH/2023
+A Secretaria de Estado da Saúde, no sentido de mitigar o impacto da pandemia, em 2022 retomou a realização de cirurgias eletivas na rede estadual de saúde, através de mutirões. Porém esse cenário se agravou pelo fato da rede complementar (Hospital São Camilo e UNIMED) estar comprometida com a demanda particular e conveniada, e as três salas cirúrgicas do Hospital de Clínicas Alberto Lima terem entrado em reforma, o que impediu o pleno funcionamento e consequentemente houve um aumento considerável do backlog da fila de pacientes com necessidade de cirurgia, consultas e exames especializados, sendo  os pacientes oncológicos, ortopédicos e de cirurgias geral os mais afetados com a situação pandêmica.</t>
+  </si>
+  <si>
+    <t>De acordo com o Conselho Federal de Medicina, a consulta médica em Atenção Especializada foi o procedimento ambulatorial mais afetado pela pandemia: baixou de 8,3 milhões para 5,6 milhões ¿ redução de 2,6 milhões de acolhimentos (-32%) (CFM, 2021). Da mesma forma, os exames de mamografia para rastreamento, exames de ultrassonografia de abdômen total e cito patológico cervico-vaginal.</t>
+  </si>
+  <si>
+    <t>* Realizar a contratualização dos serviços de saúde de forma complementar 
+* Investir na adequação e ampliação dos centros cirúrgicos
+* Garantir a aquisição de OPME, equipamentos e outros insumos hospitalares 
+* As cirurgias serão realizadas em regime de mutirão e regular</t>
+  </si>
+  <si>
+    <t>....</t>
+  </si>
+  <si>
+    <t>plano-monitoramento-perf-cir-eletiva-vrs-3-1.xlsx</t>
+  </si>
+  <si>
+    <t>plano-atendimento-perf-cir-eletiva-vrs-4a.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +2348,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BY19"/>
+  <dimension ref="A1:BY31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="BY19" sqref="BY19"/>
+      <selection activeCell="BY31" sqref="BY31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2745,7 +3638,7 @@
         <v>138</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>79</v>
@@ -2754,7 +3647,7 @@
         <v>79</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>88</v>
@@ -2763,13 +3656,13 @@
         <v>79</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>79</v>
@@ -2787,19 +3680,19 @@
         <v>79</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AF6" s="2" t="s">
         <v>79</v>
@@ -2838,111 +3731,111 @@
         <v>79</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AU6" s="2" t="s">
         <v>131</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AZ6" s="2" t="s">
         <v>137</v>
       </c>
       <c r="BA6" s="2" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="BB6" s="2" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="BC6" s="2" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="BD6" s="2" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="BF6" s="2" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="BG6" s="2" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="BH6" s="2" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BK6" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="BM6" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BN6" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="BP6" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BQ6" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BR6" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BS6" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BT6" s="2" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="BU6" s="2" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="BV6" s="2" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="BW6" s="2" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="BX6" s="2" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="BY6" s="2" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:77">
       <c r="A7" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>76</v>
@@ -2963,19 +3856,19 @@
         <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>87</v>
@@ -2996,13 +3889,13 @@
         <v>79</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>79</v>
@@ -3071,13 +3964,13 @@
         <v>79</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="AU7" s="2" t="s">
         <v>131</v>
@@ -3095,25 +3988,25 @@
         <v>79</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="BC7" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="BD7" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="BE7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="BG7" s="2" t="s">
         <v>79</v>
@@ -3175,7 +4068,7 @@
     </row>
     <row r="8" spans="1:77">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>76</v>
@@ -3196,19 +4089,19 @@
         <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>123</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>87</v>
@@ -3229,13 +4122,13 @@
         <v>79</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>79</v>
@@ -3304,19 +4197,19 @@
         <v>79</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="AW8" s="2" t="s">
         <v>79</v>
@@ -3408,7 +4301,7 @@
     </row>
     <row r="9" spans="1:77">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>76</v>
@@ -3429,19 +4322,19 @@
         <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>87</v>
@@ -3462,13 +4355,13 @@
         <v>79</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>79</v>
@@ -3537,19 +4430,19 @@
         <v>79</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AW9" s="2" t="s">
         <v>79</v>
@@ -3641,7 +4534,7 @@
     </row>
     <row r="10" spans="1:77">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>76</v>
@@ -3662,19 +4555,19 @@
         <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>87</v>
@@ -3695,13 +4588,13 @@
         <v>79</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>79</v>
@@ -3770,19 +4663,19 @@
         <v>79</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AW10" s="2" t="s">
         <v>79</v>
@@ -3794,19 +4687,19 @@
         <v>79</v>
       </c>
       <c r="AZ10" s="2" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="BA10" s="2" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="BB10" s="2" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="BC10" s="2" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="BE10" s="2" t="s">
         <v>79</v>
@@ -3874,7 +4767,7 @@
     </row>
     <row r="11" spans="1:77">
       <c r="A11" s="2" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>76</v>
@@ -3895,19 +4788,19 @@
         <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>87</v>
@@ -3928,13 +4821,13 @@
         <v>79</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>79</v>
@@ -4003,19 +4896,19 @@
         <v>79</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AW11" s="2" t="s">
         <v>79</v>
@@ -4107,7 +5000,7 @@
     </row>
     <row r="12" spans="1:77">
       <c r="A12" s="2" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>76</v>
@@ -4128,19 +5021,19 @@
         <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>87</v>
@@ -4161,13 +5054,13 @@
         <v>79</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>79</v>
@@ -4236,19 +5129,19 @@
         <v>79</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AW12" s="2" t="s">
         <v>79</v>
@@ -4260,19 +5153,19 @@
         <v>79</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="BA12" s="2" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="BB12" s="2" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="BC12" s="2" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="BD12" s="2" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="BE12" s="2" t="s">
         <v>79</v>
@@ -4340,7 +5233,7 @@
     </row>
     <row r="13" spans="1:77">
       <c r="A13" s="2" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>76</v>
@@ -4361,19 +5254,19 @@
         <v>81</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>87</v>
@@ -4394,13 +5287,13 @@
         <v>79</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>79</v>
@@ -4427,10 +5320,10 @@
         <v>79</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>79</v>
@@ -4469,19 +5362,19 @@
         <v>79</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AW13" s="2" t="s">
         <v>79</v>
@@ -4573,7 +5466,7 @@
     </row>
     <row r="14" spans="1:77">
       <c r="A14" s="2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>76</v>
@@ -4594,22 +5487,22 @@
         <v>81</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>79</v>
@@ -4618,7 +5511,7 @@
         <v>79</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>88</v>
@@ -4627,13 +5520,13 @@
         <v>79</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>79</v>
@@ -4651,25 +5544,25 @@
         <v>79</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AH14" s="2" t="s">
         <v>79</v>
@@ -4702,22 +5595,22 @@
         <v>79</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>79</v>
@@ -4726,87 +5619,87 @@
         <v>79</v>
       </c>
       <c r="AZ14" s="2" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="BA14" s="2" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="BB14" s="2" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="BC14" s="2" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="BD14" s="2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="BE14" s="2" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="BF14" s="2" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="BG14" s="2" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="BH14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BK14" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BL14" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BM14" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BN14" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BO14" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BP14" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BQ14" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="BR14" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="BS14" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="BT14" s="2" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="BU14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV14" s="2" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="BW14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX14" s="2" t="s">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="BY14" s="2" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:77">
       <c r="A15" s="2" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>76</v>
@@ -4827,19 +5720,19 @@
         <v>81</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>87</v>
@@ -4860,13 +5753,13 @@
         <v>79</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>79</v>
@@ -4935,19 +5828,19 @@
         <v>79</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="AV15" s="2" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="AW15" s="2" t="s">
         <v>79</v>
@@ -5039,7 +5932,7 @@
     </row>
     <row r="16" spans="1:77">
       <c r="A16" s="2" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>76</v>
@@ -5060,19 +5953,19 @@
         <v>81</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>87</v>
@@ -5093,13 +5986,13 @@
         <v>79</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>79</v>
@@ -5168,19 +6061,19 @@
         <v>79</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="AV16" s="2" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="AW16" s="2" t="s">
         <v>79</v>
@@ -5192,19 +6085,19 @@
         <v>79</v>
       </c>
       <c r="AZ16" s="2" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="BA16" s="2" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="BC16" s="2" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="BD16" s="2" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="BE16" s="2" t="s">
         <v>79</v>
@@ -5272,7 +6165,7 @@
     </row>
     <row r="17" spans="1:77">
       <c r="A17" s="2" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>76</v>
@@ -5293,22 +6186,22 @@
         <v>81</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>87</v>
+        <v>326</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>79</v>
@@ -5326,13 +6219,13 @@
         <v>79</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>79</v>
@@ -5401,22 +6294,22 @@
         <v>79</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>79</v>
@@ -5425,87 +6318,87 @@
         <v>79</v>
       </c>
       <c r="AZ17" s="2" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="BA17" s="2" t="s">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="BB17" s="2" t="s">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="BC17" s="2" t="s">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="BD17" s="2" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="BE17" s="2" t="s">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="BF17" s="2" t="s">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="BG17" s="2" t="s">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="BH17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BI17" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BJ17" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BK17" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BL17" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BM17" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BN17" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BO17" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BP17" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BQ17" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BR17" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BS17" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BT17" s="2" t="s">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="BU17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV17" s="2" t="s">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="BW17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX17" s="2" t="s">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="BY17" s="2" t="s">
-        <v>79</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:77">
       <c r="A18" s="2" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>76</v>
@@ -5526,19 +6419,19 @@
         <v>81</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>87</v>
@@ -5550,7 +6443,7 @@
         <v>79</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>88</v>
@@ -5559,13 +6452,13 @@
         <v>79</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>79</v>
@@ -5592,10 +6485,10 @@
         <v>79</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="AF18" s="2" t="s">
         <v>79</v>
@@ -5634,19 +6527,19 @@
         <v>79</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="AW18" s="2" t="s">
         <v>79</v>
@@ -5658,19 +6551,19 @@
         <v>79</v>
       </c>
       <c r="AZ18" s="2" t="s">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="BA18" s="2" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="BB18" s="2" t="s">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="BC18" s="2" t="s">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="BD18" s="2" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="BE18" s="2" t="s">
         <v>79</v>
@@ -5679,55 +6572,55 @@
         <v>79</v>
       </c>
       <c r="BG18" s="2" t="s">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="BH18" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BI18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BJ18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BK18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BL18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BM18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BN18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BO18" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BP18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BQ18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BR18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BS18" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BT18" s="2" t="s">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="BU18" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV18" s="2" t="s">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="BW18" s="2" t="s">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="BX18" s="2" t="s">
         <v>79</v>
@@ -5738,7 +6631,7 @@
     </row>
     <row r="19" spans="1:77">
       <c r="A19" s="2" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>76</v>
@@ -5759,22 +6652,22 @@
         <v>81</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>79</v>
@@ -5792,181 +6685,2977 @@
         <v>79</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="T19" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA19" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="BC19" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="BD19" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="BE19" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="BG19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="BI19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT19" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="BU19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV19" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="BW19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX19" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="BY19" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:77">
+      <c r="A20" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AT20" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:77">
+      <c r="A21" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AS19" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AT19" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AV19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW19" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AX19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ19" s="2" t="s">
+      <c r="N21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR21" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AT21" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AU21" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="BA21" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="BB21" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="BC21" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="BD21" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="BE21" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="BF21" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="BG21" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="BH21" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="BI21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BT21" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="BU21" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="BV21" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="BW21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX21" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="BY21" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:77">
+      <c r="A22" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AT22" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:77">
+      <c r="A23" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT23" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:77">
+      <c r="A24" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AT24" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AU24" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ24" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="BA24" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB24" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BC24" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="BD24" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="BE24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF24" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="BG24" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BH24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BT24" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="BU24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV24" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="BW24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:77">
+      <c r="A25" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT25" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AU25" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AV25" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:77">
+      <c r="A26" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="BA26" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="BB26" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="BC26" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BD26" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="BE26" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="BF26" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="BG26" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="BH26" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="BI26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ26" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="BK26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BS26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT26" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="BU26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV26" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="BW26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX26" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="BY26" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:77">
+      <c r="A27" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AT27" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AU27" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AW27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:77">
+      <c r="A28" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:77">
+      <c r="A29" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="BA19" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="BB19" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="BC19" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="BD19" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="BE19" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="BF19" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="BG19" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="BH19" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="BI19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BJ19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BK19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BL19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BM19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BP19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BQ19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BR19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BS19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT19" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="BU19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV19" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="BW19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX19" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="BY19" s="2" t="s">
-        <v>344</v>
+      <c r="J29" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="AT29" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="AU29" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="AV29" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AW29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:77">
+      <c r="A30" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AT30" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="AV30" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AW30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ30" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="BA30" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB30" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="BC30" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="BD30" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="BE30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BW30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:77">
+      <c r="A31" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AS31" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AT31" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AU31" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="AV31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW31" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AX31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ31" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="BA31" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="BB31" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="BC31" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="BD31" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="BE31" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="BF31" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="BG31" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BH31" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="BI31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BP31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BS31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT31" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="BU31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV31" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="BW31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX31" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY31" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/dados/propostas_mon/relatorio_propostas.xlsx
+++ b/dados/propostas_mon/relatorio_propostas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
   <si>
     <t>Nº da Proposta</t>
   </si>
@@ -605,45 +605,6 @@
     <t>dddd</t>
   </si>
   <si>
-    <t>170463</t>
-  </si>
-  <si>
-    <t>11.228.564/0001-00</t>
-  </si>
-  <si>
-    <t>CAMPO GRANDE</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>XXXX S I M U L A Ç Ã O XXXXXXX</t>
-  </si>
-  <si>
-    <t>AGUA CLARA; ALCINOPOLIS; AMAMBAI; ANASTACIO; ANAURILANDIA; ANGELICA; ANTONIO JOAO; APARECIDA DO TABOADO; AQUIDAUANA; ARAL MOREIRA; BANDEIRANTES; BATAGUASSU; BATAYPORA; BELA VISTA; BODOQUENA; BONITO; BRASILANDIA; CAARAPO; CAMAPUA; CAMPO GRANDE; CARACOL; CASSILANDIA; CHAPADAO DO SUL; CORGUINHO; CORONEL SAPUCAIA; CORUMBA; COSTA RICA; COXIM; DEODAPOLIS; DOIS IRMAOS DO BURITI; DOURADINA; DOURADOS; ELDORADO; FATIMA DO SUL; FIGUEIRAO; GLORIA DE DOURADOS; GUIA LOPES DA LAGUNA; IGUATEMI; INOCENCIA; ITAPORA; ITAQUIRAI; IVINHEMA; JAPORA; JARAGUARI; JARDIM; JATEI; JUTI; LADARIO; LAGUNA CARAPA; MARACAJU; MIRANDA; MUNDO NOVO; NAVIRAI; NIOAQUE; NOVA ALVORADA DO SUL; NOVA ANDRADINA; NOVO HORIZONTE DO SUL; PARAISO DAS AGUAS; PARANAIBA; PARANHOS; PEDRO GOMES; PONTA PORA; PORTO MURTINHO; RIBAS DO RIO PARDO; RIO BRILHANTE; RIO NEGRO; RIO VERDE DE MATO GROSSO; ROCHEDO; SANTA RITA DO PARDO; SAO GABRIEL DO OESTE; SETE QUEDAS; SELVIRIA; SIDROLANDIA; SONORA; TACURU; TAQUARUSSU; TERENOS; TRES LAGOAS; VICENTINA</t>
-  </si>
-  <si>
-    <t>500020; 500025; 500060; 500070; 500080; 500085; 500090; 500100; 500110; 500124; 500150; 500190; 500200; 500210; 500215; 500220; 500230; 500240; 500260; 500270; 500280; 500290; 500295; 500310; 500315; 500320; 500325; 500330; 500345; 500348; 500350; 500370; 500375; 500380; 500390; 500400; 500410; 500430; 500440; 500450; 500460; 500470; 500480; 500490; 500500; 500510; 500515; 500520; 500525; 500540; 500560; 500568; 500570; 500580; 500600; 500620; 500625; 500627; 500630; 500635; 500640; 500660; 500690; 500710; 500720; 500730; 500740; 500750; 500755; 500769; 500770; 500780; 500790; 500793; 500795; 500797; 500800; 500830; 500840</t>
-  </si>
-  <si>
-    <t>2839188</t>
-  </si>
-  <si>
-    <t>MARTA DE SOUSA PANIAGO LEIRIA</t>
-  </si>
-  <si>
-    <t>martapleiria@gmail.com</t>
-  </si>
-  <si>
-    <t>67 99026802</t>
-  </si>
-  <si>
-    <t>22/02/2023</t>
-  </si>
-  <si>
-    <t>23/05/2023</t>
-  </si>
-  <si>
     <t>170490</t>
   </si>
   <si>
@@ -977,9 +938,24 @@
     <t>FUNDO ESPECIAL DE SAUDE</t>
   </si>
   <si>
+    <t>CAMPO GRANDE</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>A população estimada de Mato Grosso do Sul de 2.839.188 habitantes e a extensão territorial de 357.147,995 km², com densidade demográfica de 6,86 hab/km², de acordo com IBGE, Mato Grosso do Sul | Cidades e Estados | IBGE em 26 de agosto de 2022.
 O desenho regional da saúde é dividido por quatro macrorregiões de saúde, sendo elas Campo Grande, Dourados, Três Lagoas e Corumbá.
 O Estado dispõe de 77 serviços hospitalares, sendo 22 serviços de gestão municipal e 46 de gestão estadual. Os hospitais com maior densidade tecnológica ficam sob gestão municipal e a maioria dos hospitais de pequeno porte sob gestão estadual.</t>
+  </si>
+  <si>
+    <t>AGUA CLARA; ALCINOPOLIS; AMAMBAI; ANASTACIO; ANAURILANDIA; ANGELICA; ANTONIO JOAO; APARECIDA DO TABOADO; AQUIDAUANA; ARAL MOREIRA; BANDEIRANTES; BATAGUASSU; BATAYPORA; BELA VISTA; BODOQUENA; BONITO; BRASILANDIA; CAARAPO; CAMAPUA; CAMPO GRANDE; CARACOL; CASSILANDIA; CHAPADAO DO SUL; CORGUINHO; CORONEL SAPUCAIA; CORUMBA; COSTA RICA; COXIM; DEODAPOLIS; DOIS IRMAOS DO BURITI; DOURADINA; DOURADOS; ELDORADO; FATIMA DO SUL; FIGUEIRAO; GLORIA DE DOURADOS; GUIA LOPES DA LAGUNA; IGUATEMI; INOCENCIA; ITAPORA; ITAQUIRAI; IVINHEMA; JAPORA; JARAGUARI; JARDIM; JATEI; JUTI; LADARIO; LAGUNA CARAPA; MARACAJU; MIRANDA; MUNDO NOVO; NAVIRAI; NIOAQUE; NOVA ALVORADA DO SUL; NOVA ANDRADINA; NOVO HORIZONTE DO SUL; PARAISO DAS AGUAS; PARANAIBA; PARANHOS; PEDRO GOMES; PONTA PORA; PORTO MURTINHO; RIBAS DO RIO PARDO; RIO BRILHANTE; RIO NEGRO; RIO VERDE DE MATO GROSSO; ROCHEDO; SANTA RITA DO PARDO; SAO GABRIEL DO OESTE; SETE QUEDAS; SELVIRIA; SIDROLANDIA; SONORA; TACURU; TAQUARUSSU; TERENOS; TRES LAGOAS; VICENTINA</t>
+  </si>
+  <si>
+    <t>500020; 500025; 500060; 500070; 500080; 500085; 500090; 500100; 500110; 500124; 500150; 500190; 500200; 500210; 500215; 500220; 500230; 500240; 500260; 500270; 500280; 500290; 500295; 500310; 500315; 500320; 500325; 500330; 500345; 500348; 500350; 500370; 500375; 500380; 500390; 500400; 500410; 500430; 500440; 500450; 500460; 500470; 500480; 500490; 500500; 500510; 500515; 500520; 500525; 500540; 500560; 500568; 500570; 500580; 500600; 500620; 500625; 500627; 500630; 500635; 500640; 500660; 500690; 500710; 500720; 500730; 500740; 500750; 500755; 500769; 500770; 500780; 500790; 500793; 500795; 500797; 500800; 500830; 500840</t>
+  </si>
+  <si>
+    <t>2839188</t>
   </si>
   <si>
     <t>ANGELICA CRISTINA SEGATTO CONGRO</t>
@@ -1068,7 +1044,7 @@
 Entre as estratégias, deverá ser organizado as cirurgias de forma a atender pacientes em filas eletivas das 03 regiões de saúde (Baixo Acre Purus, Alto Acre e Juruá) e deverá ser como base também, instrumentos de gestão, dados epidemiológicos da única macrorregião de saúde no Estado do Acre, controle social e outros. É importante destacar que as variáveis estão sujeitas a alterações, podendo ser consultadas.</t>
   </si>
   <si>
-    <t>Enviada para o MS</t>
+    <t>Reenviada para o MS</t>
   </si>
   <si>
     <t>ACRELANDIA; ASSIS BRASIL; BRASILEIA; BUJARI; CAPIXABA; CRUZEIRO DO SUL; EPITACIOLANDIA; FEIJO; JORDAO; MANCIO LIMA; MANOEL URBANO; MARECHAL THAUMATURGO; PLACIDO DE CASTRO; PORTO WALTER; RIO BRANCO; RODRIGUES ALVES; SANTA ROSA DO PURUS; SENADOR GUIOMARD; SENA MADUREIRA; TARAUACA; XAPURI; PORTO ACRE</t>
@@ -1078,6 +1054,15 @@
   </si>
   <si>
     <t>906876</t>
+  </si>
+  <si>
+    <t>PRAZO -  enviar ate 15/mar/2023  a planilha atendimento devidamente preenchida.</t>
+  </si>
+  <si>
+    <t>10/03/2023 18:51:15</t>
+  </si>
+  <si>
+    <t>2.550.776,40</t>
   </si>
   <si>
     <t>MONALISA RAFAELY ZAFFONATO DA ROSA</t>
@@ -1132,7 +1117,7 @@
 Após esse trâmite, é realizado novo contato com paciente para orientação e encaminhamentos para o procedimento cirúrgico conforme oferta de vaga.</t>
   </si>
   <si>
-    <t>plano-atendimento-perf-cir-eletiva-vrs-4a 07 03 2023 DEFINITIVO.xlsx</t>
+    <t>13.03 - plano-atendimento-perf-cir-eletiva-vrs-4a ACRE versao 3 diligências sanadas.xlsx</t>
   </si>
   <si>
     <t>plano-monitoramento-perf-cir-eletiva-vrs-3- DEFINITIVO.xlsx</t>
@@ -1253,6 +1238,12 @@
 6- A confirmação da execução (ou não) do procedimento cirúrgico somente ocorre após a finalização do mês autorizado, informação enviada pelas Unidades Executantes através dos meus oficiais (planilhas e chaves no SISREG) para o CRDF. Para os pacientes submetidos ao procedimento cirúrgico, a Unidade Executante realiza o fechamento da chave no SISREG, sinalizando na planilha oficial que o procedimento foi realizado. Para os pacientes não submetidos ao procedimento cirúrgico, a Unidade Executante deve fornecer justificativa (dentre as padronizadas na planilha oficial) para a não execução, bem como realizar a reinserção da solicitação no SISREG com a devida sinalização, sendo o paciente priorizado no próximo agendamento por se tratar de reautorização.</t>
   </si>
   <si>
+    <t>2023_03_13_plano-monitoramento-perf-cir-eletiva-vrs-3-1_DF.xlsx</t>
+  </si>
+  <si>
+    <t>2023_03_13_Plano_atendimento_perf_cir_eletiva_vrs_4a_DF.xlsx</t>
+  </si>
+  <si>
     <t>170640</t>
   </si>
   <si>
@@ -1281,15 +1272,14 @@
     <t>3289290</t>
   </si>
   <si>
-    <t>- Na planilha de atendimento que foi enviada, na aba ¿Execução¿, ficaram faltando os percentuais das parcelas mensais a serem executadas (cronograma), não é uma falha digna de se tornar uma diligência, mas é bom ser preenchida para não deixar nenhuma pendência. Importante salientar que a nova versão da planilha venha renomeada como ¿versão 2¿ e que a mesma não seja desbloqueada, pois ela é protegida devido a fórmulas existentes.
-- E por último, o procedimento laqueadura tubária (código SIGTAP 409060186) exige habilitação local, sendo assim é necessário que esta situação seja pactuada na CIB e regularizada junto ao CNES para evitar qualquer rejeição na produção.
-PRAZO PARA AJUSTE: 5 dias.</t>
+    <t>Orientamos que as unidades que possuem exigências de serviço e/ou habilitação e/ou leito devem ajustar o CNES antes de iniciar os atendimentos.
+O processo tramitará no SEI NUP 25000.033448/2023-35.</t>
   </si>
   <si>
     <t>CAROLINA PERES XAVIER PINTO</t>
   </si>
   <si>
-    <t>06/03/2023 17:53:17</t>
+    <t>10/03/2023 17:54:36</t>
   </si>
   <si>
     <t>9.251.808,75</t>
@@ -1307,9 +1297,6 @@
     <t>01/03/2023 14:31:35</t>
   </si>
   <si>
-    <t>05/04/2023</t>
-  </si>
-  <si>
     <t>JOÃO VICTOR DA SILVA BARBOZA</t>
   </si>
   <si>
@@ -1322,7 +1309,7 @@
     <t>joao.victor@saude.pi.gov.br // ducara@saude.pi.gov.br</t>
   </si>
   <si>
-    <t>CamScanner 03-01-2023 13.28.pdf</t>
+    <t>Resol cib quadro e projeto anexo.pdf</t>
   </si>
   <si>
     <t>008/2023</t>
@@ -1424,6 +1411,20 @@
     <t>4108508</t>
   </si>
   <si>
+    <t>Prazo: 5 dias.
+Orientamos para:
+1) Envio da CIB com a assinatura do COSEMS/ES;
+2) Envio da planilha de atendimento na versão 4a, devidamente preenchida; e
+3) Envio da planilha de monitoramento na versão 3.
+A apoiadora DRAC estará à disposição para quaisquer esclarecimentos complementares.</t>
+  </si>
+  <si>
+    <t>CLAUDIA RIBEIRO ZINI LISE</t>
+  </si>
+  <si>
+    <t>10/03/2023 17:20:19</t>
+  </si>
+  <si>
     <t>11.556.028,89</t>
   </si>
   <si>
@@ -1437,6 +1438,9 @@
   </si>
   <si>
     <t>09/03/2023 09:36:57</t>
+  </si>
+  <si>
+    <t>09/04/2023</t>
   </si>
   <si>
     <t>Maria Jose da Costa Mendes</t>
@@ -1684,7 +1688,22 @@
     <t>1815278</t>
   </si>
   <si>
+    <t>Existem exigências de SERVIÇO e/ou HABILITAÇÃO, orientamos para ajustar o CNES antes de iniciar os atendimentos.
+O estado informou que ajustará o CNES.
+A Planilha Atendimento aprovada, versão 4, corresponde à enviada por e-mail em 09/03/2023, a qual segue anexa.
+A proposta aprovada passará a tramitar pelo SEI NUP 25000.033366/2023-91.</t>
+  </si>
+  <si>
+    <t>LEANDRO ARANTES DE MELO</t>
+  </si>
+  <si>
+    <t>10/03/2023 15:59:43</t>
+  </si>
+  <si>
     <t>0,00</t>
+  </si>
+  <si>
+    <t>5.105.845,00</t>
   </si>
   <si>
     <t>MARIANA AGUIAR PRADO</t>
@@ -1908,6 +1927,17 @@
     <t>522357</t>
   </si>
   <si>
+    <t>Prazo para atendimento da diligência: 5 dias.
+Enquanto o Plano Estadual de Redução de Filas estiver sendo elaborado pode ser salvo para adequações, ainda no âmbito do Estado.
+Somente após a conclusão de todas as etapas do processo, deverá ser finalizado e enviado ao Ministério.</t>
+  </si>
+  <si>
+    <t>JANAINA LOPES DE NOVAIS</t>
+  </si>
+  <si>
+    <t>09/03/2023 16:25:51</t>
+  </si>
+  <si>
     <t>ELIELB VALES MACIEL</t>
   </si>
   <si>
@@ -1921,6 +1951,9 @@
   </si>
   <si>
     <t>09/03/2023 11:32:50</t>
+  </si>
+  <si>
+    <t>08/04/2023</t>
   </si>
   <si>
     <t>JUVANETE AMORAS TAVORA</t>
@@ -1975,6 +2008,54 @@
   </si>
   <si>
     <t>plano-atendimento-perf-cir-eletiva-vrs-4a.xlsx</t>
+  </si>
+  <si>
+    <t>170906</t>
+  </si>
+  <si>
+    <t>05.370.016/0001-00</t>
+  </si>
+  <si>
+    <t>FUNDO ESTADUAL DE SAUDE DO ESTADO RORAIMA</t>
+  </si>
+  <si>
+    <t>BOA VISTA</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>BOA VISTA; RORAINOPOLIS</t>
+  </si>
+  <si>
+    <t>140010; 140047</t>
+  </si>
+  <si>
+    <t>467978</t>
+  </si>
+  <si>
+    <t>ANA CLAUDIA ALMEIDA DE SOUZA</t>
+  </si>
+  <si>
+    <t>klaudia.souzza@gmail.com</t>
+  </si>
+  <si>
+    <t>95 81225490</t>
+  </si>
+  <si>
+    <t>07/06/2023</t>
+  </si>
+  <si>
+    <t>ANA CLÁUDIA ALMEIDA DE SOUZA</t>
+  </si>
+  <si>
+    <t>DIRETORA DE REGULAÇÃO</t>
+  </si>
+  <si>
+    <t>(95) 98122-5490</t>
+  </si>
+  <si>
+    <t>dereg.cgrac@saude.rr.gov.br</t>
   </si>
 </sst>
 </file>
@@ -4092,16 +4173,16 @@
         <v>183</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>87</v>
@@ -4122,13 +4203,13 @@
         <v>79</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>79</v>
@@ -4197,19 +4278,19 @@
         <v>79</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AW8" s="2" t="s">
         <v>79</v>
@@ -4301,7 +4382,7 @@
     </row>
     <row r="9" spans="1:77">
       <c r="A9" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>76</v>
@@ -4322,10 +4403,10 @@
         <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>198</v>
@@ -4454,19 +4535,19 @@
         <v>79</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="BA9" s="2" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="BC9" s="2" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="BD9" s="2" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="BE9" s="2" t="s">
         <v>79</v>
@@ -4534,7 +4615,7 @@
     </row>
     <row r="10" spans="1:77">
       <c r="A10" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>76</v>
@@ -4555,19 +4636,19 @@
         <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>87</v>
@@ -4588,13 +4669,13 @@
         <v>79</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>79</v>
@@ -4663,19 +4744,19 @@
         <v>79</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="AW10" s="2" t="s">
         <v>79</v>
@@ -4687,19 +4768,19 @@
         <v>79</v>
       </c>
       <c r="AZ10" s="2" t="s">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="BA10" s="2" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="BB10" s="2" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="BC10" s="2" t="s">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="BE10" s="2" t="s">
         <v>79</v>
@@ -4767,7 +4848,7 @@
     </row>
     <row r="11" spans="1:77">
       <c r="A11" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>76</v>
@@ -4788,19 +4869,19 @@
         <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>87</v>
@@ -4821,118 +4902,118 @@
         <v>79</v>
       </c>
       <c r="S11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR11" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AS11" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AS11" s="2" t="s">
+      <c r="AT11" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AU11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AU11" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AV11" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AW11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="BB11" s="2" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="BC11" s="2" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="BD11" s="2" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="BE11" s="2" t="s">
         <v>79</v>
@@ -5000,7 +5081,7 @@
     </row>
     <row r="12" spans="1:77">
       <c r="A12" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>76</v>
@@ -5021,19 +5102,19 @@
         <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>87</v>
@@ -5054,13 +5135,13 @@
         <v>79</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>79</v>
@@ -5087,10 +5168,10 @@
         <v>79</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AF12" s="2" t="s">
         <v>79</v>
@@ -5129,19 +5210,19 @@
         <v>79</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="AW12" s="2" t="s">
         <v>79</v>
@@ -5153,19 +5234,19 @@
         <v>79</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="BA12" s="2" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="BB12" s="2" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="BC12" s="2" t="s">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="BD12" s="2" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="BE12" s="2" t="s">
         <v>79</v>
@@ -5233,7 +5314,7 @@
     </row>
     <row r="13" spans="1:77">
       <c r="A13" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>76</v>
@@ -5254,10 +5335,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>255</v>
@@ -5269,7 +5350,7 @@
         <v>257</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>79</v>
@@ -5278,7 +5359,7 @@
         <v>79</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>88</v>
@@ -5287,13 +5368,13 @@
         <v>79</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>79</v>
@@ -5311,25 +5392,25 @@
         <v>79</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AH13" s="2" t="s">
         <v>79</v>
@@ -5362,22 +5443,22 @@
         <v>79</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>79</v>
@@ -5386,87 +5467,87 @@
         <v>79</v>
       </c>
       <c r="AZ13" s="2" t="s">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="BA13" s="2" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="BB13" s="2" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="BC13" s="2" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="BD13" s="2" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="BF13" s="2" t="s">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="BG13" s="2" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="BH13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BI13" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BJ13" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BK13" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BL13" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BM13" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BN13" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BO13" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BP13" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BQ13" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BR13" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BS13" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BT13" s="2" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="BU13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV13" s="2" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="BW13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX13" s="2" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="BY13" s="2" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:77">
       <c r="A14" s="2" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>76</v>
@@ -5487,22 +5568,22 @@
         <v>81</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>79</v>
@@ -5511,7 +5592,7 @@
         <v>79</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>88</v>
@@ -5520,13 +5601,13 @@
         <v>79</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>79</v>
@@ -5544,25 +5625,25 @@
         <v>79</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AH14" s="2" t="s">
         <v>79</v>
@@ -5595,22 +5676,22 @@
         <v>79</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>79</v>
@@ -5619,82 +5700,82 @@
         <v>79</v>
       </c>
       <c r="AZ14" s="2" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="BA14" s="2" t="s">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="BB14" s="2" t="s">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="BC14" s="2" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="BD14" s="2" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="BE14" s="2" t="s">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="BF14" s="2" t="s">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="BG14" s="2" t="s">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="BH14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BK14" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BL14" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BM14" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BN14" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BO14" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BP14" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BQ14" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BR14" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BS14" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BT14" s="2" t="s">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="BU14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV14" s="2" t="s">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="BW14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX14" s="2" t="s">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="BY14" s="2" t="s">
-        <v>294</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:77">
@@ -5726,13 +5807,13 @@
         <v>297</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>87</v>
@@ -5753,13 +5834,13 @@
         <v>79</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>79</v>
@@ -5828,43 +5909,43 @@
         <v>79</v>
       </c>
       <c r="AR15" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT15" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ15" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AS15" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AT15" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AU15" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AV15" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="AW15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ15" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="BA15" s="2" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="BB15" s="2" t="s">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="BC15" s="2" t="s">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="BD15" s="2" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="BE15" s="2" t="s">
         <v>79</v>
@@ -5932,7 +6013,7 @@
     </row>
     <row r="16" spans="1:77">
       <c r="A16" s="2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>76</v>
@@ -5953,22 +6034,22 @@
         <v>81</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>87</v>
+        <v>318</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>79</v>
@@ -5986,13 +6067,13 @@
         <v>79</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>79</v>
@@ -6010,13 +6091,13 @@
         <v>79</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>79</v>
@@ -6025,10 +6106,10 @@
         <v>79</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AH16" s="2" t="s">
         <v>79</v>
@@ -6061,111 +6142,111 @@
         <v>79</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AV16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ16" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AW16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ16" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="BA16" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="BC16" s="2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="BD16" s="2" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="BE16" s="2" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="BF16" s="2" t="s">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="BG16" s="2" t="s">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="BH16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BI16" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BJ16" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BK16" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BL16" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BM16" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BN16" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BO16" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BP16" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BQ16" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BR16" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BS16" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BT16" s="2" t="s">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="BU16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV16" s="2" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="BW16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX16" s="2" t="s">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="BY16" s="2" t="s">
-        <v>79</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:77">
       <c r="A17" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>76</v>
@@ -6186,22 +6267,22 @@
         <v>81</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>79</v>
@@ -6210,7 +6291,7 @@
         <v>79</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>88</v>
@@ -6219,13 +6300,13 @@
         <v>79</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>79</v>
@@ -6252,10 +6333,10 @@
         <v>79</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AF17" s="2" t="s">
         <v>79</v>
@@ -6294,22 +6375,22 @@
         <v>79</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>79</v>
@@ -6318,55 +6399,55 @@
         <v>79</v>
       </c>
       <c r="AZ17" s="2" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="BA17" s="2" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BB17" s="2" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BC17" s="2" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="BD17" s="2" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="BE17" s="2" t="s">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="BF17" s="2" t="s">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="BG17" s="2" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="BH17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BI17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BJ17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BK17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BL17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BM17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BN17" s="2" t="s">
         <v>161</v>
       </c>
       <c r="BO17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP17" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="BP17" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="BQ17" s="2" t="s">
         <v>161</v>
@@ -6378,27 +6459,27 @@
         <v>161</v>
       </c>
       <c r="BT17" s="2" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="BU17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV17" s="2" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="BW17" s="2" t="s">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="BX17" s="2" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="BY17" s="2" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:77">
       <c r="A18" s="2" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>76</v>
@@ -6419,22 +6500,22 @@
         <v>81</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>79</v>
@@ -6443,7 +6524,7 @@
         <v>79</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>88</v>
@@ -6452,97 +6533,97 @@
         <v>79</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="U18" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU18" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="AV18" s="2" t="s">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AW18" s="2" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>79</v>
@@ -6551,43 +6632,43 @@
         <v>79</v>
       </c>
       <c r="AZ18" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="BA18" s="2" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="BB18" s="2" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="BC18" s="2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="BD18" s="2" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="BE18" s="2" t="s">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="BF18" s="2" t="s">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="BG18" s="2" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="BH18" s="2" t="s">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="BI18" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BJ18" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BK18" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BL18" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BM18" s="2" t="s">
         <v>161</v>
@@ -6599,7 +6680,7 @@
         <v>162</v>
       </c>
       <c r="BP18" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BQ18" s="2" t="s">
         <v>161</v>
@@ -6608,30 +6689,30 @@
         <v>161</v>
       </c>
       <c r="BS18" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BT18" s="2" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="BU18" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV18" s="2" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="BW18" s="2" t="s">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="BX18" s="2" t="s">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="BY18" s="2" t="s">
-        <v>79</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:77">
       <c r="A19" s="2" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>76</v>
@@ -6652,22 +6733,22 @@
         <v>81</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>369</v>
+        <v>184</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>372</v>
+        <v>86</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>79</v>
@@ -6685,13 +6766,13 @@
         <v>79</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>79</v>
@@ -6709,25 +6790,25 @@
         <v>79</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AH19" s="2" t="s">
         <v>79</v>
@@ -6760,111 +6841,111 @@
         <v>79</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AZ19" s="2" t="s">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="BA19" s="2" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="BB19" s="2" t="s">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="BC19" s="2" t="s">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="BD19" s="2" t="s">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="BE19" s="2" t="s">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="BF19" s="2" t="s">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="BG19" s="2" t="s">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="BH19" s="2" t="s">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="BI19" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BJ19" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BK19" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BL19" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BM19" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BN19" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BO19" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BP19" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BQ19" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BR19" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BS19" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BT19" s="2" t="s">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="BU19" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV19" s="2" t="s">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="BW19" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX19" s="2" t="s">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="BY19" s="2" t="s">
-        <v>396</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:77">
       <c r="A20" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>76</v>
@@ -6885,22 +6966,22 @@
         <v>81</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>410</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>79</v>
@@ -6909,7 +6990,7 @@
         <v>79</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>88</v>
@@ -6918,186 +6999,186 @@
         <v>79</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="U20" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AT20" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AU20" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR20" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="AS20" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="AT20" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="AU20" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="AV20" s="2" t="s">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AZ20" s="2" t="s">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="BA20" s="2" t="s">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="BB20" s="2" t="s">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="BC20" s="2" t="s">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="BD20" s="2" t="s">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="BE20" s="2" t="s">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="BF20" s="2" t="s">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="BG20" s="2" t="s">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="BH20" s="2" t="s">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="BI20" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BJ20" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BK20" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BL20" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BM20" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BN20" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BO20" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BP20" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BQ20" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BR20" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BS20" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BT20" s="2" t="s">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="BU20" s="2" t="s">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="BV20" s="2" t="s">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="BW20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX20" s="2" t="s">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="BY20" s="2" t="s">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:77">
       <c r="A21" s="2" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>76</v>
@@ -7118,22 +7199,22 @@
         <v>81</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>411</v>
+        <v>184</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>79</v>
@@ -7151,13 +7232,13 @@
         <v>79</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>79</v>
@@ -7184,10 +7265,10 @@
         <v>79</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>79</v>
@@ -7226,22 +7307,22 @@
         <v>79</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="AT21" s="2" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AV21" s="2" t="s">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>79</v>
@@ -7250,87 +7331,87 @@
         <v>79</v>
       </c>
       <c r="AZ21" s="2" t="s">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="BA21" s="2" t="s">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="BB21" s="2" t="s">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="BC21" s="2" t="s">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="BD21" s="2" t="s">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="BE21" s="2" t="s">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="BF21" s="2" t="s">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="BG21" s="2" t="s">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="BH21" s="2" t="s">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="BI21" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BJ21" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BK21" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BL21" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BM21" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BN21" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BO21" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BP21" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BQ21" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BR21" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BS21" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BT21" s="2" t="s">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="BU21" s="2" t="s">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="BV21" s="2" t="s">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="BW21" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX21" s="2" t="s">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="BY21" s="2" t="s">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:77">
       <c r="A22" s="2" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>76</v>
@@ -7351,19 +7432,19 @@
         <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>439</v>
+        <v>217</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>87</v>
@@ -7375,7 +7456,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>88</v>
@@ -7384,13 +7465,13 @@
         <v>79</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>79</v>
@@ -7417,10 +7498,10 @@
         <v>79</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>79</v>
@@ -7459,19 +7540,19 @@
         <v>79</v>
       </c>
       <c r="AR22" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AS22" s="2" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AT22" s="2" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="AV22" s="2" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="AW22" s="2" t="s">
         <v>79</v>
@@ -7563,7 +7644,7 @@
     </row>
     <row r="23" spans="1:77">
       <c r="A23" s="2" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>76</v>
@@ -7584,19 +7665,19 @@
         <v>81</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>230</v>
+        <v>463</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>87</v>
@@ -7617,13 +7698,13 @@
         <v>79</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>79</v>
@@ -7692,13 +7773,13 @@
         <v>79</v>
       </c>
       <c r="AR23" s="2" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="AT23" s="2" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="AU23" s="2" t="s">
         <v>457</v>
@@ -7716,73 +7797,73 @@
         <v>79</v>
       </c>
       <c r="AZ23" s="2" t="s">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="BA23" s="2" t="s">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="BB23" s="2" t="s">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="BC23" s="2" t="s">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="BD23" s="2" t="s">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="BE23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BF23" s="2" t="s">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="BG23" s="2" t="s">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="BH23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BI23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BJ23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BK23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BL23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BM23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BN23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BO23" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BP23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BQ23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BR23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BS23" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BT23" s="2" t="s">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="BU23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV23" s="2" t="s">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="BW23" s="2" t="s">
         <v>79</v>
@@ -7796,7 +7877,7 @@
     </row>
     <row r="24" spans="1:77">
       <c r="A24" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>76</v>
@@ -7817,19 +7898,19 @@
         <v>81</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>87</v>
@@ -7850,13 +7931,13 @@
         <v>79</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>79</v>
@@ -7925,13 +8006,13 @@
         <v>79</v>
       </c>
       <c r="AR24" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="AS24" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="AT24" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="AU24" s="2" t="s">
         <v>457</v>
@@ -7949,73 +8030,73 @@
         <v>79</v>
       </c>
       <c r="AZ24" s="2" t="s">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="BA24" s="2" t="s">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="BB24" s="2" t="s">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="BC24" s="2" t="s">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="BD24" s="2" t="s">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="BE24" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BF24" s="2" t="s">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="BG24" s="2" t="s">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="BH24" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BI24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BJ24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BK24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BL24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BM24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BN24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BO24" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BP24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BQ24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BR24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BS24" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BT24" s="2" t="s">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="BU24" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV24" s="2" t="s">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="BW24" s="2" t="s">
         <v>79</v>
@@ -8029,7 +8110,7 @@
     </row>
     <row r="25" spans="1:77">
       <c r="A25" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>76</v>
@@ -8050,22 +8131,22 @@
         <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>79</v>
@@ -8074,7 +8155,7 @@
         <v>79</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>88</v>
@@ -8083,13 +8164,13 @@
         <v>79</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>79</v>
@@ -8107,25 +8188,25 @@
         <v>79</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AH25" s="2" t="s">
         <v>79</v>
@@ -8158,22 +8239,22 @@
         <v>79</v>
       </c>
       <c r="AR25" s="2" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="AS25" s="2" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="AT25" s="2" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="AU25" s="2" t="s">
         <v>457</v>
       </c>
       <c r="AV25" s="2" t="s">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>79</v>
@@ -8182,87 +8263,87 @@
         <v>79</v>
       </c>
       <c r="AZ25" s="2" t="s">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="BA25" s="2" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="BB25" s="2" t="s">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="BC25" s="2" t="s">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="BD25" s="2" t="s">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="BE25" s="2" t="s">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="BF25" s="2" t="s">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="BG25" s="2" t="s">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="BI25" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BJ25" s="2" t="s">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="BK25" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BL25" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BM25" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BN25" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BO25" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BP25" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BQ25" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BR25" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BS25" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BT25" s="2" t="s">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="BU25" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV25" s="2" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="BW25" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX25" s="2" t="s">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="BY25" s="2" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:77">
       <c r="A26" s="2" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>76</v>
@@ -8283,22 +8364,22 @@
         <v>81</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>483</v>
+        <v>172</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>79</v>
@@ -8307,7 +8388,7 @@
         <v>79</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>88</v>
@@ -8316,13 +8397,13 @@
         <v>79</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>79</v>
@@ -8349,10 +8430,10 @@
         <v>79</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="AF26" s="2" t="s">
         <v>79</v>
@@ -8391,22 +8472,22 @@
         <v>79</v>
       </c>
       <c r="AR26" s="2" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="AS26" s="2" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="AT26" s="2" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="AV26" s="2" t="s">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>79</v>
@@ -8415,87 +8496,87 @@
         <v>79</v>
       </c>
       <c r="AZ26" s="2" t="s">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="BA26" s="2" t="s">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="BB26" s="2" t="s">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="BC26" s="2" t="s">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="BD26" s="2" t="s">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="BE26" s="2" t="s">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="BF26" s="2" t="s">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="BG26" s="2" t="s">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="BH26" s="2" t="s">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="BI26" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BJ26" s="2" t="s">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="BK26" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BL26" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BM26" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BN26" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BO26" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BP26" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BQ26" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="BR26" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BS26" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BT26" s="2" t="s">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="BU26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV26" s="2" t="s">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="BW26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX26" s="2" t="s">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="BY26" s="2" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:77">
       <c r="A27" s="2" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>76</v>
@@ -8516,19 +8597,19 @@
         <v>81</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>172</v>
+        <v>525</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>87</v>
@@ -8549,13 +8630,13 @@
         <v>79</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>79</v>
@@ -8582,10 +8663,10 @@
         <v>79</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="AF27" s="2" t="s">
         <v>79</v>
@@ -8624,19 +8705,19 @@
         <v>79</v>
       </c>
       <c r="AR27" s="2" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="AT27" s="2" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AV27" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AW27" s="2" t="s">
         <v>79</v>
@@ -8728,7 +8809,7 @@
     </row>
     <row r="28" spans="1:77">
       <c r="A28" s="2" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>76</v>
@@ -8749,19 +8830,19 @@
         <v>81</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>87</v>
@@ -8782,13 +8863,13 @@
         <v>79</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>79</v>
@@ -8857,19 +8938,19 @@
         <v>79</v>
       </c>
       <c r="AR28" s="2" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="AS28" s="2" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="AT28" s="2" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="AU28" s="2" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="AV28" s="2" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="AW28" s="2" t="s">
         <v>79</v>
@@ -8961,7 +9042,7 @@
     </row>
     <row r="29" spans="1:77">
       <c r="A29" s="2" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>76</v>
@@ -8982,19 +9063,19 @@
         <v>81</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>530</v>
+        <v>448</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>322</v>
+        <v>184</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>531</v>
+        <v>449</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>532</v>
+        <v>450</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>87</v>
@@ -9015,13 +9096,13 @@
         <v>79</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>534</v>
+        <v>451</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>79</v>
@@ -9090,19 +9171,19 @@
         <v>79</v>
       </c>
       <c r="AR29" s="2" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="AS29" s="2" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="AT29" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="AU29" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AV29" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AW29" s="2" t="s">
         <v>79</v>
@@ -9114,19 +9195,19 @@
         <v>79</v>
       </c>
       <c r="AZ29" s="2" t="s">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="BA29" s="2" t="s">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="BB29" s="2" t="s">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="BC29" s="2" t="s">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="BD29" s="2" t="s">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="BE29" s="2" t="s">
         <v>79</v>
@@ -9194,7 +9275,7 @@
     </row>
     <row r="30" spans="1:77">
       <c r="A30" s="2" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>76</v>
@@ -9215,22 +9296,22 @@
         <v>81</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>448</v>
+        <v>554</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>79</v>
@@ -9239,7 +9320,7 @@
         <v>79</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>88</v>
@@ -9248,13 +9329,13 @@
         <v>79</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>452</v>
+        <v>558</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>453</v>
+        <v>559</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>79</v>
@@ -9272,25 +9353,25 @@
         <v>79</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AH30" s="2" t="s">
         <v>79</v>
@@ -9323,111 +9404,111 @@
         <v>79</v>
       </c>
       <c r="AR30" s="2" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="AS30" s="2" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="AT30" s="2" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="AV30" s="2" t="s">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AY30" s="2" t="s">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="AZ30" s="2" t="s">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="BA30" s="2" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="BB30" s="2" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="BC30" s="2" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="BD30" s="2" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="BE30" s="2" t="s">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="BF30" s="2" t="s">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="BG30" s="2" t="s">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="BH30" s="2" t="s">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="BI30" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BJ30" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BK30" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BL30" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BM30" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BN30" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BO30" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BP30" s="2" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="BQ30" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BR30" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BS30" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="BT30" s="2" t="s">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="BU30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV30" s="2" t="s">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="BW30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX30" s="2" t="s">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="BY30" s="2" t="s">
-        <v>79</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:77">
       <c r="A31" s="2" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>76</v>
@@ -9448,22 +9529,22 @@
         <v>81</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>197</v>
+        <v>583</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>79</v>
@@ -9472,7 +9553,7 @@
         <v>79</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>88</v>
@@ -9481,13 +9562,13 @@
         <v>79</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>79</v>
@@ -9514,10 +9595,10 @@
         <v>79</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AF31" s="2" t="s">
         <v>79</v>
@@ -9556,22 +9637,22 @@
         <v>79</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>556</v>
+        <v>589</v>
       </c>
       <c r="AS31" s="2" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="AT31" s="2" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AV31" s="2" t="s">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>79</v>
@@ -9580,37 +9661,37 @@
         <v>79</v>
       </c>
       <c r="AZ31" s="2" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="BA31" s="2" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="BB31" s="2" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="BC31" s="2" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="BD31" s="2" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="BE31" s="2" t="s">
-        <v>565</v>
+        <v>79</v>
       </c>
       <c r="BF31" s="2" t="s">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="BG31" s="2" t="s">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="BH31" s="2" t="s">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="BI31" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BJ31" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BK31" s="2" t="s">
         <v>161</v>
@@ -9625,37 +9706,37 @@
         <v>161</v>
       </c>
       <c r="BO31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BP31" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BQ31" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="BR31" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BS31" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="BT31" s="2" t="s">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="BU31" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BV31" s="2" t="s">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="BW31" s="2" t="s">
         <v>79</v>
       </c>
       <c r="BX31" s="2" t="s">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="BY31" s="2" t="s">
-        <v>572</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
